--- a/6635c1f56183b882e42d1434_SWT_Lab2_UNIT_TESTING_template.xlsx
+++ b/6635c1f56183b882e42d1434_SWT_Lab2_UNIT_TESTING_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Semester 5\SWT301\lab2\FruitShopLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F87B8-AF0B-475C-B1B6-8B5B0C99D22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF86C7-ABB5-43CD-A547-BCBC9D61D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidleline" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">FunctionList!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Funtion testing'!$A$1:$T$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Guidleline!$A$1:$A$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Test Report'!$A$1:$I$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Test Report'!$A$1:$I$56</definedName>
     <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="4" hidden="1">'Funtion testing'!$E:$E</definedName>
     <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.PrintArea" localSheetId="3" hidden="1">'Test Report'!$A:$I</definedName>
     <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="4" hidden="1">'Funtion testing'!$E:$E</definedName>
@@ -688,12 +688,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="DE53" authorId="2" shapeId="0" xr:uid="{C6B55F94-B1F3-414F-920E-F23A181BE3E2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not mandatory</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="238">
   <si>
     <t>UNIT TEST CASE</t>
   </si>
@@ -1493,6 +1506,43 @@
   </si>
   <si>
     <t>getYN_No</t>
+  </si>
+  <si>
+    <t>assertNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ", !@#\n"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ", \n"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "abc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "-1.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "11.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "11"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "-1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7</t>
+  </si>
+  <si>
+    <t>getInt_Invalid</t>
+  </si>
+  <si>
+    <t>getDouble_Invalid</t>
+  </si>
+  <si>
+    <t>getString_Invalid</t>
   </si>
 </sst>
 </file>
@@ -3692,6 +3742,18 @@
     <xf numFmtId="0" fontId="34" fillId="27" borderId="31" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="23" fillId="24" borderId="87" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="24" borderId="88" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="89" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="90" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3759,23 +3821,35 @@
     <xf numFmtId="0" fontId="29" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="69" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="70" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="31" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="71" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="46" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="79" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="74" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="78" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3792,17 +3866,17 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="73" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="74" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="69" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="70" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="71" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3843,41 +3917,11 @@
     <xf numFmtId="0" fontId="37" fillId="31" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="31" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="85" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="86" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="78" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="74" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3897,6 +3941,24 @@
     <xf numFmtId="0" fontId="35" fillId="24" borderId="81" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="46" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="79" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="74" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3905,18 +3967,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="78" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="24" borderId="87" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="24" borderId="88" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="89" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="90" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -4169,7 +4219,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Report'!$F$29:$H$29</c:f>
+              <c:f>'Test Report'!$F$32:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4177,7 +4227,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4704,7 +4754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Report'!$F$29:$H$29</c:f>
+              <c:f>'Test Report'!$F$32:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4712,7 +4762,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5014,12 +5064,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Report'!$C$29:$E$29</c:f>
+              <c:f>'Test Report'!$C$32:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5553,12 +5603,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Report'!$C$29:$E$29</c:f>
+              <c:f>'Test Report'!$C$32:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5760,13 +5810,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5798,13 +5848,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6431,13 +6481,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4"/>
@@ -6448,11 +6498,11 @@
       <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="119" t="s">
         <v>3</v>
       </c>
@@ -6462,26 +6512,26 @@
       <c r="A5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
       <c r="E5" s="119" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="181" t="str">
+      <c r="B6" s="185" t="str">
         <f>B5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
       <c r="E6" s="119" t="s">
         <v>8</v>
       </c>
@@ -6490,10 +6540,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
       <c r="E7" s="119" t="s">
         <v>10</v>
       </c>
@@ -6616,7 +6666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -6647,48 +6697,48 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="189"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="189"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="135"/>
       <c r="F6" s="135"/>
       <c r="G6" s="136"/>
     </row>
     <row r="7" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="187"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="191"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="31"/>
@@ -6897,15 +6947,15 @@
       <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="13.8">
-      <c r="A26" s="250"/>
-      <c r="B26" s="251"/>
-      <c r="C26" s="251"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="122" t="s">
         <v>224</v>
       </c>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="253"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="181"/>
     </row>
     <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="104"/>
@@ -6944,10 +6994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -6964,17 +7014,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="50"/>
@@ -6991,72 +7041,72 @@
       <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="198" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="195" t="s">
+      <c r="C4" s="198"/>
+      <c r="D4" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="195"/>
-      <c r="F4" s="198" t="s">
+      <c r="E4" s="199"/>
+      <c r="F4" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="204"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="198" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195" t="s">
+      <c r="C5" s="198"/>
+      <c r="D5" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="195"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="204"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="194" t="str">
+      <c r="B6" s="198" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>FruitShopTesting_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="195" t="s">
+      <c r="C6" s="198"/>
+      <c r="D6" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="195"/>
-      <c r="F6" s="191" t="s">
+      <c r="E6" s="199"/>
+      <c r="F6" s="195" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="193"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="197"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="53"/>
@@ -7469,7 +7519,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="122" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C24" s="61">
         <v>1</v>
@@ -7498,10 +7548,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="122" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C25" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="61">
         <v>0</v>
@@ -7510,16 +7560,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="61">
         <v>0</v>
       </c>
       <c r="I25" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.8">
@@ -7527,10 +7577,10 @@
         <v>15</v>
       </c>
       <c r="B26" s="122" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C26" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="61">
         <v>0</v>
@@ -7539,16 +7589,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" s="61">
         <v>0</v>
       </c>
       <c r="I26" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.8">
@@ -7556,10 +7606,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="122" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C27" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="61">
         <v>0</v>
@@ -7568,16 +7618,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="61">
         <v>0</v>
       </c>
       <c r="I27" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.8">
@@ -7585,7 +7635,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="122" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C28" s="61">
         <v>2</v>
@@ -7597,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="62">
+        <v>2</v>
+      </c>
+      <c r="G28" s="61">
         <v>0</v>
-      </c>
-      <c r="G28" s="61">
-        <v>2</v>
       </c>
       <c r="H28" s="61">
         <v>0</v>
@@ -7610,108 +7660,195 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.8">
-      <c r="A29" s="63"/>
-      <c r="B29" s="123" t="s">
+      <c r="A29" s="60">
+        <v>18</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="61">
+        <v>2</v>
+      </c>
+      <c r="D29" s="61">
+        <v>0</v>
+      </c>
+      <c r="E29" s="61">
+        <v>0</v>
+      </c>
+      <c r="F29" s="62">
+        <v>2</v>
+      </c>
+      <c r="G29" s="61">
+        <v>0</v>
+      </c>
+      <c r="H29" s="61">
+        <v>0</v>
+      </c>
+      <c r="I29" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.8">
+      <c r="A30" s="60">
+        <v>19</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="61">
+        <v>2</v>
+      </c>
+      <c r="D30" s="61">
+        <v>0</v>
+      </c>
+      <c r="E30" s="61">
+        <v>0</v>
+      </c>
+      <c r="F30" s="62">
+        <v>2</v>
+      </c>
+      <c r="G30" s="61">
+        <v>0</v>
+      </c>
+      <c r="H30" s="61">
+        <v>0</v>
+      </c>
+      <c r="I30" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.8">
+      <c r="A31" s="60">
+        <v>20</v>
+      </c>
+      <c r="B31" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="61">
+        <v>2</v>
+      </c>
+      <c r="D31" s="61">
+        <v>0</v>
+      </c>
+      <c r="E31" s="61">
+        <v>0</v>
+      </c>
+      <c r="F31" s="62">
+        <v>0</v>
+      </c>
+      <c r="G31" s="61">
+        <v>2</v>
+      </c>
+      <c r="H31" s="61">
+        <v>0</v>
+      </c>
+      <c r="I31" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.8">
+      <c r="A32" s="63"/>
+      <c r="B32" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="64">
-        <f>SUM(C10:C28)</f>
-        <v>37</v>
-      </c>
-      <c r="D29" s="64">
-        <f>SUM(D10:D28)</f>
+      <c r="C32" s="64">
+        <f t="shared" ref="C32:I32" si="0">SUM(C10:C31)</f>
+        <v>44</v>
+      </c>
+      <c r="D32" s="64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="64">
-        <f>SUM(E10:E28)</f>
+      <c r="E32" s="64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="64">
-        <f>SUM(F10:F28)</f>
+      <c r="F32" s="64">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G29" s="64">
-        <f>SUM(G10:G28)</f>
-        <v>5</v>
-      </c>
-      <c r="H29" s="64">
-        <f>SUM(H10:H28)</f>
+      <c r="G32" s="64">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H32" s="64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="64">
-        <f>SUM(I10:I28)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="138" t="s">
+      <c r="I32" s="64">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="139">
-        <f>(C29+D29)*100/(I29)</f>
+      <c r="D34" s="139">
+        <f>(C32+D32)*100/(I32)</f>
         <v>100</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="68"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="138" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="139">
-        <f>C29*100/(I29)</f>
-        <v>100</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="68"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="138" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="139">
-        <f>F29*100/I29</f>
-        <v>86.486486486486484</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="139">
-        <f>G29*100/I29</f>
-        <v>13.513513513513514</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="I34" s="68"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="139">
+        <f>C32*100/(I32)</f>
+        <v>100</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="68"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="139">
+        <f>F32*100/I32</f>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="139">
+        <f>G32*100/I32</f>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="139">
-        <f>H29*100/I29</f>
+      <c r="D38" s="139">
+        <f>H32*100/I32</f>
         <v>0</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7748,8 +7885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FL140"/>
   <sheetViews>
-    <sheetView topLeftCell="CD45" zoomScale="111" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CJ45" sqref="CJ45:CL45"/>
+    <sheetView topLeftCell="CZ53" zoomScale="111" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="DD59" sqref="DD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -7785,285 +7922,285 @@
       <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:168" ht="13.5" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="218" t="s">
+      <c r="B2" s="225"/>
+      <c r="C2" s="226" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="221" t="s">
+      <c r="D2" s="227"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="223" t="s">
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="233"/>
       <c r="V2" s="73"/>
-      <c r="W2" s="216" t="s">
+      <c r="W2" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="218" t="s">
+      <c r="X2" s="225"/>
+      <c r="Y2" s="226" t="s">
         <v>124</v>
       </c>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="221" t="s">
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="228"/>
+      <c r="AB2" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="222"/>
-      <c r="AG2" s="222"/>
-      <c r="AH2" s="223" t="s">
+      <c r="AC2" s="230"/>
+      <c r="AD2" s="230"/>
+      <c r="AE2" s="230"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="230"/>
+      <c r="AH2" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="AI2" s="224"/>
-      <c r="AJ2" s="224"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="224"/>
-      <c r="AM2" s="224"/>
-      <c r="AN2" s="224"/>
-      <c r="AO2" s="224"/>
-      <c r="AP2" s="225"/>
-      <c r="AR2" s="216" t="s">
+      <c r="AI2" s="232"/>
+      <c r="AJ2" s="232"/>
+      <c r="AK2" s="232"/>
+      <c r="AL2" s="232"/>
+      <c r="AM2" s="232"/>
+      <c r="AN2" s="232"/>
+      <c r="AO2" s="232"/>
+      <c r="AP2" s="233"/>
+      <c r="AR2" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="AS2" s="217"/>
-      <c r="AT2" s="218" t="s">
+      <c r="AS2" s="225"/>
+      <c r="AT2" s="226" t="s">
         <v>136</v>
       </c>
-      <c r="AU2" s="219"/>
-      <c r="AV2" s="220"/>
-      <c r="AW2" s="221" t="s">
+      <c r="AU2" s="227"/>
+      <c r="AV2" s="228"/>
+      <c r="AW2" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="AX2" s="222"/>
-      <c r="AY2" s="222"/>
-      <c r="AZ2" s="222"/>
-      <c r="BA2" s="222"/>
-      <c r="BB2" s="222"/>
-      <c r="BC2" s="223" t="s">
+      <c r="AX2" s="230"/>
+      <c r="AY2" s="230"/>
+      <c r="AZ2" s="230"/>
+      <c r="BA2" s="230"/>
+      <c r="BB2" s="230"/>
+      <c r="BC2" s="231" t="s">
         <v>136</v>
       </c>
-      <c r="BD2" s="224"/>
-      <c r="BE2" s="224"/>
-      <c r="BF2" s="224"/>
-      <c r="BG2" s="224"/>
-      <c r="BH2" s="224"/>
-      <c r="BI2" s="224"/>
-      <c r="BJ2" s="224"/>
-      <c r="BK2" s="225"/>
-      <c r="BM2" s="216" t="s">
+      <c r="BD2" s="232"/>
+      <c r="BE2" s="232"/>
+      <c r="BF2" s="232"/>
+      <c r="BG2" s="232"/>
+      <c r="BH2" s="232"/>
+      <c r="BI2" s="232"/>
+      <c r="BJ2" s="232"/>
+      <c r="BK2" s="233"/>
+      <c r="BM2" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="BN2" s="217"/>
-      <c r="BO2" s="218" t="s">
+      <c r="BN2" s="225"/>
+      <c r="BO2" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="BP2" s="219"/>
-      <c r="BQ2" s="220"/>
-      <c r="BR2" s="221" t="s">
+      <c r="BP2" s="227"/>
+      <c r="BQ2" s="228"/>
+      <c r="BR2" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="BS2" s="222"/>
-      <c r="BT2" s="222"/>
-      <c r="BU2" s="222"/>
-      <c r="BV2" s="222"/>
-      <c r="BW2" s="222"/>
-      <c r="BX2" s="223" t="s">
+      <c r="BS2" s="230"/>
+      <c r="BT2" s="230"/>
+      <c r="BU2" s="230"/>
+      <c r="BV2" s="230"/>
+      <c r="BW2" s="230"/>
+      <c r="BX2" s="231" t="s">
         <v>144</v>
       </c>
-      <c r="BY2" s="224"/>
-      <c r="BZ2" s="224"/>
-      <c r="CA2" s="224"/>
-      <c r="CB2" s="224"/>
-      <c r="CC2" s="224"/>
-      <c r="CD2" s="224"/>
-      <c r="CE2" s="224"/>
-      <c r="CF2" s="225"/>
-      <c r="CH2" s="216" t="s">
+      <c r="BY2" s="232"/>
+      <c r="BZ2" s="232"/>
+      <c r="CA2" s="232"/>
+      <c r="CB2" s="232"/>
+      <c r="CC2" s="232"/>
+      <c r="CD2" s="232"/>
+      <c r="CE2" s="232"/>
+      <c r="CF2" s="233"/>
+      <c r="CH2" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="CI2" s="217"/>
-      <c r="CJ2" s="218" t="s">
+      <c r="CI2" s="225"/>
+      <c r="CJ2" s="226" t="s">
         <v>147</v>
       </c>
-      <c r="CK2" s="219"/>
-      <c r="CL2" s="220"/>
-      <c r="CM2" s="221" t="s">
+      <c r="CK2" s="227"/>
+      <c r="CL2" s="228"/>
+      <c r="CM2" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="CN2" s="222"/>
-      <c r="CO2" s="222"/>
-      <c r="CP2" s="222"/>
-      <c r="CQ2" s="222"/>
-      <c r="CR2" s="222"/>
-      <c r="CS2" s="223" t="s">
+      <c r="CN2" s="230"/>
+      <c r="CO2" s="230"/>
+      <c r="CP2" s="230"/>
+      <c r="CQ2" s="230"/>
+      <c r="CR2" s="230"/>
+      <c r="CS2" s="231" t="s">
         <v>147</v>
       </c>
-      <c r="CT2" s="224"/>
-      <c r="CU2" s="224"/>
-      <c r="CV2" s="224"/>
-      <c r="CW2" s="224"/>
-      <c r="CX2" s="224"/>
-      <c r="CY2" s="224"/>
-      <c r="CZ2" s="224"/>
-      <c r="DA2" s="225"/>
-      <c r="DC2" s="216" t="s">
+      <c r="CT2" s="232"/>
+      <c r="CU2" s="232"/>
+      <c r="CV2" s="232"/>
+      <c r="CW2" s="232"/>
+      <c r="CX2" s="232"/>
+      <c r="CY2" s="232"/>
+      <c r="CZ2" s="232"/>
+      <c r="DA2" s="233"/>
+      <c r="DC2" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="DD2" s="217"/>
-      <c r="DE2" s="218" t="s">
+      <c r="DD2" s="225"/>
+      <c r="DE2" s="226" t="s">
         <v>165</v>
       </c>
-      <c r="DF2" s="219"/>
-      <c r="DG2" s="220"/>
-      <c r="DH2" s="221" t="s">
+      <c r="DF2" s="227"/>
+      <c r="DG2" s="228"/>
+      <c r="DH2" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="DI2" s="222"/>
-      <c r="DJ2" s="222"/>
-      <c r="DK2" s="222"/>
-      <c r="DL2" s="222"/>
-      <c r="DM2" s="222"/>
-      <c r="DN2" s="223" t="s">
+      <c r="DI2" s="230"/>
+      <c r="DJ2" s="230"/>
+      <c r="DK2" s="230"/>
+      <c r="DL2" s="230"/>
+      <c r="DM2" s="230"/>
+      <c r="DN2" s="231" t="s">
         <v>165</v>
       </c>
-      <c r="DO2" s="224"/>
-      <c r="DP2" s="224"/>
-      <c r="DQ2" s="224"/>
-      <c r="DR2" s="224"/>
-      <c r="DS2" s="224"/>
-      <c r="DT2" s="224"/>
-      <c r="DU2" s="224"/>
-      <c r="DV2" s="225"/>
-      <c r="DX2" s="216" t="s">
+      <c r="DO2" s="232"/>
+      <c r="DP2" s="232"/>
+      <c r="DQ2" s="232"/>
+      <c r="DR2" s="232"/>
+      <c r="DS2" s="232"/>
+      <c r="DT2" s="232"/>
+      <c r="DU2" s="232"/>
+      <c r="DV2" s="233"/>
+      <c r="DX2" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="DY2" s="217"/>
-      <c r="DZ2" s="218" t="s">
+      <c r="DY2" s="225"/>
+      <c r="DZ2" s="226" t="s">
         <v>167</v>
       </c>
-      <c r="EA2" s="219"/>
-      <c r="EB2" s="220"/>
-      <c r="EC2" s="221" t="s">
+      <c r="EA2" s="227"/>
+      <c r="EB2" s="228"/>
+      <c r="EC2" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="ED2" s="222"/>
-      <c r="EE2" s="222"/>
-      <c r="EF2" s="222"/>
-      <c r="EG2" s="222"/>
-      <c r="EH2" s="222"/>
-      <c r="EI2" s="223" t="s">
+      <c r="ED2" s="230"/>
+      <c r="EE2" s="230"/>
+      <c r="EF2" s="230"/>
+      <c r="EG2" s="230"/>
+      <c r="EH2" s="230"/>
+      <c r="EI2" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="EJ2" s="224"/>
-      <c r="EK2" s="224"/>
-      <c r="EL2" s="224"/>
-      <c r="EM2" s="224"/>
-      <c r="EN2" s="224"/>
-      <c r="EO2" s="224"/>
-      <c r="EP2" s="224"/>
-      <c r="EQ2" s="225"/>
-      <c r="ES2" s="216" t="s">
+      <c r="EJ2" s="232"/>
+      <c r="EK2" s="232"/>
+      <c r="EL2" s="232"/>
+      <c r="EM2" s="232"/>
+      <c r="EN2" s="232"/>
+      <c r="EO2" s="232"/>
+      <c r="EP2" s="232"/>
+      <c r="EQ2" s="233"/>
+      <c r="ES2" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="ET2" s="217"/>
-      <c r="EU2" s="218" t="s">
+      <c r="ET2" s="225"/>
+      <c r="EU2" s="226" t="s">
         <v>173</v>
       </c>
-      <c r="EV2" s="219"/>
-      <c r="EW2" s="220"/>
-      <c r="EX2" s="221" t="s">
+      <c r="EV2" s="227"/>
+      <c r="EW2" s="228"/>
+      <c r="EX2" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="EY2" s="222"/>
-      <c r="EZ2" s="222"/>
-      <c r="FA2" s="222"/>
-      <c r="FB2" s="222"/>
-      <c r="FC2" s="222"/>
-      <c r="FD2" s="223" t="s">
+      <c r="EY2" s="230"/>
+      <c r="EZ2" s="230"/>
+      <c r="FA2" s="230"/>
+      <c r="FB2" s="230"/>
+      <c r="FC2" s="230"/>
+      <c r="FD2" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="FE2" s="224"/>
-      <c r="FF2" s="224"/>
-      <c r="FG2" s="224"/>
-      <c r="FH2" s="224"/>
-      <c r="FI2" s="224"/>
-      <c r="FJ2" s="224"/>
-      <c r="FK2" s="224"/>
-      <c r="FL2" s="225"/>
+      <c r="FE2" s="232"/>
+      <c r="FF2" s="232"/>
+      <c r="FG2" s="232"/>
+      <c r="FH2" s="232"/>
+      <c r="FI2" s="232"/>
+      <c r="FJ2" s="232"/>
+      <c r="FK2" s="232"/>
+      <c r="FL2" s="233"/>
     </row>
     <row r="3" spans="1:168" ht="13.5" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="226" t="s">
+      <c r="B3" s="212"/>
+      <c r="C3" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="227"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="229" t="s">
+      <c r="D3" s="235"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="232" t="s">
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="233"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
       <c r="Q3" s="131"/>
       <c r="R3" s="131"/>
       <c r="S3" s="131"/>
       <c r="T3" s="132"/>
-      <c r="W3" s="212" t="s">
+      <c r="W3" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="226" t="s">
+      <c r="X3" s="212"/>
+      <c r="Y3" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="229" t="s">
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="236"/>
+      <c r="AB3" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="230"/>
-      <c r="AD3" s="230"/>
-      <c r="AE3" s="230"/>
-      <c r="AF3" s="230"/>
-      <c r="AG3" s="231"/>
-      <c r="AH3" s="232" t="s">
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="AI3" s="233"/>
-      <c r="AJ3" s="233"/>
-      <c r="AK3" s="233"/>
-      <c r="AL3" s="233"/>
+      <c r="AI3" s="238"/>
+      <c r="AJ3" s="238"/>
+      <c r="AK3" s="238"/>
+      <c r="AL3" s="238"/>
       <c r="AM3" s="131"/>
       <c r="AN3" s="131"/>
       <c r="AO3" s="131"/>
@@ -8071,858 +8208,858 @@
       <c r="AQ3" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="AR3" s="212" t="s">
+      <c r="AR3" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="AS3" s="213"/>
-      <c r="AT3" s="226" t="s">
+      <c r="AS3" s="212"/>
+      <c r="AT3" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="AU3" s="227"/>
-      <c r="AV3" s="228"/>
-      <c r="AW3" s="229" t="s">
+      <c r="AU3" s="235"/>
+      <c r="AV3" s="236"/>
+      <c r="AW3" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="AX3" s="230"/>
-      <c r="AY3" s="230"/>
-      <c r="AZ3" s="230"/>
-      <c r="BA3" s="230"/>
-      <c r="BB3" s="231"/>
-      <c r="BC3" s="232" t="s">
+      <c r="AX3" s="206"/>
+      <c r="AY3" s="206"/>
+      <c r="AZ3" s="206"/>
+      <c r="BA3" s="206"/>
+      <c r="BB3" s="207"/>
+      <c r="BC3" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="BD3" s="233"/>
-      <c r="BE3" s="233"/>
-      <c r="BF3" s="233"/>
-      <c r="BG3" s="233"/>
+      <c r="BD3" s="238"/>
+      <c r="BE3" s="238"/>
+      <c r="BF3" s="238"/>
+      <c r="BG3" s="238"/>
       <c r="BH3" s="131"/>
       <c r="BI3" s="131"/>
       <c r="BJ3" s="131"/>
       <c r="BK3" s="132"/>
-      <c r="BM3" s="212" t="s">
+      <c r="BM3" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="BN3" s="213"/>
-      <c r="BO3" s="226" t="s">
+      <c r="BN3" s="212"/>
+      <c r="BO3" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="BP3" s="227"/>
-      <c r="BQ3" s="228"/>
-      <c r="BR3" s="229" t="s">
+      <c r="BP3" s="235"/>
+      <c r="BQ3" s="236"/>
+      <c r="BR3" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="BS3" s="230"/>
-      <c r="BT3" s="230"/>
-      <c r="BU3" s="230"/>
-      <c r="BV3" s="230"/>
-      <c r="BW3" s="231"/>
-      <c r="BX3" s="232" t="s">
+      <c r="BS3" s="206"/>
+      <c r="BT3" s="206"/>
+      <c r="BU3" s="206"/>
+      <c r="BV3" s="206"/>
+      <c r="BW3" s="207"/>
+      <c r="BX3" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="BY3" s="233"/>
-      <c r="BZ3" s="233"/>
-      <c r="CA3" s="233"/>
-      <c r="CB3" s="233"/>
+      <c r="BY3" s="238"/>
+      <c r="BZ3" s="238"/>
+      <c r="CA3" s="238"/>
+      <c r="CB3" s="238"/>
       <c r="CC3" s="131"/>
       <c r="CD3" s="131"/>
       <c r="CE3" s="131"/>
       <c r="CF3" s="132"/>
-      <c r="CH3" s="212" t="s">
+      <c r="CH3" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="CI3" s="213"/>
-      <c r="CJ3" s="226" t="s">
+      <c r="CI3" s="212"/>
+      <c r="CJ3" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="CK3" s="227"/>
-      <c r="CL3" s="228"/>
-      <c r="CM3" s="229" t="s">
+      <c r="CK3" s="235"/>
+      <c r="CL3" s="236"/>
+      <c r="CM3" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="CN3" s="230"/>
-      <c r="CO3" s="230"/>
-      <c r="CP3" s="230"/>
-      <c r="CQ3" s="230"/>
-      <c r="CR3" s="231"/>
-      <c r="CS3" s="232" t="s">
+      <c r="CN3" s="206"/>
+      <c r="CO3" s="206"/>
+      <c r="CP3" s="206"/>
+      <c r="CQ3" s="206"/>
+      <c r="CR3" s="207"/>
+      <c r="CS3" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="CT3" s="233"/>
-      <c r="CU3" s="233"/>
-      <c r="CV3" s="233"/>
-      <c r="CW3" s="233"/>
+      <c r="CT3" s="238"/>
+      <c r="CU3" s="238"/>
+      <c r="CV3" s="238"/>
+      <c r="CW3" s="238"/>
       <c r="CX3" s="131"/>
       <c r="CY3" s="131"/>
       <c r="CZ3" s="131"/>
       <c r="DA3" s="132"/>
-      <c r="DC3" s="212" t="s">
+      <c r="DC3" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="DD3" s="213"/>
-      <c r="DE3" s="226" t="s">
+      <c r="DD3" s="212"/>
+      <c r="DE3" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="DF3" s="227"/>
-      <c r="DG3" s="228"/>
-      <c r="DH3" s="229" t="s">
+      <c r="DF3" s="235"/>
+      <c r="DG3" s="236"/>
+      <c r="DH3" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="DI3" s="230"/>
-      <c r="DJ3" s="230"/>
-      <c r="DK3" s="230"/>
-      <c r="DL3" s="230"/>
-      <c r="DM3" s="231"/>
-      <c r="DN3" s="232" t="s">
+      <c r="DI3" s="206"/>
+      <c r="DJ3" s="206"/>
+      <c r="DK3" s="206"/>
+      <c r="DL3" s="206"/>
+      <c r="DM3" s="207"/>
+      <c r="DN3" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="DO3" s="233"/>
-      <c r="DP3" s="233"/>
-      <c r="DQ3" s="233"/>
-      <c r="DR3" s="233"/>
+      <c r="DO3" s="238"/>
+      <c r="DP3" s="238"/>
+      <c r="DQ3" s="238"/>
+      <c r="DR3" s="238"/>
       <c r="DS3" s="131"/>
       <c r="DT3" s="131"/>
       <c r="DU3" s="131"/>
       <c r="DV3" s="132"/>
-      <c r="DX3" s="212" t="s">
+      <c r="DX3" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="DY3" s="213"/>
-      <c r="DZ3" s="226" t="s">
+      <c r="DY3" s="212"/>
+      <c r="DZ3" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="EA3" s="227"/>
-      <c r="EB3" s="228"/>
-      <c r="EC3" s="229" t="s">
+      <c r="EA3" s="235"/>
+      <c r="EB3" s="236"/>
+      <c r="EC3" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="ED3" s="230"/>
-      <c r="EE3" s="230"/>
-      <c r="EF3" s="230"/>
-      <c r="EG3" s="230"/>
-      <c r="EH3" s="231"/>
-      <c r="EI3" s="232" t="s">
+      <c r="ED3" s="206"/>
+      <c r="EE3" s="206"/>
+      <c r="EF3" s="206"/>
+      <c r="EG3" s="206"/>
+      <c r="EH3" s="207"/>
+      <c r="EI3" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="EJ3" s="233"/>
-      <c r="EK3" s="233"/>
-      <c r="EL3" s="233"/>
-      <c r="EM3" s="233"/>
+      <c r="EJ3" s="238"/>
+      <c r="EK3" s="238"/>
+      <c r="EL3" s="238"/>
+      <c r="EM3" s="238"/>
       <c r="EN3" s="131"/>
       <c r="EO3" s="131"/>
       <c r="EP3" s="131"/>
       <c r="EQ3" s="132"/>
-      <c r="ES3" s="212" t="s">
+      <c r="ES3" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="ET3" s="213"/>
-      <c r="EU3" s="226" t="s">
+      <c r="ET3" s="212"/>
+      <c r="EU3" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="EV3" s="227"/>
-      <c r="EW3" s="228"/>
-      <c r="EX3" s="229" t="s">
+      <c r="EV3" s="235"/>
+      <c r="EW3" s="236"/>
+      <c r="EX3" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="EY3" s="230"/>
-      <c r="EZ3" s="230"/>
-      <c r="FA3" s="230"/>
-      <c r="FB3" s="230"/>
-      <c r="FC3" s="231"/>
-      <c r="FD3" s="232" t="s">
+      <c r="EY3" s="206"/>
+      <c r="EZ3" s="206"/>
+      <c r="FA3" s="206"/>
+      <c r="FB3" s="206"/>
+      <c r="FC3" s="207"/>
+      <c r="FD3" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="FE3" s="233"/>
-      <c r="FF3" s="233"/>
-      <c r="FG3" s="233"/>
-      <c r="FH3" s="233"/>
+      <c r="FE3" s="238"/>
+      <c r="FF3" s="238"/>
+      <c r="FG3" s="238"/>
+      <c r="FH3" s="238"/>
       <c r="FI3" s="131"/>
       <c r="FJ3" s="131"/>
       <c r="FK3" s="131"/>
       <c r="FL3" s="132"/>
     </row>
     <row r="4" spans="1:168" ht="13.5" customHeight="1">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="214">
+      <c r="B4" s="212"/>
+      <c r="C4" s="249">
         <v>20</v>
       </c>
-      <c r="D4" s="215"/>
+      <c r="D4" s="250"/>
       <c r="E4" s="140"/>
-      <c r="F4" s="229" t="s">
+      <c r="F4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="234">
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="208">
         <v>4</v>
       </c>
-      <c r="M4" s="235"/>
-      <c r="N4" s="235"/>
-      <c r="O4" s="235"/>
-      <c r="P4" s="235"/>
-      <c r="Q4" s="235"/>
-      <c r="R4" s="235"/>
-      <c r="S4" s="235"/>
-      <c r="T4" s="236"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="210"/>
       <c r="V4" s="73"/>
-      <c r="W4" s="212" t="s">
+      <c r="W4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="213"/>
-      <c r="Y4" s="214">
+      <c r="X4" s="212"/>
+      <c r="Y4" s="249">
         <v>15</v>
       </c>
-      <c r="Z4" s="215"/>
+      <c r="Z4" s="250"/>
       <c r="AA4" s="140"/>
-      <c r="AB4" s="229" t="s">
+      <c r="AB4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AC4" s="230"/>
-      <c r="AD4" s="230"/>
-      <c r="AE4" s="230"/>
-      <c r="AF4" s="230"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="234">
+      <c r="AC4" s="206"/>
+      <c r="AD4" s="206"/>
+      <c r="AE4" s="206"/>
+      <c r="AF4" s="206"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="208">
         <v>4</v>
       </c>
-      <c r="AI4" s="235"/>
-      <c r="AJ4" s="235"/>
-      <c r="AK4" s="235"/>
-      <c r="AL4" s="235"/>
-      <c r="AM4" s="235"/>
-      <c r="AN4" s="235"/>
-      <c r="AO4" s="235"/>
-      <c r="AP4" s="236"/>
-      <c r="AR4" s="212" t="s">
+      <c r="AI4" s="209"/>
+      <c r="AJ4" s="209"/>
+      <c r="AK4" s="209"/>
+      <c r="AL4" s="209"/>
+      <c r="AM4" s="209"/>
+      <c r="AN4" s="209"/>
+      <c r="AO4" s="209"/>
+      <c r="AP4" s="210"/>
+      <c r="AR4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="AS4" s="213"/>
-      <c r="AT4" s="214">
+      <c r="AS4" s="212"/>
+      <c r="AT4" s="249">
         <v>20</v>
       </c>
-      <c r="AU4" s="215"/>
+      <c r="AU4" s="250"/>
       <c r="AV4" s="140"/>
-      <c r="AW4" s="229" t="s">
+      <c r="AW4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AX4" s="230"/>
-      <c r="AY4" s="230"/>
-      <c r="AZ4" s="230"/>
-      <c r="BA4" s="230"/>
-      <c r="BB4" s="231"/>
-      <c r="BC4" s="234">
+      <c r="AX4" s="206"/>
+      <c r="AY4" s="206"/>
+      <c r="AZ4" s="206"/>
+      <c r="BA4" s="206"/>
+      <c r="BB4" s="207"/>
+      <c r="BC4" s="208">
         <v>3</v>
       </c>
-      <c r="BD4" s="235"/>
-      <c r="BE4" s="235"/>
-      <c r="BF4" s="235"/>
-      <c r="BG4" s="235"/>
-      <c r="BH4" s="235"/>
-      <c r="BI4" s="235"/>
-      <c r="BJ4" s="235"/>
-      <c r="BK4" s="236"/>
-      <c r="BM4" s="212" t="s">
+      <c r="BD4" s="209"/>
+      <c r="BE4" s="209"/>
+      <c r="BF4" s="209"/>
+      <c r="BG4" s="209"/>
+      <c r="BH4" s="209"/>
+      <c r="BI4" s="209"/>
+      <c r="BJ4" s="209"/>
+      <c r="BK4" s="210"/>
+      <c r="BM4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="BN4" s="213"/>
-      <c r="BO4" s="214">
+      <c r="BN4" s="212"/>
+      <c r="BO4" s="249">
         <v>20</v>
       </c>
-      <c r="BP4" s="215"/>
+      <c r="BP4" s="250"/>
       <c r="BQ4" s="140"/>
-      <c r="BR4" s="229" t="s">
+      <c r="BR4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="BS4" s="230"/>
-      <c r="BT4" s="230"/>
-      <c r="BU4" s="230"/>
-      <c r="BV4" s="230"/>
-      <c r="BW4" s="231"/>
-      <c r="BX4" s="234">
+      <c r="BS4" s="206"/>
+      <c r="BT4" s="206"/>
+      <c r="BU4" s="206"/>
+      <c r="BV4" s="206"/>
+      <c r="BW4" s="207"/>
+      <c r="BX4" s="208">
         <v>3</v>
       </c>
-      <c r="BY4" s="235"/>
-      <c r="BZ4" s="235"/>
-      <c r="CA4" s="235"/>
-      <c r="CB4" s="235"/>
-      <c r="CC4" s="235"/>
-      <c r="CD4" s="235"/>
-      <c r="CE4" s="235"/>
-      <c r="CF4" s="236"/>
-      <c r="CH4" s="212" t="s">
+      <c r="BY4" s="209"/>
+      <c r="BZ4" s="209"/>
+      <c r="CA4" s="209"/>
+      <c r="CB4" s="209"/>
+      <c r="CC4" s="209"/>
+      <c r="CD4" s="209"/>
+      <c r="CE4" s="209"/>
+      <c r="CF4" s="210"/>
+      <c r="CH4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="CI4" s="213"/>
-      <c r="CJ4" s="214">
+      <c r="CI4" s="212"/>
+      <c r="CJ4" s="249">
         <v>16</v>
       </c>
-      <c r="CK4" s="215"/>
+      <c r="CK4" s="250"/>
       <c r="CL4" s="140"/>
-      <c r="CM4" s="229" t="s">
+      <c r="CM4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="CN4" s="230"/>
-      <c r="CO4" s="230"/>
-      <c r="CP4" s="230"/>
-      <c r="CQ4" s="230"/>
-      <c r="CR4" s="231"/>
-      <c r="CS4" s="234">
+      <c r="CN4" s="206"/>
+      <c r="CO4" s="206"/>
+      <c r="CP4" s="206"/>
+      <c r="CQ4" s="206"/>
+      <c r="CR4" s="207"/>
+      <c r="CS4" s="208">
         <v>3</v>
       </c>
-      <c r="CT4" s="235"/>
-      <c r="CU4" s="235"/>
-      <c r="CV4" s="235"/>
-      <c r="CW4" s="235"/>
-      <c r="CX4" s="235"/>
-      <c r="CY4" s="235"/>
-      <c r="CZ4" s="235"/>
-      <c r="DA4" s="236"/>
-      <c r="DC4" s="212" t="s">
+      <c r="CT4" s="209"/>
+      <c r="CU4" s="209"/>
+      <c r="CV4" s="209"/>
+      <c r="CW4" s="209"/>
+      <c r="CX4" s="209"/>
+      <c r="CY4" s="209"/>
+      <c r="CZ4" s="209"/>
+      <c r="DA4" s="210"/>
+      <c r="DC4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="DD4" s="213"/>
-      <c r="DE4" s="214">
+      <c r="DD4" s="212"/>
+      <c r="DE4" s="249">
         <v>25</v>
       </c>
-      <c r="DF4" s="215"/>
+      <c r="DF4" s="250"/>
       <c r="DG4" s="140"/>
-      <c r="DH4" s="229" t="s">
+      <c r="DH4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="DI4" s="230"/>
-      <c r="DJ4" s="230"/>
-      <c r="DK4" s="230"/>
-      <c r="DL4" s="230"/>
-      <c r="DM4" s="231"/>
-      <c r="DN4" s="234">
+      <c r="DI4" s="206"/>
+      <c r="DJ4" s="206"/>
+      <c r="DK4" s="206"/>
+      <c r="DL4" s="206"/>
+      <c r="DM4" s="207"/>
+      <c r="DN4" s="208">
         <v>1</v>
       </c>
-      <c r="DO4" s="235"/>
-      <c r="DP4" s="235"/>
-      <c r="DQ4" s="235"/>
-      <c r="DR4" s="235"/>
-      <c r="DS4" s="235"/>
-      <c r="DT4" s="235"/>
-      <c r="DU4" s="235"/>
-      <c r="DV4" s="236"/>
-      <c r="DX4" s="212" t="s">
+      <c r="DO4" s="209"/>
+      <c r="DP4" s="209"/>
+      <c r="DQ4" s="209"/>
+      <c r="DR4" s="209"/>
+      <c r="DS4" s="209"/>
+      <c r="DT4" s="209"/>
+      <c r="DU4" s="209"/>
+      <c r="DV4" s="210"/>
+      <c r="DX4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="DY4" s="213"/>
-      <c r="DZ4" s="214">
+      <c r="DY4" s="212"/>
+      <c r="DZ4" s="249">
         <v>24</v>
       </c>
-      <c r="EA4" s="215"/>
+      <c r="EA4" s="250"/>
       <c r="EB4" s="140"/>
-      <c r="EC4" s="229" t="s">
+      <c r="EC4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="ED4" s="230"/>
-      <c r="EE4" s="230"/>
-      <c r="EF4" s="230"/>
-      <c r="EG4" s="230"/>
-      <c r="EH4" s="231"/>
-      <c r="EI4" s="234">
+      <c r="ED4" s="206"/>
+      <c r="EE4" s="206"/>
+      <c r="EF4" s="206"/>
+      <c r="EG4" s="206"/>
+      <c r="EH4" s="207"/>
+      <c r="EI4" s="208">
         <v>1</v>
       </c>
-      <c r="EJ4" s="235"/>
-      <c r="EK4" s="235"/>
-      <c r="EL4" s="235"/>
-      <c r="EM4" s="235"/>
-      <c r="EN4" s="235"/>
-      <c r="EO4" s="235"/>
-      <c r="EP4" s="235"/>
-      <c r="EQ4" s="236"/>
-      <c r="ES4" s="212" t="s">
+      <c r="EJ4" s="209"/>
+      <c r="EK4" s="209"/>
+      <c r="EL4" s="209"/>
+      <c r="EM4" s="209"/>
+      <c r="EN4" s="209"/>
+      <c r="EO4" s="209"/>
+      <c r="EP4" s="209"/>
+      <c r="EQ4" s="210"/>
+      <c r="ES4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="ET4" s="213"/>
-      <c r="EU4" s="214">
+      <c r="ET4" s="212"/>
+      <c r="EU4" s="249">
         <v>15</v>
       </c>
-      <c r="EV4" s="215"/>
+      <c r="EV4" s="250"/>
       <c r="EW4" s="140"/>
-      <c r="EX4" s="229" t="s">
+      <c r="EX4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="EY4" s="230"/>
-      <c r="EZ4" s="230"/>
-      <c r="FA4" s="230"/>
-      <c r="FB4" s="230"/>
-      <c r="FC4" s="231"/>
-      <c r="FD4" s="234">
+      <c r="EY4" s="206"/>
+      <c r="EZ4" s="206"/>
+      <c r="FA4" s="206"/>
+      <c r="FB4" s="206"/>
+      <c r="FC4" s="207"/>
+      <c r="FD4" s="208">
         <v>1</v>
       </c>
-      <c r="FE4" s="235"/>
-      <c r="FF4" s="235"/>
-      <c r="FG4" s="235"/>
-      <c r="FH4" s="235"/>
-      <c r="FI4" s="235"/>
-      <c r="FJ4" s="235"/>
-      <c r="FK4" s="235"/>
-      <c r="FL4" s="236"/>
+      <c r="FE4" s="209"/>
+      <c r="FF4" s="209"/>
+      <c r="FG4" s="209"/>
+      <c r="FH4" s="209"/>
+      <c r="FI4" s="209"/>
+      <c r="FJ4" s="209"/>
+      <c r="FK4" s="209"/>
+      <c r="FL4" s="210"/>
     </row>
     <row r="5" spans="1:168" ht="13.5" customHeight="1">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="212"/>
+      <c r="C5" s="252" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="248"/>
-      <c r="M5" s="248"/>
-      <c r="N5" s="248"/>
-      <c r="O5" s="248"/>
-      <c r="P5" s="248"/>
-      <c r="Q5" s="248"/>
-      <c r="R5" s="248"/>
-      <c r="S5" s="248"/>
-      <c r="T5" s="248"/>
-      <c r="W5" s="212" t="s">
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="252"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="252"/>
+      <c r="T5" s="252"/>
+      <c r="W5" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="213"/>
-      <c r="Y5" s="237" t="s">
+      <c r="X5" s="212"/>
+      <c r="Y5" s="213" t="s">
         <v>126</v>
       </c>
-      <c r="Z5" s="237"/>
-      <c r="AA5" s="237"/>
-      <c r="AB5" s="238"/>
-      <c r="AC5" s="238"/>
-      <c r="AD5" s="238"/>
-      <c r="AE5" s="238"/>
-      <c r="AF5" s="238"/>
-      <c r="AG5" s="238"/>
-      <c r="AH5" s="237"/>
-      <c r="AI5" s="237"/>
-      <c r="AJ5" s="237"/>
-      <c r="AK5" s="237"/>
-      <c r="AL5" s="237"/>
-      <c r="AM5" s="237"/>
-      <c r="AN5" s="237"/>
-      <c r="AO5" s="237"/>
-      <c r="AP5" s="237"/>
-      <c r="AR5" s="212" t="s">
+      <c r="Z5" s="213"/>
+      <c r="AA5" s="213"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
+      <c r="AD5" s="214"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="214"/>
+      <c r="AG5" s="214"/>
+      <c r="AH5" s="213"/>
+      <c r="AI5" s="213"/>
+      <c r="AJ5" s="213"/>
+      <c r="AK5" s="213"/>
+      <c r="AL5" s="213"/>
+      <c r="AM5" s="213"/>
+      <c r="AN5" s="213"/>
+      <c r="AO5" s="213"/>
+      <c r="AP5" s="213"/>
+      <c r="AR5" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="AS5" s="213"/>
-      <c r="AT5" s="237" t="s">
+      <c r="AS5" s="212"/>
+      <c r="AT5" s="213" t="s">
         <v>137</v>
       </c>
-      <c r="AU5" s="237"/>
-      <c r="AV5" s="237"/>
-      <c r="AW5" s="238"/>
-      <c r="AX5" s="238"/>
-      <c r="AY5" s="238"/>
-      <c r="AZ5" s="238"/>
-      <c r="BA5" s="238"/>
-      <c r="BB5" s="238"/>
-      <c r="BC5" s="237"/>
-      <c r="BD5" s="237"/>
-      <c r="BE5" s="237"/>
-      <c r="BF5" s="237"/>
-      <c r="BG5" s="237"/>
-      <c r="BH5" s="237"/>
-      <c r="BI5" s="237"/>
-      <c r="BJ5" s="237"/>
-      <c r="BK5" s="237"/>
-      <c r="BM5" s="212" t="s">
+      <c r="AU5" s="213"/>
+      <c r="AV5" s="213"/>
+      <c r="AW5" s="214"/>
+      <c r="AX5" s="214"/>
+      <c r="AY5" s="214"/>
+      <c r="AZ5" s="214"/>
+      <c r="BA5" s="214"/>
+      <c r="BB5" s="214"/>
+      <c r="BC5" s="213"/>
+      <c r="BD5" s="213"/>
+      <c r="BE5" s="213"/>
+      <c r="BF5" s="213"/>
+      <c r="BG5" s="213"/>
+      <c r="BH5" s="213"/>
+      <c r="BI5" s="213"/>
+      <c r="BJ5" s="213"/>
+      <c r="BK5" s="213"/>
+      <c r="BM5" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="BN5" s="213"/>
-      <c r="BO5" s="237" t="s">
+      <c r="BN5" s="212"/>
+      <c r="BO5" s="213" t="s">
         <v>145</v>
       </c>
-      <c r="BP5" s="237"/>
-      <c r="BQ5" s="237"/>
-      <c r="BR5" s="238"/>
-      <c r="BS5" s="238"/>
-      <c r="BT5" s="238"/>
-      <c r="BU5" s="238"/>
-      <c r="BV5" s="238"/>
-      <c r="BW5" s="238"/>
-      <c r="BX5" s="237"/>
-      <c r="BY5" s="237"/>
-      <c r="BZ5" s="237"/>
-      <c r="CA5" s="237"/>
-      <c r="CB5" s="237"/>
-      <c r="CC5" s="237"/>
-      <c r="CD5" s="237"/>
-      <c r="CE5" s="237"/>
-      <c r="CF5" s="237"/>
-      <c r="CH5" s="212" t="s">
+      <c r="BP5" s="213"/>
+      <c r="BQ5" s="213"/>
+      <c r="BR5" s="214"/>
+      <c r="BS5" s="214"/>
+      <c r="BT5" s="214"/>
+      <c r="BU5" s="214"/>
+      <c r="BV5" s="214"/>
+      <c r="BW5" s="214"/>
+      <c r="BX5" s="213"/>
+      <c r="BY5" s="213"/>
+      <c r="BZ5" s="213"/>
+      <c r="CA5" s="213"/>
+      <c r="CB5" s="213"/>
+      <c r="CC5" s="213"/>
+      <c r="CD5" s="213"/>
+      <c r="CE5" s="213"/>
+      <c r="CF5" s="213"/>
+      <c r="CH5" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="CI5" s="213"/>
-      <c r="CJ5" s="237" t="s">
+      <c r="CI5" s="212"/>
+      <c r="CJ5" s="213" t="s">
         <v>148</v>
       </c>
-      <c r="CK5" s="237"/>
-      <c r="CL5" s="237"/>
-      <c r="CM5" s="238"/>
-      <c r="CN5" s="238"/>
-      <c r="CO5" s="238"/>
-      <c r="CP5" s="238"/>
-      <c r="CQ5" s="238"/>
-      <c r="CR5" s="238"/>
-      <c r="CS5" s="237"/>
-      <c r="CT5" s="237"/>
-      <c r="CU5" s="237"/>
-      <c r="CV5" s="237"/>
-      <c r="CW5" s="237"/>
-      <c r="CX5" s="237"/>
-      <c r="CY5" s="237"/>
-      <c r="CZ5" s="237"/>
-      <c r="DA5" s="237"/>
-      <c r="DC5" s="212" t="s">
+      <c r="CK5" s="213"/>
+      <c r="CL5" s="213"/>
+      <c r="CM5" s="214"/>
+      <c r="CN5" s="214"/>
+      <c r="CO5" s="214"/>
+      <c r="CP5" s="214"/>
+      <c r="CQ5" s="214"/>
+      <c r="CR5" s="214"/>
+      <c r="CS5" s="213"/>
+      <c r="CT5" s="213"/>
+      <c r="CU5" s="213"/>
+      <c r="CV5" s="213"/>
+      <c r="CW5" s="213"/>
+      <c r="CX5" s="213"/>
+      <c r="CY5" s="213"/>
+      <c r="CZ5" s="213"/>
+      <c r="DA5" s="213"/>
+      <c r="DC5" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="DD5" s="213"/>
-      <c r="DE5" s="237" t="s">
+      <c r="DD5" s="212"/>
+      <c r="DE5" s="213" t="s">
         <v>166</v>
       </c>
-      <c r="DF5" s="237"/>
-      <c r="DG5" s="237"/>
-      <c r="DH5" s="238"/>
-      <c r="DI5" s="238"/>
-      <c r="DJ5" s="238"/>
-      <c r="DK5" s="238"/>
-      <c r="DL5" s="238"/>
-      <c r="DM5" s="238"/>
-      <c r="DN5" s="237"/>
-      <c r="DO5" s="237"/>
-      <c r="DP5" s="237"/>
-      <c r="DQ5" s="237"/>
-      <c r="DR5" s="237"/>
-      <c r="DS5" s="237"/>
-      <c r="DT5" s="237"/>
-      <c r="DU5" s="237"/>
-      <c r="DV5" s="237"/>
-      <c r="DX5" s="212" t="s">
+      <c r="DF5" s="213"/>
+      <c r="DG5" s="213"/>
+      <c r="DH5" s="214"/>
+      <c r="DI5" s="214"/>
+      <c r="DJ5" s="214"/>
+      <c r="DK5" s="214"/>
+      <c r="DL5" s="214"/>
+      <c r="DM5" s="214"/>
+      <c r="DN5" s="213"/>
+      <c r="DO5" s="213"/>
+      <c r="DP5" s="213"/>
+      <c r="DQ5" s="213"/>
+      <c r="DR5" s="213"/>
+      <c r="DS5" s="213"/>
+      <c r="DT5" s="213"/>
+      <c r="DU5" s="213"/>
+      <c r="DV5" s="213"/>
+      <c r="DX5" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="DY5" s="213"/>
-      <c r="DZ5" s="237" t="s">
+      <c r="DY5" s="212"/>
+      <c r="DZ5" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="EA5" s="237"/>
-      <c r="EB5" s="237"/>
-      <c r="EC5" s="238"/>
-      <c r="ED5" s="238"/>
-      <c r="EE5" s="238"/>
-      <c r="EF5" s="238"/>
-      <c r="EG5" s="238"/>
-      <c r="EH5" s="238"/>
-      <c r="EI5" s="237"/>
-      <c r="EJ5" s="237"/>
-      <c r="EK5" s="237"/>
-      <c r="EL5" s="237"/>
-      <c r="EM5" s="237"/>
-      <c r="EN5" s="237"/>
-      <c r="EO5" s="237"/>
-      <c r="EP5" s="237"/>
-      <c r="EQ5" s="237"/>
-      <c r="ES5" s="212" t="s">
+      <c r="EA5" s="213"/>
+      <c r="EB5" s="213"/>
+      <c r="EC5" s="214"/>
+      <c r="ED5" s="214"/>
+      <c r="EE5" s="214"/>
+      <c r="EF5" s="214"/>
+      <c r="EG5" s="214"/>
+      <c r="EH5" s="214"/>
+      <c r="EI5" s="213"/>
+      <c r="EJ5" s="213"/>
+      <c r="EK5" s="213"/>
+      <c r="EL5" s="213"/>
+      <c r="EM5" s="213"/>
+      <c r="EN5" s="213"/>
+      <c r="EO5" s="213"/>
+      <c r="EP5" s="213"/>
+      <c r="EQ5" s="213"/>
+      <c r="ES5" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="ET5" s="213"/>
-      <c r="EU5" s="237" t="s">
+      <c r="ET5" s="212"/>
+      <c r="EU5" s="213" t="s">
         <v>174</v>
       </c>
-      <c r="EV5" s="237"/>
-      <c r="EW5" s="237"/>
-      <c r="EX5" s="238"/>
-      <c r="EY5" s="238"/>
-      <c r="EZ5" s="238"/>
-      <c r="FA5" s="238"/>
-      <c r="FB5" s="238"/>
-      <c r="FC5" s="238"/>
-      <c r="FD5" s="237"/>
-      <c r="FE5" s="237"/>
-      <c r="FF5" s="237"/>
-      <c r="FG5" s="237"/>
-      <c r="FH5" s="237"/>
-      <c r="FI5" s="237"/>
-      <c r="FJ5" s="237"/>
-      <c r="FK5" s="237"/>
-      <c r="FL5" s="237"/>
+      <c r="EV5" s="213"/>
+      <c r="EW5" s="213"/>
+      <c r="EX5" s="214"/>
+      <c r="EY5" s="214"/>
+      <c r="EZ5" s="214"/>
+      <c r="FA5" s="214"/>
+      <c r="FB5" s="214"/>
+      <c r="FC5" s="214"/>
+      <c r="FD5" s="213"/>
+      <c r="FE5" s="213"/>
+      <c r="FF5" s="213"/>
+      <c r="FG5" s="213"/>
+      <c r="FH5" s="213"/>
+      <c r="FI5" s="213"/>
+      <c r="FJ5" s="213"/>
+      <c r="FK5" s="213"/>
+      <c r="FL5" s="213"/>
     </row>
     <row r="6" spans="1:168" ht="13.5" customHeight="1">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241" t="s">
+      <c r="B6" s="248"/>
+      <c r="C6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="241" t="s">
+      <c r="D6" s="240"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="242" t="s">
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="242"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="245" t="s">
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="246"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="244"/>
       <c r="V6" s="73"/>
-      <c r="W6" s="239" t="s">
+      <c r="W6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="240"/>
-      <c r="Y6" s="241" t="s">
+      <c r="X6" s="248"/>
+      <c r="Y6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="242"/>
-      <c r="AA6" s="243"/>
-      <c r="AB6" s="241" t="s">
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" s="242"/>
-      <c r="AD6" s="242"/>
-      <c r="AE6" s="242"/>
-      <c r="AF6" s="242"/>
-      <c r="AG6" s="244"/>
-      <c r="AH6" s="242" t="s">
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
+      <c r="AG6" s="242"/>
+      <c r="AH6" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="AI6" s="242"/>
-      <c r="AJ6" s="242"/>
-      <c r="AK6" s="245" t="s">
+      <c r="AI6" s="240"/>
+      <c r="AJ6" s="240"/>
+      <c r="AK6" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="AL6" s="242"/>
-      <c r="AM6" s="242"/>
-      <c r="AN6" s="242"/>
-      <c r="AO6" s="242"/>
-      <c r="AP6" s="246"/>
-      <c r="AR6" s="239" t="s">
+      <c r="AL6" s="240"/>
+      <c r="AM6" s="240"/>
+      <c r="AN6" s="240"/>
+      <c r="AO6" s="240"/>
+      <c r="AP6" s="244"/>
+      <c r="AR6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="AS6" s="240"/>
-      <c r="AT6" s="241" t="s">
+      <c r="AS6" s="248"/>
+      <c r="AT6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="AU6" s="242"/>
-      <c r="AV6" s="243"/>
-      <c r="AW6" s="241" t="s">
+      <c r="AU6" s="240"/>
+      <c r="AV6" s="241"/>
+      <c r="AW6" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="AX6" s="242"/>
-      <c r="AY6" s="242"/>
-      <c r="AZ6" s="242"/>
-      <c r="BA6" s="242"/>
-      <c r="BB6" s="244"/>
-      <c r="BC6" s="242" t="s">
+      <c r="AX6" s="240"/>
+      <c r="AY6" s="240"/>
+      <c r="AZ6" s="240"/>
+      <c r="BA6" s="240"/>
+      <c r="BB6" s="242"/>
+      <c r="BC6" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="BD6" s="242"/>
-      <c r="BE6" s="242"/>
-      <c r="BF6" s="245" t="s">
+      <c r="BD6" s="240"/>
+      <c r="BE6" s="240"/>
+      <c r="BF6" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="BG6" s="242"/>
-      <c r="BH6" s="242"/>
-      <c r="BI6" s="242"/>
-      <c r="BJ6" s="242"/>
-      <c r="BK6" s="246"/>
-      <c r="BM6" s="239" t="s">
+      <c r="BG6" s="240"/>
+      <c r="BH6" s="240"/>
+      <c r="BI6" s="240"/>
+      <c r="BJ6" s="240"/>
+      <c r="BK6" s="244"/>
+      <c r="BM6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="BN6" s="240"/>
-      <c r="BO6" s="241" t="s">
+      <c r="BN6" s="248"/>
+      <c r="BO6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="BP6" s="242"/>
-      <c r="BQ6" s="243"/>
-      <c r="BR6" s="241" t="s">
+      <c r="BP6" s="240"/>
+      <c r="BQ6" s="241"/>
+      <c r="BR6" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="BS6" s="242"/>
-      <c r="BT6" s="242"/>
-      <c r="BU6" s="242"/>
-      <c r="BV6" s="242"/>
-      <c r="BW6" s="244"/>
-      <c r="BX6" s="242" t="s">
+      <c r="BS6" s="240"/>
+      <c r="BT6" s="240"/>
+      <c r="BU6" s="240"/>
+      <c r="BV6" s="240"/>
+      <c r="BW6" s="242"/>
+      <c r="BX6" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="BY6" s="242"/>
-      <c r="BZ6" s="242"/>
-      <c r="CA6" s="245" t="s">
+      <c r="BY6" s="240"/>
+      <c r="BZ6" s="240"/>
+      <c r="CA6" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="CB6" s="242"/>
-      <c r="CC6" s="242"/>
-      <c r="CD6" s="242"/>
-      <c r="CE6" s="242"/>
-      <c r="CF6" s="246"/>
-      <c r="CH6" s="239" t="s">
+      <c r="CB6" s="240"/>
+      <c r="CC6" s="240"/>
+      <c r="CD6" s="240"/>
+      <c r="CE6" s="240"/>
+      <c r="CF6" s="244"/>
+      <c r="CH6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="CI6" s="240"/>
-      <c r="CJ6" s="241" t="s">
+      <c r="CI6" s="248"/>
+      <c r="CJ6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="CK6" s="242"/>
-      <c r="CL6" s="243"/>
-      <c r="CM6" s="241" t="s">
+      <c r="CK6" s="240"/>
+      <c r="CL6" s="241"/>
+      <c r="CM6" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="CN6" s="242"/>
-      <c r="CO6" s="242"/>
-      <c r="CP6" s="242"/>
-      <c r="CQ6" s="242"/>
-      <c r="CR6" s="244"/>
-      <c r="CS6" s="242" t="s">
+      <c r="CN6" s="240"/>
+      <c r="CO6" s="240"/>
+      <c r="CP6" s="240"/>
+      <c r="CQ6" s="240"/>
+      <c r="CR6" s="242"/>
+      <c r="CS6" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="CT6" s="242"/>
-      <c r="CU6" s="242"/>
-      <c r="CV6" s="245" t="s">
+      <c r="CT6" s="240"/>
+      <c r="CU6" s="240"/>
+      <c r="CV6" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="CW6" s="242"/>
-      <c r="CX6" s="242"/>
-      <c r="CY6" s="242"/>
-      <c r="CZ6" s="242"/>
-      <c r="DA6" s="246"/>
-      <c r="DC6" s="239" t="s">
+      <c r="CW6" s="240"/>
+      <c r="CX6" s="240"/>
+      <c r="CY6" s="240"/>
+      <c r="CZ6" s="240"/>
+      <c r="DA6" s="244"/>
+      <c r="DC6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="DD6" s="240"/>
-      <c r="DE6" s="241" t="s">
+      <c r="DD6" s="248"/>
+      <c r="DE6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="DF6" s="242"/>
-      <c r="DG6" s="243"/>
-      <c r="DH6" s="241" t="s">
+      <c r="DF6" s="240"/>
+      <c r="DG6" s="241"/>
+      <c r="DH6" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="DI6" s="242"/>
-      <c r="DJ6" s="242"/>
-      <c r="DK6" s="242"/>
-      <c r="DL6" s="242"/>
-      <c r="DM6" s="244"/>
-      <c r="DN6" s="242" t="s">
+      <c r="DI6" s="240"/>
+      <c r="DJ6" s="240"/>
+      <c r="DK6" s="240"/>
+      <c r="DL6" s="240"/>
+      <c r="DM6" s="242"/>
+      <c r="DN6" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="DO6" s="242"/>
-      <c r="DP6" s="242"/>
-      <c r="DQ6" s="245" t="s">
+      <c r="DO6" s="240"/>
+      <c r="DP6" s="240"/>
+      <c r="DQ6" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="DR6" s="242"/>
-      <c r="DS6" s="242"/>
-      <c r="DT6" s="242"/>
-      <c r="DU6" s="242"/>
-      <c r="DV6" s="246"/>
-      <c r="DX6" s="239" t="s">
+      <c r="DR6" s="240"/>
+      <c r="DS6" s="240"/>
+      <c r="DT6" s="240"/>
+      <c r="DU6" s="240"/>
+      <c r="DV6" s="244"/>
+      <c r="DX6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="DY6" s="240"/>
-      <c r="DZ6" s="241" t="s">
+      <c r="DY6" s="248"/>
+      <c r="DZ6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="EA6" s="242"/>
-      <c r="EB6" s="243"/>
-      <c r="EC6" s="241" t="s">
+      <c r="EA6" s="240"/>
+      <c r="EB6" s="241"/>
+      <c r="EC6" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="ED6" s="242"/>
-      <c r="EE6" s="242"/>
-      <c r="EF6" s="242"/>
-      <c r="EG6" s="242"/>
-      <c r="EH6" s="244"/>
-      <c r="EI6" s="242" t="s">
+      <c r="ED6" s="240"/>
+      <c r="EE6" s="240"/>
+      <c r="EF6" s="240"/>
+      <c r="EG6" s="240"/>
+      <c r="EH6" s="242"/>
+      <c r="EI6" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="EJ6" s="242"/>
-      <c r="EK6" s="242"/>
-      <c r="EL6" s="245" t="s">
+      <c r="EJ6" s="240"/>
+      <c r="EK6" s="240"/>
+      <c r="EL6" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="EM6" s="242"/>
-      <c r="EN6" s="242"/>
-      <c r="EO6" s="242"/>
-      <c r="EP6" s="242"/>
-      <c r="EQ6" s="246"/>
-      <c r="ES6" s="239" t="s">
+      <c r="EM6" s="240"/>
+      <c r="EN6" s="240"/>
+      <c r="EO6" s="240"/>
+      <c r="EP6" s="240"/>
+      <c r="EQ6" s="244"/>
+      <c r="ES6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="ET6" s="240"/>
-      <c r="EU6" s="241" t="s">
+      <c r="ET6" s="248"/>
+      <c r="EU6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="EV6" s="242"/>
-      <c r="EW6" s="243"/>
-      <c r="EX6" s="241" t="s">
+      <c r="EV6" s="240"/>
+      <c r="EW6" s="241"/>
+      <c r="EX6" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="EY6" s="242"/>
-      <c r="EZ6" s="242"/>
-      <c r="FA6" s="242"/>
-      <c r="FB6" s="242"/>
-      <c r="FC6" s="244"/>
-      <c r="FD6" s="242" t="s">
+      <c r="EY6" s="240"/>
+      <c r="EZ6" s="240"/>
+      <c r="FA6" s="240"/>
+      <c r="FB6" s="240"/>
+      <c r="FC6" s="242"/>
+      <c r="FD6" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="FE6" s="242"/>
-      <c r="FF6" s="242"/>
-      <c r="FG6" s="245" t="s">
+      <c r="FE6" s="240"/>
+      <c r="FF6" s="240"/>
+      <c r="FG6" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="FH6" s="242"/>
-      <c r="FI6" s="242"/>
-      <c r="FJ6" s="242"/>
-      <c r="FK6" s="242"/>
-      <c r="FL6" s="246"/>
+      <c r="FH6" s="240"/>
+      <c r="FI6" s="240"/>
+      <c r="FJ6" s="240"/>
+      <c r="FK6" s="240"/>
+      <c r="FL6" s="244"/>
     </row>
     <row r="7" spans="1:168" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="211">
+      <c r="A7" s="219">
         <v>4</v>
       </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="201">
+      <c r="B7" s="220"/>
+      <c r="C7" s="221">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D7" s="202"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="201">
+      <c r="D7" s="222"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="221">
         <v>0</v>
       </c>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="204"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="223"/>
       <c r="L7" s="133">
         <v>4</v>
       </c>
@@ -8932,32 +9069,32 @@
       <c r="N7" s="133">
         <v>0</v>
       </c>
-      <c r="O7" s="205">
+      <c r="O7" s="245">
         <v>4</v>
       </c>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="206"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="246"/>
       <c r="U7" s="74"/>
-      <c r="W7" s="211">
+      <c r="W7" s="219">
         <v>4</v>
       </c>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="201">
+      <c r="X7" s="220"/>
+      <c r="Y7" s="221">
         <v>0</v>
       </c>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="201">
+      <c r="Z7" s="222"/>
+      <c r="AA7" s="220"/>
+      <c r="AB7" s="221">
         <v>0</v>
       </c>
-      <c r="AC7" s="202"/>
-      <c r="AD7" s="202"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="202"/>
-      <c r="AG7" s="204"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="222"/>
+      <c r="AE7" s="222"/>
+      <c r="AF7" s="222"/>
+      <c r="AG7" s="223"/>
       <c r="AH7" s="133">
         <v>4</v>
       </c>
@@ -8967,29 +9104,29 @@
       <c r="AJ7" s="133">
         <v>0</v>
       </c>
-      <c r="AK7" s="205">
+      <c r="AK7" s="245">
         <v>4</v>
       </c>
-      <c r="AL7" s="202"/>
-      <c r="AM7" s="202"/>
-      <c r="AN7" s="202"/>
-      <c r="AO7" s="202"/>
-      <c r="AP7" s="206"/>
-      <c r="AR7" s="211">
+      <c r="AL7" s="222"/>
+      <c r="AM7" s="222"/>
+      <c r="AN7" s="222"/>
+      <c r="AO7" s="222"/>
+      <c r="AP7" s="246"/>
+      <c r="AR7" s="219">
         <v>3</v>
       </c>
-      <c r="AS7" s="203"/>
-      <c r="AT7" s="201"/>
-      <c r="AU7" s="202"/>
-      <c r="AV7" s="203"/>
-      <c r="AW7" s="201">
+      <c r="AS7" s="220"/>
+      <c r="AT7" s="221"/>
+      <c r="AU7" s="222"/>
+      <c r="AV7" s="220"/>
+      <c r="AW7" s="221">
         <v>0</v>
       </c>
-      <c r="AX7" s="202"/>
-      <c r="AY7" s="202"/>
-      <c r="AZ7" s="202"/>
-      <c r="BA7" s="202"/>
-      <c r="BB7" s="204"/>
+      <c r="AX7" s="222"/>
+      <c r="AY7" s="222"/>
+      <c r="AZ7" s="222"/>
+      <c r="BA7" s="222"/>
+      <c r="BB7" s="223"/>
       <c r="BC7" s="133">
         <v>3</v>
       </c>
@@ -8999,31 +9136,31 @@
       <c r="BE7" s="133">
         <v>0</v>
       </c>
-      <c r="BF7" s="205">
+      <c r="BF7" s="245">
         <v>3</v>
       </c>
-      <c r="BG7" s="202"/>
-      <c r="BH7" s="202"/>
-      <c r="BI7" s="202"/>
-      <c r="BJ7" s="202"/>
-      <c r="BK7" s="206"/>
-      <c r="BM7" s="211">
+      <c r="BG7" s="222"/>
+      <c r="BH7" s="222"/>
+      <c r="BI7" s="222"/>
+      <c r="BJ7" s="222"/>
+      <c r="BK7" s="246"/>
+      <c r="BM7" s="219">
         <v>3</v>
       </c>
-      <c r="BN7" s="203"/>
-      <c r="BO7" s="201">
+      <c r="BN7" s="220"/>
+      <c r="BO7" s="221">
         <v>0</v>
       </c>
-      <c r="BP7" s="202"/>
-      <c r="BQ7" s="203"/>
-      <c r="BR7" s="201">
+      <c r="BP7" s="222"/>
+      <c r="BQ7" s="220"/>
+      <c r="BR7" s="221">
         <v>0</v>
       </c>
-      <c r="BS7" s="202"/>
-      <c r="BT7" s="202"/>
-      <c r="BU7" s="202"/>
-      <c r="BV7" s="202"/>
-      <c r="BW7" s="204"/>
+      <c r="BS7" s="222"/>
+      <c r="BT7" s="222"/>
+      <c r="BU7" s="222"/>
+      <c r="BV7" s="222"/>
+      <c r="BW7" s="223"/>
       <c r="BX7" s="133">
         <v>3</v>
       </c>
@@ -9033,31 +9170,31 @@
       <c r="BZ7" s="133">
         <v>0</v>
       </c>
-      <c r="CA7" s="205">
+      <c r="CA7" s="245">
         <v>3</v>
       </c>
-      <c r="CB7" s="202"/>
-      <c r="CC7" s="202"/>
-      <c r="CD7" s="202"/>
-      <c r="CE7" s="202"/>
-      <c r="CF7" s="206"/>
-      <c r="CH7" s="211">
+      <c r="CB7" s="222"/>
+      <c r="CC7" s="222"/>
+      <c r="CD7" s="222"/>
+      <c r="CE7" s="222"/>
+      <c r="CF7" s="246"/>
+      <c r="CH7" s="219">
         <v>3</v>
       </c>
-      <c r="CI7" s="203"/>
-      <c r="CJ7" s="201">
+      <c r="CI7" s="220"/>
+      <c r="CJ7" s="221">
         <v>0</v>
       </c>
-      <c r="CK7" s="202"/>
-      <c r="CL7" s="203"/>
-      <c r="CM7" s="201">
+      <c r="CK7" s="222"/>
+      <c r="CL7" s="220"/>
+      <c r="CM7" s="221">
         <v>0</v>
       </c>
-      <c r="CN7" s="202"/>
-      <c r="CO7" s="202"/>
-      <c r="CP7" s="202"/>
-      <c r="CQ7" s="202"/>
-      <c r="CR7" s="204"/>
+      <c r="CN7" s="222"/>
+      <c r="CO7" s="222"/>
+      <c r="CP7" s="222"/>
+      <c r="CQ7" s="222"/>
+      <c r="CR7" s="223"/>
       <c r="CS7" s="133">
         <v>3</v>
       </c>
@@ -9067,31 +9204,31 @@
       <c r="CU7" s="133">
         <v>0</v>
       </c>
-      <c r="CV7" s="205">
+      <c r="CV7" s="245">
         <v>3</v>
       </c>
-      <c r="CW7" s="202"/>
-      <c r="CX7" s="202"/>
-      <c r="CY7" s="202"/>
-      <c r="CZ7" s="202"/>
-      <c r="DA7" s="206"/>
-      <c r="DC7" s="211">
+      <c r="CW7" s="222"/>
+      <c r="CX7" s="222"/>
+      <c r="CY7" s="222"/>
+      <c r="CZ7" s="222"/>
+      <c r="DA7" s="246"/>
+      <c r="DC7" s="219">
         <v>1</v>
       </c>
-      <c r="DD7" s="203"/>
-      <c r="DE7" s="201">
+      <c r="DD7" s="220"/>
+      <c r="DE7" s="221">
         <v>0</v>
       </c>
-      <c r="DF7" s="202"/>
-      <c r="DG7" s="203"/>
-      <c r="DH7" s="201">
+      <c r="DF7" s="222"/>
+      <c r="DG7" s="220"/>
+      <c r="DH7" s="221">
         <v>0</v>
       </c>
-      <c r="DI7" s="202"/>
-      <c r="DJ7" s="202"/>
-      <c r="DK7" s="202"/>
-      <c r="DL7" s="202"/>
-      <c r="DM7" s="204"/>
+      <c r="DI7" s="222"/>
+      <c r="DJ7" s="222"/>
+      <c r="DK7" s="222"/>
+      <c r="DL7" s="222"/>
+      <c r="DM7" s="223"/>
       <c r="DN7" s="133">
         <v>1</v>
       </c>
@@ -9101,31 +9238,31 @@
       <c r="DP7" s="133">
         <v>0</v>
       </c>
-      <c r="DQ7" s="205">
+      <c r="DQ7" s="245">
         <v>1</v>
       </c>
-      <c r="DR7" s="202"/>
-      <c r="DS7" s="202"/>
-      <c r="DT7" s="202"/>
-      <c r="DU7" s="202"/>
-      <c r="DV7" s="206"/>
-      <c r="DX7" s="211">
+      <c r="DR7" s="222"/>
+      <c r="DS7" s="222"/>
+      <c r="DT7" s="222"/>
+      <c r="DU7" s="222"/>
+      <c r="DV7" s="246"/>
+      <c r="DX7" s="219">
         <v>1</v>
       </c>
-      <c r="DY7" s="203"/>
-      <c r="DZ7" s="201">
+      <c r="DY7" s="220"/>
+      <c r="DZ7" s="221">
         <v>0</v>
       </c>
-      <c r="EA7" s="202"/>
-      <c r="EB7" s="203"/>
-      <c r="EC7" s="201">
+      <c r="EA7" s="222"/>
+      <c r="EB7" s="220"/>
+      <c r="EC7" s="221">
         <v>0</v>
       </c>
-      <c r="ED7" s="202"/>
-      <c r="EE7" s="202"/>
-      <c r="EF7" s="202"/>
-      <c r="EG7" s="202"/>
-      <c r="EH7" s="204"/>
+      <c r="ED7" s="222"/>
+      <c r="EE7" s="222"/>
+      <c r="EF7" s="222"/>
+      <c r="EG7" s="222"/>
+      <c r="EH7" s="223"/>
       <c r="EI7" s="133">
         <v>1</v>
       </c>
@@ -9135,31 +9272,31 @@
       <c r="EK7" s="133">
         <v>0</v>
       </c>
-      <c r="EL7" s="205">
+      <c r="EL7" s="245">
         <v>1</v>
       </c>
-      <c r="EM7" s="202"/>
-      <c r="EN7" s="202"/>
-      <c r="EO7" s="202"/>
-      <c r="EP7" s="202"/>
-      <c r="EQ7" s="206"/>
-      <c r="ES7" s="211">
+      <c r="EM7" s="222"/>
+      <c r="EN7" s="222"/>
+      <c r="EO7" s="222"/>
+      <c r="EP7" s="222"/>
+      <c r="EQ7" s="246"/>
+      <c r="ES7" s="219">
         <v>1</v>
       </c>
-      <c r="ET7" s="203"/>
-      <c r="EU7" s="201">
+      <c r="ET7" s="220"/>
+      <c r="EU7" s="221">
         <v>0</v>
       </c>
-      <c r="EV7" s="202"/>
-      <c r="EW7" s="203"/>
-      <c r="EX7" s="201">
+      <c r="EV7" s="222"/>
+      <c r="EW7" s="220"/>
+      <c r="EX7" s="221">
         <v>0</v>
       </c>
-      <c r="EY7" s="202"/>
-      <c r="EZ7" s="202"/>
-      <c r="FA7" s="202"/>
-      <c r="FB7" s="202"/>
-      <c r="FC7" s="204"/>
+      <c r="EY7" s="222"/>
+      <c r="EZ7" s="222"/>
+      <c r="FA7" s="222"/>
+      <c r="FB7" s="222"/>
+      <c r="FC7" s="223"/>
       <c r="FD7" s="133">
         <v>1</v>
       </c>
@@ -9169,14 +9306,14 @@
       <c r="FF7" s="133">
         <v>0</v>
       </c>
-      <c r="FG7" s="205">
+      <c r="FG7" s="245">
         <v>1</v>
       </c>
-      <c r="FH7" s="202"/>
-      <c r="FI7" s="202"/>
-      <c r="FJ7" s="202"/>
-      <c r="FK7" s="202"/>
-      <c r="FL7" s="206"/>
+      <c r="FH7" s="222"/>
+      <c r="FI7" s="222"/>
+      <c r="FJ7" s="222"/>
+      <c r="FK7" s="222"/>
+      <c r="FL7" s="246"/>
     </row>
     <row r="8" spans="1:168" ht="10.8" thickBot="1">
       <c r="X8" s="75"/>
@@ -11040,8 +11177,8 @@
         <v>122</v>
       </c>
       <c r="C19" s="78"/>
-      <c r="D19" s="247"/>
-      <c r="E19" s="247"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
@@ -11062,8 +11199,8 @@
         <v>133</v>
       </c>
       <c r="Y19" s="78"/>
-      <c r="Z19" s="247"/>
-      <c r="AA19" s="247"/>
+      <c r="Z19" s="251"/>
+      <c r="AA19" s="251"/>
       <c r="AB19" s="125"/>
       <c r="AC19" s="125"/>
       <c r="AD19" s="125"/>
@@ -11082,8 +11219,8 @@
       <c r="AR19" s="150"/>
       <c r="AS19" s="77"/>
       <c r="AT19" s="78"/>
-      <c r="AU19" s="247"/>
-      <c r="AV19" s="247"/>
+      <c r="AU19" s="251"/>
+      <c r="AV19" s="251"/>
       <c r="AW19" s="125"/>
       <c r="AX19" s="125"/>
       <c r="AY19" s="125"/>
@@ -11102,8 +11239,8 @@
       <c r="BM19" s="150"/>
       <c r="BN19" s="77"/>
       <c r="BO19" s="78"/>
-      <c r="BP19" s="247"/>
-      <c r="BQ19" s="247"/>
+      <c r="BP19" s="251"/>
+      <c r="BQ19" s="251"/>
       <c r="BR19" s="125" t="s">
         <v>91</v>
       </c>
@@ -11128,8 +11265,8 @@
       <c r="CH19" s="150"/>
       <c r="CI19" s="77"/>
       <c r="CJ19" s="78"/>
-      <c r="CK19" s="247"/>
-      <c r="CL19" s="247"/>
+      <c r="CK19" s="251"/>
+      <c r="CL19" s="251"/>
       <c r="CM19" s="125" t="s">
         <v>91</v>
       </c>
@@ -14608,11 +14745,11 @@
       <c r="A39" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="207" t="s">
+      <c r="B39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="207"/>
-      <c r="D39" s="207"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
       <c r="E39" s="146"/>
       <c r="F39" s="147" t="s">
         <v>48</v>
@@ -14640,11 +14777,11 @@
       <c r="W39" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="X39" s="207" t="s">
+      <c r="X39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="Y39" s="207"/>
-      <c r="Z39" s="207"/>
+      <c r="Y39" s="215"/>
+      <c r="Z39" s="215"/>
       <c r="AA39" s="146"/>
       <c r="AB39" s="147" t="s">
         <v>48</v>
@@ -14672,11 +14809,11 @@
       <c r="AR39" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AS39" s="207" t="s">
+      <c r="AS39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="AT39" s="207"/>
-      <c r="AU39" s="207"/>
+      <c r="AT39" s="215"/>
+      <c r="AU39" s="215"/>
       <c r="AV39" s="146"/>
       <c r="AW39" s="147" t="s">
         <v>48</v>
@@ -14702,11 +14839,11 @@
       <c r="BM39" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="BN39" s="207" t="s">
+      <c r="BN39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="BO39" s="207"/>
-      <c r="BP39" s="207"/>
+      <c r="BO39" s="215"/>
+      <c r="BP39" s="215"/>
       <c r="BQ39" s="146"/>
       <c r="BR39" s="147" t="s">
         <v>48</v>
@@ -14732,11 +14869,11 @@
       <c r="CH39" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="CI39" s="207" t="s">
+      <c r="CI39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="CJ39" s="207"/>
-      <c r="CK39" s="207"/>
+      <c r="CJ39" s="215"/>
+      <c r="CK39" s="215"/>
       <c r="CL39" s="146"/>
       <c r="CM39" s="147" t="s">
         <v>48</v>
@@ -14762,11 +14899,11 @@
       <c r="DC39" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="DD39" s="207" t="s">
+      <c r="DD39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="DE39" s="207"/>
-      <c r="DF39" s="207"/>
+      <c r="DE39" s="215"/>
+      <c r="DF39" s="215"/>
       <c r="DG39" s="146"/>
       <c r="DH39" s="147" t="s">
         <v>48</v>
@@ -14788,11 +14925,11 @@
       <c r="DX39" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="DY39" s="207" t="s">
+      <c r="DY39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="DZ39" s="207"/>
-      <c r="EA39" s="207"/>
+      <c r="DZ39" s="215"/>
+      <c r="EA39" s="215"/>
       <c r="EB39" s="146"/>
       <c r="EC39" s="147" t="s">
         <v>50</v>
@@ -14814,11 +14951,11 @@
       <c r="ES39" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="ET39" s="207" t="s">
+      <c r="ET39" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="EU39" s="207"/>
-      <c r="EV39" s="207"/>
+      <c r="EU39" s="215"/>
+      <c r="EV39" s="215"/>
       <c r="EW39" s="146"/>
       <c r="EX39" s="147" t="s">
         <v>50</v>
@@ -14840,11 +14977,11 @@
     </row>
     <row r="40" spans="1:168" ht="13.5" customHeight="1">
       <c r="A40" s="160"/>
-      <c r="B40" s="208" t="s">
+      <c r="B40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="208"/>
-      <c r="D40" s="208"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="216"/>
       <c r="E40" s="96"/>
       <c r="F40" s="130" t="s">
         <v>52</v>
@@ -14870,11 +15007,11 @@
       <c r="S40" s="130"/>
       <c r="T40" s="155"/>
       <c r="W40" s="160"/>
-      <c r="X40" s="208" t="s">
+      <c r="X40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="Y40" s="208"/>
-      <c r="Z40" s="208"/>
+      <c r="Y40" s="216"/>
+      <c r="Z40" s="216"/>
       <c r="AA40" s="96"/>
       <c r="AB40" s="130" t="s">
         <v>52</v>
@@ -14900,11 +15037,11 @@
       <c r="AO40" s="130"/>
       <c r="AP40" s="155"/>
       <c r="AR40" s="160"/>
-      <c r="AS40" s="208" t="s">
+      <c r="AS40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="AT40" s="208"/>
-      <c r="AU40" s="208"/>
+      <c r="AT40" s="216"/>
+      <c r="AU40" s="216"/>
       <c r="AV40" s="96"/>
       <c r="AW40" s="130" t="s">
         <v>52</v>
@@ -14928,11 +15065,11 @@
       <c r="BJ40" s="130"/>
       <c r="BK40" s="155"/>
       <c r="BM40" s="160"/>
-      <c r="BN40" s="208" t="s">
+      <c r="BN40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="BO40" s="208"/>
-      <c r="BP40" s="208"/>
+      <c r="BO40" s="216"/>
+      <c r="BP40" s="216"/>
       <c r="BQ40" s="96"/>
       <c r="BR40" s="130" t="s">
         <v>52</v>
@@ -14956,11 +15093,11 @@
       <c r="CE40" s="130"/>
       <c r="CF40" s="155"/>
       <c r="CH40" s="160"/>
-      <c r="CI40" s="208" t="s">
+      <c r="CI40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="CJ40" s="208"/>
-      <c r="CK40" s="208"/>
+      <c r="CJ40" s="216"/>
+      <c r="CK40" s="216"/>
       <c r="CL40" s="96"/>
       <c r="CM40" s="130" t="s">
         <v>52</v>
@@ -14984,11 +15121,11 @@
       <c r="CZ40" s="130"/>
       <c r="DA40" s="155"/>
       <c r="DC40" s="160"/>
-      <c r="DD40" s="208" t="s">
+      <c r="DD40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="DE40" s="208"/>
-      <c r="DF40" s="208"/>
+      <c r="DE40" s="216"/>
+      <c r="DF40" s="216"/>
       <c r="DG40" s="96"/>
       <c r="DH40" s="130" t="s">
         <v>52</v>
@@ -15008,11 +15145,11 @@
       <c r="DU40" s="130"/>
       <c r="DV40" s="155"/>
       <c r="DX40" s="160"/>
-      <c r="DY40" s="208" t="s">
+      <c r="DY40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="DZ40" s="208"/>
-      <c r="EA40" s="208"/>
+      <c r="DZ40" s="216"/>
+      <c r="EA40" s="216"/>
       <c r="EB40" s="96"/>
       <c r="EC40" s="130" t="s">
         <v>52</v>
@@ -15032,11 +15169,11 @@
       <c r="EP40" s="130"/>
       <c r="EQ40" s="155"/>
       <c r="ES40" s="160"/>
-      <c r="ET40" s="208" t="s">
+      <c r="ET40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="EU40" s="208"/>
-      <c r="EV40" s="208"/>
+      <c r="EU40" s="216"/>
+      <c r="EV40" s="216"/>
       <c r="EW40" s="96"/>
       <c r="EX40" s="130" t="s">
         <v>52</v>
@@ -15058,11 +15195,11 @@
     </row>
     <row r="41" spans="1:168" ht="76.2" customHeight="1">
       <c r="A41" s="160"/>
-      <c r="B41" s="209" t="s">
+      <c r="B41" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="217"/>
       <c r="E41" s="97"/>
       <c r="F41" s="98" t="s">
         <v>123</v>
@@ -15088,11 +15225,11 @@
       <c r="S41" s="98"/>
       <c r="T41" s="156"/>
       <c r="W41" s="160"/>
-      <c r="X41" s="209" t="s">
+      <c r="X41" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="Y41" s="209"/>
-      <c r="Z41" s="209"/>
+      <c r="Y41" s="217"/>
+      <c r="Z41" s="217"/>
       <c r="AA41" s="97"/>
       <c r="AB41" s="98" t="s">
         <v>123</v>
@@ -15118,11 +15255,11 @@
       <c r="AO41" s="98"/>
       <c r="AP41" s="156"/>
       <c r="AR41" s="160"/>
-      <c r="AS41" s="209" t="s">
+      <c r="AS41" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="AT41" s="209"/>
-      <c r="AU41" s="209"/>
+      <c r="AT41" s="217"/>
+      <c r="AU41" s="217"/>
       <c r="AV41" s="97"/>
       <c r="AW41" s="98" t="s">
         <v>123</v>
@@ -15146,11 +15283,11 @@
       <c r="BJ41" s="98"/>
       <c r="BK41" s="156"/>
       <c r="BM41" s="160"/>
-      <c r="BN41" s="209" t="s">
+      <c r="BN41" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="BO41" s="209"/>
-      <c r="BP41" s="209"/>
+      <c r="BO41" s="217"/>
+      <c r="BP41" s="217"/>
       <c r="BQ41" s="97"/>
       <c r="BR41" s="98" t="s">
         <v>123</v>
@@ -15174,11 +15311,11 @@
       <c r="CE41" s="98"/>
       <c r="CF41" s="156"/>
       <c r="CH41" s="160"/>
-      <c r="CI41" s="209" t="s">
+      <c r="CI41" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="CJ41" s="209"/>
-      <c r="CK41" s="209"/>
+      <c r="CJ41" s="217"/>
+      <c r="CK41" s="217"/>
       <c r="CL41" s="97"/>
       <c r="CM41" s="98" t="s">
         <v>123</v>
@@ -15202,11 +15339,11 @@
       <c r="CZ41" s="98"/>
       <c r="DA41" s="156"/>
       <c r="DC41" s="160"/>
-      <c r="DD41" s="209" t="s">
+      <c r="DD41" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="DE41" s="209"/>
-      <c r="DF41" s="209"/>
+      <c r="DE41" s="217"/>
+      <c r="DF41" s="217"/>
       <c r="DG41" s="97"/>
       <c r="DH41" s="98" t="s">
         <v>123</v>
@@ -15226,11 +15363,11 @@
       <c r="DU41" s="98"/>
       <c r="DV41" s="156"/>
       <c r="DX41" s="160"/>
-      <c r="DY41" s="209" t="s">
+      <c r="DY41" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="DZ41" s="209"/>
-      <c r="EA41" s="209"/>
+      <c r="DZ41" s="217"/>
+      <c r="EA41" s="217"/>
       <c r="EB41" s="97"/>
       <c r="EC41" s="98" t="s">
         <v>123</v>
@@ -15250,11 +15387,11 @@
       <c r="EP41" s="98"/>
       <c r="EQ41" s="156"/>
       <c r="ES41" s="160"/>
-      <c r="ET41" s="209" t="s">
+      <c r="ET41" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="EU41" s="209"/>
-      <c r="EV41" s="209"/>
+      <c r="EU41" s="217"/>
+      <c r="EV41" s="217"/>
       <c r="EW41" s="97"/>
       <c r="EX41" s="98" t="s">
         <v>123</v>
@@ -15276,11 +15413,11 @@
     </row>
     <row r="42" spans="1:168" ht="10.8" thickBot="1">
       <c r="A42" s="166"/>
-      <c r="B42" s="210" t="s">
+      <c r="B42" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="210"/>
-      <c r="D42" s="210"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="218"/>
       <c r="E42" s="157"/>
       <c r="F42" s="158"/>
       <c r="G42" s="158"/>
@@ -15298,11 +15435,11 @@
       <c r="S42" s="158"/>
       <c r="T42" s="159"/>
       <c r="W42" s="166"/>
-      <c r="X42" s="210" t="s">
+      <c r="X42" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="Y42" s="210"/>
-      <c r="Z42" s="210"/>
+      <c r="Y42" s="218"/>
+      <c r="Z42" s="218"/>
       <c r="AA42" s="157"/>
       <c r="AB42" s="158"/>
       <c r="AC42" s="158"/>
@@ -15320,11 +15457,11 @@
       <c r="AO42" s="158"/>
       <c r="AP42" s="159"/>
       <c r="AR42" s="166"/>
-      <c r="AS42" s="210" t="s">
+      <c r="AS42" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="AT42" s="210"/>
-      <c r="AU42" s="210"/>
+      <c r="AT42" s="218"/>
+      <c r="AU42" s="218"/>
       <c r="AV42" s="157"/>
       <c r="AW42" s="158"/>
       <c r="AX42" s="158"/>
@@ -15342,11 +15479,11 @@
       <c r="BJ42" s="158"/>
       <c r="BK42" s="159"/>
       <c r="BM42" s="166"/>
-      <c r="BN42" s="210" t="s">
+      <c r="BN42" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="BO42" s="210"/>
-      <c r="BP42" s="210"/>
+      <c r="BO42" s="218"/>
+      <c r="BP42" s="218"/>
       <c r="BQ42" s="157"/>
       <c r="BR42" s="158"/>
       <c r="BS42" s="158"/>
@@ -15364,11 +15501,11 @@
       <c r="CE42" s="158"/>
       <c r="CF42" s="159"/>
       <c r="CH42" s="166"/>
-      <c r="CI42" s="210" t="s">
+      <c r="CI42" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="CJ42" s="210"/>
-      <c r="CK42" s="210"/>
+      <c r="CJ42" s="218"/>
+      <c r="CK42" s="218"/>
       <c r="CL42" s="157"/>
       <c r="CM42" s="158"/>
       <c r="CN42" s="158"/>
@@ -15386,11 +15523,11 @@
       <c r="CZ42" s="158"/>
       <c r="DA42" s="159"/>
       <c r="DC42" s="166"/>
-      <c r="DD42" s="210" t="s">
+      <c r="DD42" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="DE42" s="210"/>
-      <c r="DF42" s="210"/>
+      <c r="DE42" s="218"/>
+      <c r="DF42" s="218"/>
       <c r="DG42" s="157"/>
       <c r="DH42" s="158"/>
       <c r="DI42" s="158"/>
@@ -15408,11 +15545,11 @@
       <c r="DU42" s="158"/>
       <c r="DV42" s="159"/>
       <c r="DX42" s="166"/>
-      <c r="DY42" s="210" t="s">
+      <c r="DY42" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="DZ42" s="210"/>
-      <c r="EA42" s="210"/>
+      <c r="DZ42" s="218"/>
+      <c r="EA42" s="218"/>
       <c r="EB42" s="157"/>
       <c r="EC42" s="158"/>
       <c r="ED42" s="158"/>
@@ -15430,11 +15567,11 @@
       <c r="EP42" s="158"/>
       <c r="EQ42" s="159"/>
       <c r="ES42" s="166"/>
-      <c r="ET42" s="210" t="s">
+      <c r="ET42" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="EU42" s="210"/>
-      <c r="EV42" s="210"/>
+      <c r="EU42" s="218"/>
+      <c r="EV42" s="218"/>
       <c r="EW42" s="157"/>
       <c r="EX42" s="158"/>
       <c r="EY42" s="158"/>
@@ -15457,723 +15594,723 @@
     </row>
     <row r="44" spans="1:168" ht="13.2" customHeight="1" thickBot="1"/>
     <row r="45" spans="1:168" ht="26.4" customHeight="1">
-      <c r="A45" s="216" t="s">
+      <c r="A45" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="217"/>
-      <c r="C45" s="218" t="s">
+      <c r="B45" s="225"/>
+      <c r="C45" s="226" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="219"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="221" t="s">
+      <c r="D45" s="227"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="222"/>
-      <c r="H45" s="222"/>
-      <c r="I45" s="222"/>
-      <c r="J45" s="222"/>
-      <c r="K45" s="222"/>
-      <c r="L45" s="223" t="s">
+      <c r="G45" s="230"/>
+      <c r="H45" s="230"/>
+      <c r="I45" s="230"/>
+      <c r="J45" s="230"/>
+      <c r="K45" s="230"/>
+      <c r="L45" s="231" t="s">
         <v>180</v>
       </c>
-      <c r="M45" s="224"/>
-      <c r="N45" s="224"/>
-      <c r="O45" s="224"/>
-      <c r="P45" s="224"/>
-      <c r="Q45" s="224"/>
-      <c r="R45" s="224"/>
-      <c r="S45" s="224"/>
-      <c r="T45" s="225"/>
-      <c r="W45" s="216" t="s">
+      <c r="M45" s="232"/>
+      <c r="N45" s="232"/>
+      <c r="O45" s="232"/>
+      <c r="P45" s="232"/>
+      <c r="Q45" s="232"/>
+      <c r="R45" s="232"/>
+      <c r="S45" s="232"/>
+      <c r="T45" s="233"/>
+      <c r="W45" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="X45" s="217"/>
-      <c r="Y45" s="218" t="s">
+      <c r="X45" s="225"/>
+      <c r="Y45" s="226" t="s">
         <v>186</v>
       </c>
-      <c r="Z45" s="219"/>
-      <c r="AA45" s="220"/>
-      <c r="AB45" s="221" t="s">
+      <c r="Z45" s="227"/>
+      <c r="AA45" s="228"/>
+      <c r="AB45" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="AC45" s="222"/>
-      <c r="AD45" s="222"/>
-      <c r="AE45" s="222"/>
-      <c r="AF45" s="222"/>
-      <c r="AG45" s="222"/>
-      <c r="AH45" s="223" t="s">
+      <c r="AC45" s="230"/>
+      <c r="AD45" s="230"/>
+      <c r="AE45" s="230"/>
+      <c r="AF45" s="230"/>
+      <c r="AG45" s="230"/>
+      <c r="AH45" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="AI45" s="224"/>
-      <c r="AJ45" s="224"/>
-      <c r="AK45" s="224"/>
-      <c r="AL45" s="224"/>
-      <c r="AM45" s="224"/>
-      <c r="AN45" s="224"/>
-      <c r="AO45" s="224"/>
-      <c r="AP45" s="225"/>
-      <c r="AR45" s="216" t="s">
+      <c r="AI45" s="232"/>
+      <c r="AJ45" s="232"/>
+      <c r="AK45" s="232"/>
+      <c r="AL45" s="232"/>
+      <c r="AM45" s="232"/>
+      <c r="AN45" s="232"/>
+      <c r="AO45" s="232"/>
+      <c r="AP45" s="233"/>
+      <c r="AR45" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="AS45" s="217"/>
-      <c r="AT45" s="218" t="s">
+      <c r="AS45" s="225"/>
+      <c r="AT45" s="226" t="s">
         <v>189</v>
       </c>
-      <c r="AU45" s="219"/>
-      <c r="AV45" s="220"/>
-      <c r="AW45" s="221" t="s">
+      <c r="AU45" s="227"/>
+      <c r="AV45" s="228"/>
+      <c r="AW45" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="AX45" s="222"/>
-      <c r="AY45" s="222"/>
-      <c r="AZ45" s="222"/>
-      <c r="BA45" s="222"/>
-      <c r="BB45" s="222"/>
-      <c r="BC45" s="223" t="s">
+      <c r="AX45" s="230"/>
+      <c r="AY45" s="230"/>
+      <c r="AZ45" s="230"/>
+      <c r="BA45" s="230"/>
+      <c r="BB45" s="230"/>
+      <c r="BC45" s="231" t="s">
         <v>189</v>
       </c>
-      <c r="BD45" s="224"/>
-      <c r="BE45" s="224"/>
-      <c r="BF45" s="224"/>
-      <c r="BG45" s="224"/>
-      <c r="BH45" s="224"/>
-      <c r="BI45" s="224"/>
-      <c r="BJ45" s="224"/>
-      <c r="BK45" s="225"/>
-      <c r="BM45" s="216" t="s">
+      <c r="BD45" s="232"/>
+      <c r="BE45" s="232"/>
+      <c r="BF45" s="232"/>
+      <c r="BG45" s="232"/>
+      <c r="BH45" s="232"/>
+      <c r="BI45" s="232"/>
+      <c r="BJ45" s="232"/>
+      <c r="BK45" s="233"/>
+      <c r="BM45" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="BN45" s="217"/>
-      <c r="BO45" s="218" t="s">
+      <c r="BN45" s="225"/>
+      <c r="BO45" s="226" t="s">
         <v>191</v>
       </c>
-      <c r="BP45" s="219"/>
-      <c r="BQ45" s="220"/>
-      <c r="BR45" s="221" t="s">
+      <c r="BP45" s="227"/>
+      <c r="BQ45" s="228"/>
+      <c r="BR45" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="BS45" s="222"/>
-      <c r="BT45" s="222"/>
-      <c r="BU45" s="222"/>
-      <c r="BV45" s="222"/>
-      <c r="BW45" s="222"/>
-      <c r="BX45" s="223" t="s">
+      <c r="BS45" s="230"/>
+      <c r="BT45" s="230"/>
+      <c r="BU45" s="230"/>
+      <c r="BV45" s="230"/>
+      <c r="BW45" s="230"/>
+      <c r="BX45" s="231" t="s">
         <v>191</v>
       </c>
-      <c r="BY45" s="224"/>
-      <c r="BZ45" s="224"/>
-      <c r="CA45" s="224"/>
-      <c r="CB45" s="224"/>
-      <c r="CC45" s="224"/>
-      <c r="CD45" s="224"/>
-      <c r="CE45" s="224"/>
-      <c r="CF45" s="225"/>
-      <c r="CH45" s="216" t="s">
+      <c r="BY45" s="232"/>
+      <c r="BZ45" s="232"/>
+      <c r="CA45" s="232"/>
+      <c r="CB45" s="232"/>
+      <c r="CC45" s="232"/>
+      <c r="CD45" s="232"/>
+      <c r="CE45" s="232"/>
+      <c r="CF45" s="233"/>
+      <c r="CH45" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="CI45" s="217"/>
-      <c r="CJ45" s="218" t="s">
+      <c r="CI45" s="225"/>
+      <c r="CJ45" s="226" t="s">
         <v>198</v>
       </c>
-      <c r="CK45" s="219"/>
-      <c r="CL45" s="220"/>
-      <c r="CM45" s="221" t="s">
+      <c r="CK45" s="227"/>
+      <c r="CL45" s="228"/>
+      <c r="CM45" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="CN45" s="222"/>
-      <c r="CO45" s="222"/>
-      <c r="CP45" s="222"/>
-      <c r="CQ45" s="222"/>
-      <c r="CR45" s="222"/>
-      <c r="CS45" s="223" t="s">
+      <c r="CN45" s="230"/>
+      <c r="CO45" s="230"/>
+      <c r="CP45" s="230"/>
+      <c r="CQ45" s="230"/>
+      <c r="CR45" s="230"/>
+      <c r="CS45" s="231" t="s">
         <v>198</v>
       </c>
-      <c r="CT45" s="224"/>
-      <c r="CU45" s="224"/>
-      <c r="CV45" s="224"/>
-      <c r="CW45" s="224"/>
-      <c r="CX45" s="224"/>
-      <c r="CY45" s="224"/>
-      <c r="CZ45" s="224"/>
-      <c r="DA45" s="225"/>
+      <c r="CT45" s="232"/>
+      <c r="CU45" s="232"/>
+      <c r="CV45" s="232"/>
+      <c r="CW45" s="232"/>
+      <c r="CX45" s="232"/>
+      <c r="CY45" s="232"/>
+      <c r="CZ45" s="232"/>
+      <c r="DA45" s="233"/>
     </row>
     <row r="46" spans="1:168" ht="13.5" customHeight="1">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="213"/>
-      <c r="C46" s="226" t="s">
+      <c r="B46" s="212"/>
+      <c r="C46" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="227"/>
-      <c r="E46" s="228"/>
-      <c r="F46" s="229" t="s">
+      <c r="D46" s="235"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="230"/>
-      <c r="H46" s="230"/>
-      <c r="I46" s="230"/>
-      <c r="J46" s="230"/>
-      <c r="K46" s="231"/>
-      <c r="L46" s="232" t="s">
+      <c r="G46" s="206"/>
+      <c r="H46" s="206"/>
+      <c r="I46" s="206"/>
+      <c r="J46" s="206"/>
+      <c r="K46" s="207"/>
+      <c r="L46" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="M46" s="233"/>
-      <c r="N46" s="233"/>
-      <c r="O46" s="233"/>
-      <c r="P46" s="233"/>
+      <c r="M46" s="238"/>
+      <c r="N46" s="238"/>
+      <c r="O46" s="238"/>
+      <c r="P46" s="238"/>
       <c r="Q46" s="131"/>
       <c r="R46" s="131"/>
       <c r="S46" s="131"/>
       <c r="T46" s="132"/>
-      <c r="W46" s="212" t="s">
+      <c r="W46" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="X46" s="213"/>
-      <c r="Y46" s="226" t="s">
+      <c r="X46" s="212"/>
+      <c r="Y46" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="Z46" s="227"/>
-      <c r="AA46" s="228"/>
-      <c r="AB46" s="229" t="s">
+      <c r="Z46" s="235"/>
+      <c r="AA46" s="236"/>
+      <c r="AB46" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="AC46" s="230"/>
-      <c r="AD46" s="230"/>
-      <c r="AE46" s="230"/>
-      <c r="AF46" s="230"/>
-      <c r="AG46" s="231"/>
-      <c r="AH46" s="232" t="s">
+      <c r="AC46" s="206"/>
+      <c r="AD46" s="206"/>
+      <c r="AE46" s="206"/>
+      <c r="AF46" s="206"/>
+      <c r="AG46" s="207"/>
+      <c r="AH46" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="AI46" s="233"/>
-      <c r="AJ46" s="233"/>
-      <c r="AK46" s="233"/>
-      <c r="AL46" s="233"/>
+      <c r="AI46" s="238"/>
+      <c r="AJ46" s="238"/>
+      <c r="AK46" s="238"/>
+      <c r="AL46" s="238"/>
       <c r="AM46" s="131"/>
       <c r="AN46" s="131"/>
       <c r="AO46" s="131"/>
       <c r="AP46" s="132"/>
-      <c r="AR46" s="212" t="s">
+      <c r="AR46" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="AS46" s="213"/>
-      <c r="AT46" s="226" t="s">
+      <c r="AS46" s="212"/>
+      <c r="AT46" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="AU46" s="227"/>
-      <c r="AV46" s="228"/>
-      <c r="AW46" s="229" t="s">
+      <c r="AU46" s="235"/>
+      <c r="AV46" s="236"/>
+      <c r="AW46" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="AX46" s="230"/>
-      <c r="AY46" s="230"/>
-      <c r="AZ46" s="230"/>
-      <c r="BA46" s="230"/>
-      <c r="BB46" s="231"/>
-      <c r="BC46" s="232" t="s">
+      <c r="AX46" s="206"/>
+      <c r="AY46" s="206"/>
+      <c r="AZ46" s="206"/>
+      <c r="BA46" s="206"/>
+      <c r="BB46" s="207"/>
+      <c r="BC46" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="BD46" s="233"/>
-      <c r="BE46" s="233"/>
-      <c r="BF46" s="233"/>
-      <c r="BG46" s="233"/>
+      <c r="BD46" s="238"/>
+      <c r="BE46" s="238"/>
+      <c r="BF46" s="238"/>
+      <c r="BG46" s="238"/>
       <c r="BH46" s="131"/>
       <c r="BI46" s="131"/>
       <c r="BJ46" s="131"/>
       <c r="BK46" s="132"/>
-      <c r="BM46" s="212" t="s">
+      <c r="BM46" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="BN46" s="213"/>
-      <c r="BO46" s="226" t="s">
+      <c r="BN46" s="212"/>
+      <c r="BO46" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="BP46" s="227"/>
-      <c r="BQ46" s="228"/>
-      <c r="BR46" s="229" t="s">
+      <c r="BP46" s="235"/>
+      <c r="BQ46" s="236"/>
+      <c r="BR46" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="BS46" s="230"/>
-      <c r="BT46" s="230"/>
-      <c r="BU46" s="230"/>
-      <c r="BV46" s="230"/>
-      <c r="BW46" s="231"/>
-      <c r="BX46" s="232" t="s">
+      <c r="BS46" s="206"/>
+      <c r="BT46" s="206"/>
+      <c r="BU46" s="206"/>
+      <c r="BV46" s="206"/>
+      <c r="BW46" s="207"/>
+      <c r="BX46" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="BY46" s="233"/>
-      <c r="BZ46" s="233"/>
-      <c r="CA46" s="233"/>
-      <c r="CB46" s="233"/>
+      <c r="BY46" s="238"/>
+      <c r="BZ46" s="238"/>
+      <c r="CA46" s="238"/>
+      <c r="CB46" s="238"/>
       <c r="CC46" s="131"/>
       <c r="CD46" s="131"/>
       <c r="CE46" s="131"/>
       <c r="CF46" s="132"/>
-      <c r="CH46" s="212" t="s">
+      <c r="CH46" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="CI46" s="213"/>
-      <c r="CJ46" s="226" t="s">
+      <c r="CI46" s="212"/>
+      <c r="CJ46" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="CK46" s="227"/>
-      <c r="CL46" s="228"/>
-      <c r="CM46" s="229" t="s">
+      <c r="CK46" s="235"/>
+      <c r="CL46" s="236"/>
+      <c r="CM46" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="CN46" s="230"/>
-      <c r="CO46" s="230"/>
-      <c r="CP46" s="230"/>
-      <c r="CQ46" s="230"/>
-      <c r="CR46" s="231"/>
-      <c r="CS46" s="232" t="s">
+      <c r="CN46" s="206"/>
+      <c r="CO46" s="206"/>
+      <c r="CP46" s="206"/>
+      <c r="CQ46" s="206"/>
+      <c r="CR46" s="207"/>
+      <c r="CS46" s="237" t="s">
         <v>118</v>
       </c>
-      <c r="CT46" s="233"/>
-      <c r="CU46" s="233"/>
-      <c r="CV46" s="233"/>
-      <c r="CW46" s="233"/>
+      <c r="CT46" s="238"/>
+      <c r="CU46" s="238"/>
+      <c r="CV46" s="238"/>
+      <c r="CW46" s="238"/>
       <c r="CX46" s="131"/>
       <c r="CY46" s="131"/>
       <c r="CZ46" s="131"/>
       <c r="DA46" s="132"/>
     </row>
     <row r="47" spans="1:168" ht="13.5" customHeight="1">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="213"/>
-      <c r="C47" s="214">
+      <c r="B47" s="212"/>
+      <c r="C47" s="249">
         <v>10</v>
       </c>
-      <c r="D47" s="215"/>
+      <c r="D47" s="250"/>
       <c r="E47" s="140"/>
-      <c r="F47" s="229" t="s">
+      <c r="F47" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="230"/>
-      <c r="H47" s="230"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
-      <c r="K47" s="231"/>
-      <c r="L47" s="234">
+      <c r="G47" s="206"/>
+      <c r="H47" s="206"/>
+      <c r="I47" s="206"/>
+      <c r="J47" s="206"/>
+      <c r="K47" s="207"/>
+      <c r="L47" s="208">
         <v>2</v>
       </c>
-      <c r="M47" s="235"/>
-      <c r="N47" s="235"/>
-      <c r="O47" s="235"/>
-      <c r="P47" s="235"/>
-      <c r="Q47" s="235"/>
-      <c r="R47" s="235"/>
-      <c r="S47" s="235"/>
-      <c r="T47" s="236"/>
-      <c r="W47" s="212" t="s">
+      <c r="M47" s="209"/>
+      <c r="N47" s="209"/>
+      <c r="O47" s="209"/>
+      <c r="P47" s="209"/>
+      <c r="Q47" s="209"/>
+      <c r="R47" s="209"/>
+      <c r="S47" s="209"/>
+      <c r="T47" s="210"/>
+      <c r="W47" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="X47" s="213"/>
-      <c r="Y47" s="214">
+      <c r="X47" s="212"/>
+      <c r="Y47" s="249">
         <v>10</v>
       </c>
-      <c r="Z47" s="215"/>
+      <c r="Z47" s="250"/>
       <c r="AA47" s="140"/>
-      <c r="AB47" s="229" t="s">
+      <c r="AB47" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AC47" s="230"/>
-      <c r="AD47" s="230"/>
-      <c r="AE47" s="230"/>
-      <c r="AF47" s="230"/>
-      <c r="AG47" s="231"/>
-      <c r="AH47" s="234">
+      <c r="AC47" s="206"/>
+      <c r="AD47" s="206"/>
+      <c r="AE47" s="206"/>
+      <c r="AF47" s="206"/>
+      <c r="AG47" s="207"/>
+      <c r="AH47" s="208">
         <v>2</v>
       </c>
-      <c r="AI47" s="235"/>
-      <c r="AJ47" s="235"/>
-      <c r="AK47" s="235"/>
-      <c r="AL47" s="235"/>
-      <c r="AM47" s="235"/>
-      <c r="AN47" s="235"/>
-      <c r="AO47" s="235"/>
-      <c r="AP47" s="236"/>
-      <c r="AR47" s="212" t="s">
+      <c r="AI47" s="209"/>
+      <c r="AJ47" s="209"/>
+      <c r="AK47" s="209"/>
+      <c r="AL47" s="209"/>
+      <c r="AM47" s="209"/>
+      <c r="AN47" s="209"/>
+      <c r="AO47" s="209"/>
+      <c r="AP47" s="210"/>
+      <c r="AR47" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="AS47" s="213"/>
-      <c r="AT47" s="214">
+      <c r="AS47" s="212"/>
+      <c r="AT47" s="249">
         <v>25</v>
       </c>
-      <c r="AU47" s="215"/>
+      <c r="AU47" s="250"/>
       <c r="AV47" s="140"/>
-      <c r="AW47" s="229" t="s">
+      <c r="AW47" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AX47" s="230"/>
-      <c r="AY47" s="230"/>
-      <c r="AZ47" s="230"/>
-      <c r="BA47" s="230"/>
-      <c r="BB47" s="231"/>
-      <c r="BC47" s="234">
+      <c r="AX47" s="206"/>
+      <c r="AY47" s="206"/>
+      <c r="AZ47" s="206"/>
+      <c r="BA47" s="206"/>
+      <c r="BB47" s="207"/>
+      <c r="BC47" s="208">
         <v>2</v>
       </c>
-      <c r="BD47" s="235"/>
-      <c r="BE47" s="235"/>
-      <c r="BF47" s="235"/>
-      <c r="BG47" s="235"/>
-      <c r="BH47" s="235"/>
-      <c r="BI47" s="235"/>
-      <c r="BJ47" s="235"/>
-      <c r="BK47" s="236"/>
-      <c r="BM47" s="212" t="s">
+      <c r="BD47" s="209"/>
+      <c r="BE47" s="209"/>
+      <c r="BF47" s="209"/>
+      <c r="BG47" s="209"/>
+      <c r="BH47" s="209"/>
+      <c r="BI47" s="209"/>
+      <c r="BJ47" s="209"/>
+      <c r="BK47" s="210"/>
+      <c r="BM47" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="BN47" s="213"/>
-      <c r="BO47" s="214">
+      <c r="BN47" s="212"/>
+      <c r="BO47" s="249">
         <v>20</v>
       </c>
-      <c r="BP47" s="215"/>
+      <c r="BP47" s="250"/>
       <c r="BQ47" s="140"/>
-      <c r="BR47" s="229" t="s">
+      <c r="BR47" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="BS47" s="230"/>
-      <c r="BT47" s="230"/>
-      <c r="BU47" s="230"/>
-      <c r="BV47" s="230"/>
-      <c r="BW47" s="231"/>
-      <c r="BX47" s="234">
+      <c r="BS47" s="206"/>
+      <c r="BT47" s="206"/>
+      <c r="BU47" s="206"/>
+      <c r="BV47" s="206"/>
+      <c r="BW47" s="207"/>
+      <c r="BX47" s="208">
         <v>2</v>
       </c>
-      <c r="BY47" s="235"/>
-      <c r="BZ47" s="235"/>
-      <c r="CA47" s="235"/>
-      <c r="CB47" s="235"/>
-      <c r="CC47" s="235"/>
-      <c r="CD47" s="235"/>
-      <c r="CE47" s="235"/>
-      <c r="CF47" s="236"/>
-      <c r="CH47" s="212" t="s">
+      <c r="BY47" s="209"/>
+      <c r="BZ47" s="209"/>
+      <c r="CA47" s="209"/>
+      <c r="CB47" s="209"/>
+      <c r="CC47" s="209"/>
+      <c r="CD47" s="209"/>
+      <c r="CE47" s="209"/>
+      <c r="CF47" s="210"/>
+      <c r="CH47" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="CI47" s="213"/>
-      <c r="CJ47" s="214">
+      <c r="CI47" s="212"/>
+      <c r="CJ47" s="249">
         <v>90</v>
       </c>
-      <c r="CK47" s="215"/>
+      <c r="CK47" s="250"/>
       <c r="CL47" s="140"/>
-      <c r="CM47" s="229" t="s">
+      <c r="CM47" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="CN47" s="230"/>
-      <c r="CO47" s="230"/>
-      <c r="CP47" s="230"/>
-      <c r="CQ47" s="230"/>
-      <c r="CR47" s="231"/>
-      <c r="CS47" s="234">
+      <c r="CN47" s="206"/>
+      <c r="CO47" s="206"/>
+      <c r="CP47" s="206"/>
+      <c r="CQ47" s="206"/>
+      <c r="CR47" s="207"/>
+      <c r="CS47" s="208">
         <v>9</v>
       </c>
-      <c r="CT47" s="235"/>
-      <c r="CU47" s="235"/>
-      <c r="CV47" s="235"/>
-      <c r="CW47" s="235"/>
-      <c r="CX47" s="235"/>
-      <c r="CY47" s="235"/>
-      <c r="CZ47" s="235"/>
-      <c r="DA47" s="236"/>
+      <c r="CT47" s="209"/>
+      <c r="CU47" s="209"/>
+      <c r="CV47" s="209"/>
+      <c r="CW47" s="209"/>
+      <c r="CX47" s="209"/>
+      <c r="CY47" s="209"/>
+      <c r="CZ47" s="209"/>
+      <c r="DA47" s="210"/>
     </row>
     <row r="48" spans="1:168" ht="13.5" customHeight="1">
-      <c r="A48" s="212" t="s">
+      <c r="A48" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="213"/>
-      <c r="C48" s="237" t="s">
+      <c r="B48" s="212"/>
+      <c r="C48" s="213" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="237"/>
-      <c r="E48" s="237"/>
-      <c r="F48" s="238"/>
-      <c r="G48" s="238"/>
-      <c r="H48" s="238"/>
-      <c r="I48" s="238"/>
-      <c r="J48" s="238"/>
-      <c r="K48" s="238"/>
-      <c r="L48" s="237"/>
-      <c r="M48" s="237"/>
-      <c r="N48" s="237"/>
-      <c r="O48" s="237"/>
-      <c r="P48" s="237"/>
-      <c r="Q48" s="237"/>
-      <c r="R48" s="237"/>
-      <c r="S48" s="237"/>
-      <c r="T48" s="237"/>
-      <c r="W48" s="212" t="s">
+      <c r="D48" s="213"/>
+      <c r="E48" s="213"/>
+      <c r="F48" s="214"/>
+      <c r="G48" s="214"/>
+      <c r="H48" s="214"/>
+      <c r="I48" s="214"/>
+      <c r="J48" s="214"/>
+      <c r="K48" s="214"/>
+      <c r="L48" s="213"/>
+      <c r="M48" s="213"/>
+      <c r="N48" s="213"/>
+      <c r="O48" s="213"/>
+      <c r="P48" s="213"/>
+      <c r="Q48" s="213"/>
+      <c r="R48" s="213"/>
+      <c r="S48" s="213"/>
+      <c r="T48" s="213"/>
+      <c r="W48" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="X48" s="213"/>
-      <c r="Y48" s="237" t="s">
+      <c r="X48" s="212"/>
+      <c r="Y48" s="213" t="s">
         <v>185</v>
       </c>
-      <c r="Z48" s="237"/>
-      <c r="AA48" s="237"/>
-      <c r="AB48" s="238"/>
-      <c r="AC48" s="238"/>
-      <c r="AD48" s="238"/>
-      <c r="AE48" s="238"/>
-      <c r="AF48" s="238"/>
-      <c r="AG48" s="238"/>
-      <c r="AH48" s="237"/>
-      <c r="AI48" s="237"/>
-      <c r="AJ48" s="237"/>
-      <c r="AK48" s="237"/>
-      <c r="AL48" s="237"/>
-      <c r="AM48" s="237"/>
-      <c r="AN48" s="237"/>
-      <c r="AO48" s="237"/>
-      <c r="AP48" s="237"/>
-      <c r="AR48" s="212" t="s">
+      <c r="Z48" s="213"/>
+      <c r="AA48" s="213"/>
+      <c r="AB48" s="214"/>
+      <c r="AC48" s="214"/>
+      <c r="AD48" s="214"/>
+      <c r="AE48" s="214"/>
+      <c r="AF48" s="214"/>
+      <c r="AG48" s="214"/>
+      <c r="AH48" s="213"/>
+      <c r="AI48" s="213"/>
+      <c r="AJ48" s="213"/>
+      <c r="AK48" s="213"/>
+      <c r="AL48" s="213"/>
+      <c r="AM48" s="213"/>
+      <c r="AN48" s="213"/>
+      <c r="AO48" s="213"/>
+      <c r="AP48" s="213"/>
+      <c r="AR48" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="AS48" s="213"/>
-      <c r="AT48" s="237" t="s">
+      <c r="AS48" s="212"/>
+      <c r="AT48" s="213" t="s">
         <v>190</v>
       </c>
-      <c r="AU48" s="237"/>
-      <c r="AV48" s="237"/>
-      <c r="AW48" s="238"/>
-      <c r="AX48" s="238"/>
-      <c r="AY48" s="238"/>
-      <c r="AZ48" s="238"/>
-      <c r="BA48" s="238"/>
-      <c r="BB48" s="238"/>
-      <c r="BC48" s="237"/>
-      <c r="BD48" s="237"/>
-      <c r="BE48" s="237"/>
-      <c r="BF48" s="237"/>
-      <c r="BG48" s="237"/>
-      <c r="BH48" s="237"/>
-      <c r="BI48" s="237"/>
-      <c r="BJ48" s="237"/>
-      <c r="BK48" s="237"/>
-      <c r="BM48" s="212" t="s">
+      <c r="AU48" s="213"/>
+      <c r="AV48" s="213"/>
+      <c r="AW48" s="214"/>
+      <c r="AX48" s="214"/>
+      <c r="AY48" s="214"/>
+      <c r="AZ48" s="214"/>
+      <c r="BA48" s="214"/>
+      <c r="BB48" s="214"/>
+      <c r="BC48" s="213"/>
+      <c r="BD48" s="213"/>
+      <c r="BE48" s="213"/>
+      <c r="BF48" s="213"/>
+      <c r="BG48" s="213"/>
+      <c r="BH48" s="213"/>
+      <c r="BI48" s="213"/>
+      <c r="BJ48" s="213"/>
+      <c r="BK48" s="213"/>
+      <c r="BM48" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="BN48" s="213"/>
-      <c r="BO48" s="237" t="s">
+      <c r="BN48" s="212"/>
+      <c r="BO48" s="213" t="s">
         <v>192</v>
       </c>
-      <c r="BP48" s="237"/>
-      <c r="BQ48" s="237"/>
-      <c r="BR48" s="238"/>
-      <c r="BS48" s="238"/>
-      <c r="BT48" s="238"/>
-      <c r="BU48" s="238"/>
-      <c r="BV48" s="238"/>
-      <c r="BW48" s="238"/>
-      <c r="BX48" s="237"/>
-      <c r="BY48" s="237"/>
-      <c r="BZ48" s="237"/>
-      <c r="CA48" s="237"/>
-      <c r="CB48" s="237"/>
-      <c r="CC48" s="237"/>
-      <c r="CD48" s="237"/>
-      <c r="CE48" s="237"/>
-      <c r="CF48" s="237"/>
-      <c r="CH48" s="212" t="s">
+      <c r="BP48" s="213"/>
+      <c r="BQ48" s="213"/>
+      <c r="BR48" s="214"/>
+      <c r="BS48" s="214"/>
+      <c r="BT48" s="214"/>
+      <c r="BU48" s="214"/>
+      <c r="BV48" s="214"/>
+      <c r="BW48" s="214"/>
+      <c r="BX48" s="213"/>
+      <c r="BY48" s="213"/>
+      <c r="BZ48" s="213"/>
+      <c r="CA48" s="213"/>
+      <c r="CB48" s="213"/>
+      <c r="CC48" s="213"/>
+      <c r="CD48" s="213"/>
+      <c r="CE48" s="213"/>
+      <c r="CF48" s="213"/>
+      <c r="CH48" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="CI48" s="213"/>
-      <c r="CJ48" s="237" t="s">
+      <c r="CI48" s="212"/>
+      <c r="CJ48" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="CK48" s="237"/>
-      <c r="CL48" s="237"/>
-      <c r="CM48" s="238"/>
-      <c r="CN48" s="238"/>
-      <c r="CO48" s="238"/>
-      <c r="CP48" s="238"/>
-      <c r="CQ48" s="238"/>
-      <c r="CR48" s="238"/>
-      <c r="CS48" s="237"/>
-      <c r="CT48" s="237"/>
-      <c r="CU48" s="237"/>
-      <c r="CV48" s="237"/>
-      <c r="CW48" s="237"/>
-      <c r="CX48" s="237"/>
-      <c r="CY48" s="237"/>
-      <c r="CZ48" s="237"/>
-      <c r="DA48" s="237"/>
-    </row>
-    <row r="49" spans="1:105" ht="13.5" customHeight="1">
-      <c r="A49" s="239" t="s">
+      <c r="CK48" s="213"/>
+      <c r="CL48" s="213"/>
+      <c r="CM48" s="214"/>
+      <c r="CN48" s="214"/>
+      <c r="CO48" s="214"/>
+      <c r="CP48" s="214"/>
+      <c r="CQ48" s="214"/>
+      <c r="CR48" s="214"/>
+      <c r="CS48" s="213"/>
+      <c r="CT48" s="213"/>
+      <c r="CU48" s="213"/>
+      <c r="CV48" s="213"/>
+      <c r="CW48" s="213"/>
+      <c r="CX48" s="213"/>
+      <c r="CY48" s="213"/>
+      <c r="CZ48" s="213"/>
+      <c r="DA48" s="213"/>
+    </row>
+    <row r="49" spans="1:126" ht="13.5" customHeight="1">
+      <c r="A49" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="240"/>
-      <c r="C49" s="241" t="s">
+      <c r="B49" s="248"/>
+      <c r="C49" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="242"/>
-      <c r="E49" s="243"/>
-      <c r="F49" s="241" t="s">
+      <c r="D49" s="240"/>
+      <c r="E49" s="241"/>
+      <c r="F49" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="242"/>
-      <c r="H49" s="242"/>
-      <c r="I49" s="242"/>
-      <c r="J49" s="242"/>
-      <c r="K49" s="244"/>
-      <c r="L49" s="242" t="s">
+      <c r="G49" s="240"/>
+      <c r="H49" s="240"/>
+      <c r="I49" s="240"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="242"/>
+      <c r="L49" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="M49" s="242"/>
-      <c r="N49" s="242"/>
-      <c r="O49" s="245" t="s">
+      <c r="M49" s="240"/>
+      <c r="N49" s="240"/>
+      <c r="O49" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="P49" s="242"/>
-      <c r="Q49" s="242"/>
-      <c r="R49" s="242"/>
-      <c r="S49" s="242"/>
-      <c r="T49" s="246"/>
-      <c r="W49" s="239" t="s">
+      <c r="P49" s="240"/>
+      <c r="Q49" s="240"/>
+      <c r="R49" s="240"/>
+      <c r="S49" s="240"/>
+      <c r="T49" s="244"/>
+      <c r="W49" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="X49" s="240"/>
-      <c r="Y49" s="241" t="s">
+      <c r="X49" s="248"/>
+      <c r="Y49" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="Z49" s="242"/>
-      <c r="AA49" s="243"/>
-      <c r="AB49" s="241" t="s">
+      <c r="Z49" s="240"/>
+      <c r="AA49" s="241"/>
+      <c r="AB49" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="AC49" s="242"/>
-      <c r="AD49" s="242"/>
-      <c r="AE49" s="242"/>
-      <c r="AF49" s="242"/>
-      <c r="AG49" s="244"/>
-      <c r="AH49" s="242" t="s">
+      <c r="AC49" s="240"/>
+      <c r="AD49" s="240"/>
+      <c r="AE49" s="240"/>
+      <c r="AF49" s="240"/>
+      <c r="AG49" s="242"/>
+      <c r="AH49" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="AI49" s="242"/>
-      <c r="AJ49" s="242"/>
-      <c r="AK49" s="245" t="s">
+      <c r="AI49" s="240"/>
+      <c r="AJ49" s="240"/>
+      <c r="AK49" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="AL49" s="242"/>
-      <c r="AM49" s="242"/>
-      <c r="AN49" s="242"/>
-      <c r="AO49" s="242"/>
-      <c r="AP49" s="246"/>
-      <c r="AR49" s="239" t="s">
+      <c r="AL49" s="240"/>
+      <c r="AM49" s="240"/>
+      <c r="AN49" s="240"/>
+      <c r="AO49" s="240"/>
+      <c r="AP49" s="244"/>
+      <c r="AR49" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="AS49" s="240"/>
-      <c r="AT49" s="241" t="s">
+      <c r="AS49" s="248"/>
+      <c r="AT49" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="AU49" s="242"/>
-      <c r="AV49" s="243"/>
-      <c r="AW49" s="241" t="s">
+      <c r="AU49" s="240"/>
+      <c r="AV49" s="241"/>
+      <c r="AW49" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="AX49" s="242"/>
-      <c r="AY49" s="242"/>
-      <c r="AZ49" s="242"/>
-      <c r="BA49" s="242"/>
-      <c r="BB49" s="244"/>
-      <c r="BC49" s="242" t="s">
+      <c r="AX49" s="240"/>
+      <c r="AY49" s="240"/>
+      <c r="AZ49" s="240"/>
+      <c r="BA49" s="240"/>
+      <c r="BB49" s="242"/>
+      <c r="BC49" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="BD49" s="242"/>
-      <c r="BE49" s="242"/>
-      <c r="BF49" s="245" t="s">
+      <c r="BD49" s="240"/>
+      <c r="BE49" s="240"/>
+      <c r="BF49" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="BG49" s="242"/>
-      <c r="BH49" s="242"/>
-      <c r="BI49" s="242"/>
-      <c r="BJ49" s="242"/>
-      <c r="BK49" s="246"/>
-      <c r="BM49" s="239" t="s">
+      <c r="BG49" s="240"/>
+      <c r="BH49" s="240"/>
+      <c r="BI49" s="240"/>
+      <c r="BJ49" s="240"/>
+      <c r="BK49" s="244"/>
+      <c r="BM49" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="BN49" s="240"/>
-      <c r="BO49" s="241" t="s">
+      <c r="BN49" s="248"/>
+      <c r="BO49" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="BP49" s="242"/>
-      <c r="BQ49" s="243"/>
-      <c r="BR49" s="241" t="s">
+      <c r="BP49" s="240"/>
+      <c r="BQ49" s="241"/>
+      <c r="BR49" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="BS49" s="242"/>
-      <c r="BT49" s="242"/>
-      <c r="BU49" s="242"/>
-      <c r="BV49" s="242"/>
-      <c r="BW49" s="244"/>
-      <c r="BX49" s="242" t="s">
+      <c r="BS49" s="240"/>
+      <c r="BT49" s="240"/>
+      <c r="BU49" s="240"/>
+      <c r="BV49" s="240"/>
+      <c r="BW49" s="242"/>
+      <c r="BX49" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="BY49" s="242"/>
-      <c r="BZ49" s="242"/>
-      <c r="CA49" s="245" t="s">
+      <c r="BY49" s="240"/>
+      <c r="BZ49" s="240"/>
+      <c r="CA49" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="CB49" s="242"/>
-      <c r="CC49" s="242"/>
-      <c r="CD49" s="242"/>
-      <c r="CE49" s="242"/>
-      <c r="CF49" s="246"/>
-      <c r="CH49" s="239" t="s">
+      <c r="CB49" s="240"/>
+      <c r="CC49" s="240"/>
+      <c r="CD49" s="240"/>
+      <c r="CE49" s="240"/>
+      <c r="CF49" s="244"/>
+      <c r="CH49" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="CI49" s="240"/>
-      <c r="CJ49" s="241" t="s">
+      <c r="CI49" s="248"/>
+      <c r="CJ49" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="CK49" s="242"/>
-      <c r="CL49" s="243"/>
-      <c r="CM49" s="241" t="s">
+      <c r="CK49" s="240"/>
+      <c r="CL49" s="241"/>
+      <c r="CM49" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="CN49" s="242"/>
-      <c r="CO49" s="242"/>
-      <c r="CP49" s="242"/>
-      <c r="CQ49" s="242"/>
-      <c r="CR49" s="244"/>
-      <c r="CS49" s="242" t="s">
+      <c r="CN49" s="240"/>
+      <c r="CO49" s="240"/>
+      <c r="CP49" s="240"/>
+      <c r="CQ49" s="240"/>
+      <c r="CR49" s="242"/>
+      <c r="CS49" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="CT49" s="242"/>
-      <c r="CU49" s="242"/>
-      <c r="CV49" s="245" t="s">
+      <c r="CT49" s="240"/>
+      <c r="CU49" s="240"/>
+      <c r="CV49" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="CW49" s="242"/>
-      <c r="CX49" s="242"/>
-      <c r="CY49" s="242"/>
-      <c r="CZ49" s="242"/>
-      <c r="DA49" s="246"/>
-    </row>
-    <row r="50" spans="1:105" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A50" s="211">
+      <c r="CW49" s="240"/>
+      <c r="CX49" s="240"/>
+      <c r="CY49" s="240"/>
+      <c r="CZ49" s="240"/>
+      <c r="DA49" s="244"/>
+    </row>
+    <row r="50" spans="1:126" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A50" s="219">
         <v>2</v>
       </c>
-      <c r="B50" s="203"/>
-      <c r="C50" s="201">
+      <c r="B50" s="220"/>
+      <c r="C50" s="221">
         <v>0</v>
       </c>
-      <c r="D50" s="202"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="201">
+      <c r="D50" s="222"/>
+      <c r="E50" s="220"/>
+      <c r="F50" s="221">
         <v>0</v>
       </c>
-      <c r="G50" s="202"/>
-      <c r="H50" s="202"/>
-      <c r="I50" s="202"/>
-      <c r="J50" s="202"/>
-      <c r="K50" s="204"/>
+      <c r="G50" s="222"/>
+      <c r="H50" s="222"/>
+      <c r="I50" s="222"/>
+      <c r="J50" s="222"/>
+      <c r="K50" s="223"/>
       <c r="L50" s="133">
         <v>2</v>
       </c>
@@ -16183,31 +16320,31 @@
       <c r="N50" s="133">
         <v>0</v>
       </c>
-      <c r="O50" s="205">
+      <c r="O50" s="245">
         <v>2</v>
       </c>
-      <c r="P50" s="202"/>
-      <c r="Q50" s="202"/>
-      <c r="R50" s="202"/>
-      <c r="S50" s="202"/>
-      <c r="T50" s="206"/>
-      <c r="W50" s="211">
+      <c r="P50" s="222"/>
+      <c r="Q50" s="222"/>
+      <c r="R50" s="222"/>
+      <c r="S50" s="222"/>
+      <c r="T50" s="246"/>
+      <c r="W50" s="219">
         <v>2</v>
       </c>
-      <c r="X50" s="203"/>
-      <c r="Y50" s="201">
+      <c r="X50" s="220"/>
+      <c r="Y50" s="221">
         <v>0</v>
       </c>
-      <c r="Z50" s="202"/>
-      <c r="AA50" s="203"/>
-      <c r="AB50" s="201">
+      <c r="Z50" s="222"/>
+      <c r="AA50" s="220"/>
+      <c r="AB50" s="221">
         <v>0</v>
       </c>
-      <c r="AC50" s="202"/>
-      <c r="AD50" s="202"/>
-      <c r="AE50" s="202"/>
-      <c r="AF50" s="202"/>
-      <c r="AG50" s="204"/>
+      <c r="AC50" s="222"/>
+      <c r="AD50" s="222"/>
+      <c r="AE50" s="222"/>
+      <c r="AF50" s="222"/>
+      <c r="AG50" s="223"/>
       <c r="AH50" s="133">
         <v>2</v>
       </c>
@@ -16217,31 +16354,31 @@
       <c r="AJ50" s="133">
         <v>0</v>
       </c>
-      <c r="AK50" s="205">
+      <c r="AK50" s="245">
         <v>2</v>
       </c>
-      <c r="AL50" s="202"/>
-      <c r="AM50" s="202"/>
-      <c r="AN50" s="202"/>
-      <c r="AO50" s="202"/>
-      <c r="AP50" s="206"/>
-      <c r="AR50" s="211">
+      <c r="AL50" s="222"/>
+      <c r="AM50" s="222"/>
+      <c r="AN50" s="222"/>
+      <c r="AO50" s="222"/>
+      <c r="AP50" s="246"/>
+      <c r="AR50" s="219">
         <v>2</v>
       </c>
-      <c r="AS50" s="203"/>
-      <c r="AT50" s="201">
+      <c r="AS50" s="220"/>
+      <c r="AT50" s="221">
         <v>0</v>
       </c>
-      <c r="AU50" s="202"/>
-      <c r="AV50" s="203"/>
-      <c r="AW50" s="201">
+      <c r="AU50" s="222"/>
+      <c r="AV50" s="220"/>
+      <c r="AW50" s="221">
         <v>0</v>
       </c>
-      <c r="AX50" s="202"/>
-      <c r="AY50" s="202"/>
-      <c r="AZ50" s="202"/>
-      <c r="BA50" s="202"/>
-      <c r="BB50" s="204"/>
+      <c r="AX50" s="222"/>
+      <c r="AY50" s="222"/>
+      <c r="AZ50" s="222"/>
+      <c r="BA50" s="222"/>
+      <c r="BB50" s="223"/>
       <c r="BC50" s="133">
         <v>2</v>
       </c>
@@ -16251,31 +16388,31 @@
       <c r="BE50" s="133">
         <v>0</v>
       </c>
-      <c r="BF50" s="205">
+      <c r="BF50" s="245">
         <v>2</v>
       </c>
-      <c r="BG50" s="202"/>
-      <c r="BH50" s="202"/>
-      <c r="BI50" s="202"/>
-      <c r="BJ50" s="202"/>
-      <c r="BK50" s="206"/>
-      <c r="BM50" s="211">
+      <c r="BG50" s="222"/>
+      <c r="BH50" s="222"/>
+      <c r="BI50" s="222"/>
+      <c r="BJ50" s="222"/>
+      <c r="BK50" s="246"/>
+      <c r="BM50" s="219">
         <v>2</v>
       </c>
-      <c r="BN50" s="203"/>
-      <c r="BO50" s="201">
+      <c r="BN50" s="220"/>
+      <c r="BO50" s="221">
         <v>0</v>
       </c>
-      <c r="BP50" s="202"/>
-      <c r="BQ50" s="203"/>
-      <c r="BR50" s="201">
+      <c r="BP50" s="222"/>
+      <c r="BQ50" s="220"/>
+      <c r="BR50" s="221">
         <v>0</v>
       </c>
-      <c r="BS50" s="202"/>
-      <c r="BT50" s="202"/>
-      <c r="BU50" s="202"/>
-      <c r="BV50" s="202"/>
-      <c r="BW50" s="204"/>
+      <c r="BS50" s="222"/>
+      <c r="BT50" s="222"/>
+      <c r="BU50" s="222"/>
+      <c r="BV50" s="222"/>
+      <c r="BW50" s="223"/>
       <c r="BX50" s="133">
         <v>2</v>
       </c>
@@ -16285,31 +16422,31 @@
       <c r="BZ50" s="133">
         <v>0</v>
       </c>
-      <c r="CA50" s="205">
+      <c r="CA50" s="245">
         <v>2</v>
       </c>
-      <c r="CB50" s="202"/>
-      <c r="CC50" s="202"/>
-      <c r="CD50" s="202"/>
-      <c r="CE50" s="202"/>
-      <c r="CF50" s="206"/>
-      <c r="CH50" s="211">
+      <c r="CB50" s="222"/>
+      <c r="CC50" s="222"/>
+      <c r="CD50" s="222"/>
+      <c r="CE50" s="222"/>
+      <c r="CF50" s="246"/>
+      <c r="CH50" s="219">
         <v>9</v>
       </c>
-      <c r="CI50" s="203"/>
-      <c r="CJ50" s="201">
+      <c r="CI50" s="220"/>
+      <c r="CJ50" s="221">
         <v>0</v>
       </c>
-      <c r="CK50" s="202"/>
-      <c r="CL50" s="203"/>
-      <c r="CM50" s="201">
+      <c r="CK50" s="222"/>
+      <c r="CL50" s="220"/>
+      <c r="CM50" s="221">
         <v>0</v>
       </c>
-      <c r="CN50" s="202"/>
-      <c r="CO50" s="202"/>
-      <c r="CP50" s="202"/>
-      <c r="CQ50" s="202"/>
-      <c r="CR50" s="204"/>
+      <c r="CN50" s="222"/>
+      <c r="CO50" s="222"/>
+      <c r="CP50" s="222"/>
+      <c r="CQ50" s="222"/>
+      <c r="CR50" s="223"/>
       <c r="CS50" s="133">
         <v>9</v>
       </c>
@@ -16319,16 +16456,16 @@
       <c r="CU50" s="133">
         <v>0</v>
       </c>
-      <c r="CV50" s="205">
+      <c r="CV50" s="245">
         <v>9</v>
       </c>
-      <c r="CW50" s="202"/>
-      <c r="CX50" s="202"/>
-      <c r="CY50" s="202"/>
-      <c r="CZ50" s="202"/>
-      <c r="DA50" s="206"/>
-    </row>
-    <row r="51" spans="1:105" ht="13.5" customHeight="1" thickBot="1">
+      <c r="CW50" s="222"/>
+      <c r="CX50" s="222"/>
+      <c r="CY50" s="222"/>
+      <c r="CZ50" s="222"/>
+      <c r="DA50" s="246"/>
+    </row>
+    <row r="51" spans="1:126" ht="13.5" customHeight="1" thickBot="1">
       <c r="X51" s="75"/>
       <c r="Z51" s="72"/>
       <c r="AS51" s="75"/>
@@ -16338,7 +16475,7 @@
       <c r="CI51" s="75"/>
       <c r="CK51" s="72"/>
     </row>
-    <row r="52" spans="1:105" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="52" spans="1:126" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A52" s="167"/>
       <c r="B52" s="168"/>
       <c r="C52" s="169"/>
@@ -16463,8 +16600,38 @@
       <c r="CY52" s="171"/>
       <c r="CZ52" s="171"/>
       <c r="DA52" s="172"/>
-    </row>
-    <row r="53" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC52" s="167"/>
+      <c r="DD52" s="168"/>
+      <c r="DE52" s="169"/>
+      <c r="DF52" s="170"/>
+      <c r="DG52" s="169"/>
+      <c r="DH52" s="171" t="s">
+        <v>41</v>
+      </c>
+      <c r="DI52" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="DJ52" s="171" t="s">
+        <v>43</v>
+      </c>
+      <c r="DK52" s="171" t="s">
+        <v>44</v>
+      </c>
+      <c r="DL52" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="DM52" s="171"/>
+      <c r="DN52" s="171"/>
+      <c r="DO52" s="171"/>
+      <c r="DP52" s="171"/>
+      <c r="DQ52" s="171"/>
+      <c r="DR52" s="171"/>
+      <c r="DS52" s="171"/>
+      <c r="DT52" s="171"/>
+      <c r="DU52" s="171"/>
+      <c r="DV52" s="172"/>
+    </row>
+    <row r="53" spans="1:126" ht="13.5" customHeight="1">
       <c r="A53" s="162" t="s">
         <v>68</v>
       </c>
@@ -16585,8 +16752,32 @@
       <c r="CY53" s="128"/>
       <c r="CZ53" s="128"/>
       <c r="DA53" s="152"/>
-    </row>
-    <row r="54" spans="1:105" ht="15" customHeight="1">
+      <c r="DC53" s="162" t="s">
+        <v>68</v>
+      </c>
+      <c r="DD53" s="163" t="s">
+        <v>69</v>
+      </c>
+      <c r="DE53" s="164"/>
+      <c r="DF53" s="165"/>
+      <c r="DG53" s="80"/>
+      <c r="DH53" s="128"/>
+      <c r="DI53" s="128"/>
+      <c r="DJ53" s="128"/>
+      <c r="DK53" s="128"/>
+      <c r="DL53" s="128"/>
+      <c r="DM53" s="128"/>
+      <c r="DN53" s="128"/>
+      <c r="DO53" s="128"/>
+      <c r="DP53" s="128"/>
+      <c r="DQ53" s="128"/>
+      <c r="DR53" s="128"/>
+      <c r="DS53" s="128"/>
+      <c r="DT53" s="128"/>
+      <c r="DU53" s="128"/>
+      <c r="DV53" s="152"/>
+    </row>
+    <row r="54" spans="1:126" ht="15" customHeight="1">
       <c r="A54" s="150"/>
       <c r="B54" s="77"/>
       <c r="C54" s="78"/>
@@ -16697,8 +16888,30 @@
       <c r="CY54" s="125"/>
       <c r="CZ54" s="125"/>
       <c r="DA54" s="149"/>
-    </row>
-    <row r="55" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC54" s="150"/>
+      <c r="DD54" s="77"/>
+      <c r="DE54" s="78"/>
+      <c r="DF54" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="DG54" s="80"/>
+      <c r="DH54" s="125"/>
+      <c r="DI54" s="125"/>
+      <c r="DJ54" s="125"/>
+      <c r="DK54" s="125"/>
+      <c r="DL54" s="125"/>
+      <c r="DM54" s="125"/>
+      <c r="DN54" s="125"/>
+      <c r="DO54" s="125"/>
+      <c r="DP54" s="125"/>
+      <c r="DQ54" s="125"/>
+      <c r="DR54" s="125"/>
+      <c r="DS54" s="125"/>
+      <c r="DT54" s="125"/>
+      <c r="DU54" s="125"/>
+      <c r="DV54" s="149"/>
+    </row>
+    <row r="55" spans="1:126" ht="13.5" customHeight="1">
       <c r="A55" s="150"/>
       <c r="B55" s="77"/>
       <c r="C55" s="78"/>
@@ -16801,8 +17014,30 @@
       <c r="CY55" s="125"/>
       <c r="CZ55" s="125"/>
       <c r="DA55" s="149"/>
-    </row>
-    <row r="56" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC55" s="150"/>
+      <c r="DD55" s="77"/>
+      <c r="DE55" s="78"/>
+      <c r="DF55" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="DG55" s="80"/>
+      <c r="DH55" s="125"/>
+      <c r="DI55" s="125"/>
+      <c r="DJ55" s="125"/>
+      <c r="DK55" s="125"/>
+      <c r="DL55" s="125"/>
+      <c r="DM55" s="125"/>
+      <c r="DN55" s="125"/>
+      <c r="DO55" s="125"/>
+      <c r="DP55" s="125"/>
+      <c r="DQ55" s="125"/>
+      <c r="DR55" s="125"/>
+      <c r="DS55" s="125"/>
+      <c r="DT55" s="125"/>
+      <c r="DU55" s="125"/>
+      <c r="DV55" s="149"/>
+    </row>
+    <row r="56" spans="1:126" ht="13.5" customHeight="1">
       <c r="A56" s="150"/>
       <c r="B56" s="77"/>
       <c r="C56" s="78"/>
@@ -16905,8 +17140,30 @@
       <c r="CY56" s="125"/>
       <c r="CZ56" s="125"/>
       <c r="DA56" s="149"/>
-    </row>
-    <row r="57" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC56" s="150"/>
+      <c r="DD56" s="77"/>
+      <c r="DE56" s="78"/>
+      <c r="DF56" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="DG56" s="81"/>
+      <c r="DH56" s="125"/>
+      <c r="DI56" s="125"/>
+      <c r="DJ56" s="125"/>
+      <c r="DK56" s="125"/>
+      <c r="DL56" s="125"/>
+      <c r="DM56" s="125"/>
+      <c r="DN56" s="125"/>
+      <c r="DO56" s="125"/>
+      <c r="DP56" s="125"/>
+      <c r="DQ56" s="125"/>
+      <c r="DR56" s="125"/>
+      <c r="DS56" s="125"/>
+      <c r="DT56" s="125"/>
+      <c r="DU56" s="125"/>
+      <c r="DV56" s="149"/>
+    </row>
+    <row r="57" spans="1:126" ht="13.5" customHeight="1">
       <c r="A57" s="150"/>
       <c r="B57" s="77" t="s">
         <v>181</v>
@@ -17017,8 +17274,30 @@
       <c r="CY57" s="125"/>
       <c r="CZ57" s="125"/>
       <c r="DA57" s="149"/>
-    </row>
-    <row r="58" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC57" s="150"/>
+      <c r="DD57" s="77"/>
+      <c r="DE57" s="78"/>
+      <c r="DF57" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="DG57" s="82"/>
+      <c r="DH57" s="125"/>
+      <c r="DI57" s="125"/>
+      <c r="DJ57" s="125"/>
+      <c r="DK57" s="125"/>
+      <c r="DL57" s="125"/>
+      <c r="DM57" s="125"/>
+      <c r="DN57" s="125"/>
+      <c r="DO57" s="125"/>
+      <c r="DP57" s="125"/>
+      <c r="DQ57" s="125"/>
+      <c r="DR57" s="125"/>
+      <c r="DS57" s="125"/>
+      <c r="DT57" s="125"/>
+      <c r="DU57" s="125"/>
+      <c r="DV57" s="149"/>
+    </row>
+    <row r="58" spans="1:126" ht="13.5" customHeight="1">
       <c r="A58" s="150"/>
       <c r="B58" s="77"/>
       <c r="C58" s="78"/>
@@ -17135,8 +17414,28 @@
       <c r="CY58" s="125"/>
       <c r="CZ58" s="125"/>
       <c r="DA58" s="149"/>
-    </row>
-    <row r="59" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC58" s="150"/>
+      <c r="DD58" s="77"/>
+      <c r="DE58" s="78"/>
+      <c r="DF58" s="79"/>
+      <c r="DG58" s="82"/>
+      <c r="DH58" s="125"/>
+      <c r="DI58" s="125"/>
+      <c r="DJ58" s="125"/>
+      <c r="DK58" s="125"/>
+      <c r="DL58" s="125"/>
+      <c r="DM58" s="125"/>
+      <c r="DN58" s="125"/>
+      <c r="DO58" s="125"/>
+      <c r="DP58" s="125"/>
+      <c r="DQ58" s="125"/>
+      <c r="DR58" s="125"/>
+      <c r="DS58" s="125"/>
+      <c r="DT58" s="125"/>
+      <c r="DU58" s="125"/>
+      <c r="DV58" s="149"/>
+    </row>
+    <row r="59" spans="1:126" ht="13.5" customHeight="1">
       <c r="A59" s="150"/>
       <c r="B59" s="77"/>
       <c r="C59" s="78"/>
@@ -17251,8 +17550,30 @@
       <c r="CY59" s="125"/>
       <c r="CZ59" s="125"/>
       <c r="DA59" s="149"/>
-    </row>
-    <row r="60" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC59" s="150"/>
+      <c r="DD59" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="DE59" s="78"/>
+      <c r="DF59" s="79"/>
+      <c r="DG59" s="82"/>
+      <c r="DH59" s="125"/>
+      <c r="DI59" s="125"/>
+      <c r="DJ59" s="125"/>
+      <c r="DK59" s="125"/>
+      <c r="DL59" s="125"/>
+      <c r="DM59" s="125"/>
+      <c r="DN59" s="125"/>
+      <c r="DO59" s="125"/>
+      <c r="DP59" s="125"/>
+      <c r="DQ59" s="125"/>
+      <c r="DR59" s="125"/>
+      <c r="DS59" s="125"/>
+      <c r="DT59" s="125"/>
+      <c r="DU59" s="125"/>
+      <c r="DV59" s="149"/>
+    </row>
+    <row r="60" spans="1:126" ht="13.5" customHeight="1">
       <c r="A60" s="150"/>
       <c r="B60" s="77"/>
       <c r="C60" s="78"/>
@@ -17359,8 +17680,32 @@
       <c r="CY60" s="125"/>
       <c r="CZ60" s="125"/>
       <c r="DA60" s="149"/>
-    </row>
-    <row r="61" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC60" s="150"/>
+      <c r="DD60" s="77"/>
+      <c r="DE60" s="78"/>
+      <c r="DF60" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="DG60" s="82"/>
+      <c r="DH60" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DI60" s="125"/>
+      <c r="DJ60" s="125"/>
+      <c r="DK60" s="125"/>
+      <c r="DL60" s="125"/>
+      <c r="DM60" s="125"/>
+      <c r="DN60" s="125"/>
+      <c r="DO60" s="125"/>
+      <c r="DP60" s="125"/>
+      <c r="DQ60" s="125"/>
+      <c r="DR60" s="125"/>
+      <c r="DS60" s="125"/>
+      <c r="DT60" s="125"/>
+      <c r="DU60" s="125"/>
+      <c r="DV60" s="149"/>
+    </row>
+    <row r="61" spans="1:126" ht="13.5" customHeight="1">
       <c r="A61" s="150"/>
       <c r="B61" s="77" t="s">
         <v>188</v>
@@ -17471,13 +17816,35 @@
       <c r="CY61" s="125"/>
       <c r="CZ61" s="125"/>
       <c r="DA61" s="149"/>
-    </row>
-    <row r="62" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC61" s="150"/>
+      <c r="DD61" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="DE61" s="78"/>
+      <c r="DF61" s="175"/>
+      <c r="DG61" s="82"/>
+      <c r="DH61" s="125"/>
+      <c r="DI61" s="125"/>
+      <c r="DJ61" s="125"/>
+      <c r="DK61" s="125"/>
+      <c r="DL61" s="125"/>
+      <c r="DM61" s="125"/>
+      <c r="DN61" s="125"/>
+      <c r="DO61" s="125"/>
+      <c r="DP61" s="125"/>
+      <c r="DQ61" s="125"/>
+      <c r="DR61" s="125"/>
+      <c r="DS61" s="125"/>
+      <c r="DT61" s="125"/>
+      <c r="DU61" s="125"/>
+      <c r="DV61" s="149"/>
+    </row>
+    <row r="62" spans="1:126" ht="13.5" customHeight="1">
       <c r="A62" s="150"/>
       <c r="B62" s="77"/>
       <c r="C62" s="78"/>
-      <c r="D62" s="247"/>
-      <c r="E62" s="247"/>
+      <c r="D62" s="251"/>
+      <c r="E62" s="251"/>
       <c r="F62" s="125" t="s">
         <v>91</v>
       </c>
@@ -17500,8 +17867,8 @@
       <c r="W62" s="150"/>
       <c r="X62" s="77"/>
       <c r="Y62" s="78"/>
-      <c r="Z62" s="247"/>
-      <c r="AA62" s="247"/>
+      <c r="Z62" s="251"/>
+      <c r="AA62" s="251"/>
       <c r="AB62" s="125" t="s">
         <v>91</v>
       </c>
@@ -17524,8 +17891,8 @@
       <c r="AR62" s="150"/>
       <c r="AS62" s="77"/>
       <c r="AT62" s="78"/>
-      <c r="AU62" s="247"/>
-      <c r="AV62" s="247"/>
+      <c r="AU62" s="251"/>
+      <c r="AV62" s="251"/>
       <c r="AW62" s="125"/>
       <c r="AX62" s="125"/>
       <c r="AY62" s="125"/>
@@ -17544,8 +17911,8 @@
       <c r="BM62" s="150"/>
       <c r="BN62" s="77"/>
       <c r="BO62" s="78"/>
-      <c r="BP62" s="247"/>
-      <c r="BQ62" s="247"/>
+      <c r="BP62" s="251"/>
+      <c r="BQ62" s="251"/>
       <c r="BR62" s="125"/>
       <c r="BS62" s="125"/>
       <c r="BT62" s="125"/>
@@ -17585,8 +17952,32 @@
       <c r="CY62" s="125"/>
       <c r="CZ62" s="125"/>
       <c r="DA62" s="149"/>
-    </row>
-    <row r="63" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC62" s="150"/>
+      <c r="DD62" s="77"/>
+      <c r="DE62" s="78"/>
+      <c r="DF62" s="176" t="s">
+        <v>227</v>
+      </c>
+      <c r="DG62" s="97"/>
+      <c r="DH62" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DI62" s="125"/>
+      <c r="DJ62" s="125"/>
+      <c r="DK62" s="125"/>
+      <c r="DL62" s="125"/>
+      <c r="DM62" s="125"/>
+      <c r="DN62" s="125"/>
+      <c r="DO62" s="125"/>
+      <c r="DP62" s="125"/>
+      <c r="DQ62" s="125"/>
+      <c r="DR62" s="125"/>
+      <c r="DS62" s="125"/>
+      <c r="DT62" s="125"/>
+      <c r="DU62" s="125"/>
+      <c r="DV62" s="149"/>
+    </row>
+    <row r="63" spans="1:126" ht="13.5" customHeight="1">
       <c r="A63" s="150"/>
       <c r="B63" s="77"/>
       <c r="C63" s="78"/>
@@ -17695,8 +18086,30 @@
       <c r="CY63" s="125"/>
       <c r="CZ63" s="125"/>
       <c r="DA63" s="149"/>
-    </row>
-    <row r="64" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC63" s="150"/>
+      <c r="DD63" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="DE63" s="78"/>
+      <c r="DF63" s="165"/>
+      <c r="DG63" s="82"/>
+      <c r="DH63" s="125"/>
+      <c r="DI63" s="125"/>
+      <c r="DJ63" s="125"/>
+      <c r="DK63" s="125"/>
+      <c r="DL63" s="125"/>
+      <c r="DM63" s="125"/>
+      <c r="DN63" s="125"/>
+      <c r="DO63" s="125"/>
+      <c r="DP63" s="125"/>
+      <c r="DQ63" s="125"/>
+      <c r="DR63" s="125"/>
+      <c r="DS63" s="125"/>
+      <c r="DT63" s="125"/>
+      <c r="DU63" s="125"/>
+      <c r="DV63" s="149"/>
+    </row>
+    <row r="64" spans="1:126" ht="13.5" customHeight="1">
       <c r="A64" s="150"/>
       <c r="B64" s="77"/>
       <c r="C64" s="78"/>
@@ -17801,8 +18214,32 @@
       <c r="CY64" s="125"/>
       <c r="CZ64" s="125"/>
       <c r="DA64" s="149"/>
-    </row>
-    <row r="65" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC64" s="150"/>
+      <c r="DD64" s="77"/>
+      <c r="DE64" s="78"/>
+      <c r="DF64" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="DG64" s="82"/>
+      <c r="DH64" s="125"/>
+      <c r="DI64" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DJ64" s="125"/>
+      <c r="DK64" s="125"/>
+      <c r="DL64" s="125"/>
+      <c r="DM64" s="125"/>
+      <c r="DN64" s="125"/>
+      <c r="DO64" s="125"/>
+      <c r="DP64" s="125"/>
+      <c r="DQ64" s="125"/>
+      <c r="DR64" s="125"/>
+      <c r="DS64" s="125"/>
+      <c r="DT64" s="125"/>
+      <c r="DU64" s="125"/>
+      <c r="DV64" s="149"/>
+    </row>
+    <row r="65" spans="1:126" ht="13.5" customHeight="1">
       <c r="A65" s="150"/>
       <c r="B65" s="77"/>
       <c r="C65" s="78"/>
@@ -17907,8 +18344,32 @@
       <c r="CY65" s="125"/>
       <c r="CZ65" s="125"/>
       <c r="DA65" s="149"/>
-    </row>
-    <row r="66" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC65" s="150"/>
+      <c r="DD65" s="77"/>
+      <c r="DE65" s="78"/>
+      <c r="DF65" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="DG65" s="82"/>
+      <c r="DH65" s="125"/>
+      <c r="DI65" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DJ65" s="125"/>
+      <c r="DK65" s="125"/>
+      <c r="DL65" s="125"/>
+      <c r="DM65" s="125"/>
+      <c r="DN65" s="125"/>
+      <c r="DO65" s="125"/>
+      <c r="DP65" s="125"/>
+      <c r="DQ65" s="125"/>
+      <c r="DR65" s="125"/>
+      <c r="DS65" s="125"/>
+      <c r="DT65" s="125"/>
+      <c r="DU65" s="125"/>
+      <c r="DV65" s="149"/>
+    </row>
+    <row r="66" spans="1:126" ht="13.5" customHeight="1">
       <c r="A66" s="150"/>
       <c r="B66" s="77"/>
       <c r="C66" s="78"/>
@@ -18011,8 +18472,32 @@
       <c r="CY66" s="125"/>
       <c r="CZ66" s="125"/>
       <c r="DA66" s="149"/>
-    </row>
-    <row r="67" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC66" s="150"/>
+      <c r="DD66" s="77"/>
+      <c r="DE66" s="78"/>
+      <c r="DF66" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="DG66" s="82"/>
+      <c r="DH66" s="125"/>
+      <c r="DI66" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DJ66" s="125"/>
+      <c r="DK66" s="125"/>
+      <c r="DL66" s="125"/>
+      <c r="DM66" s="125"/>
+      <c r="DN66" s="125"/>
+      <c r="DO66" s="125"/>
+      <c r="DP66" s="125"/>
+      <c r="DQ66" s="125"/>
+      <c r="DR66" s="125"/>
+      <c r="DS66" s="125"/>
+      <c r="DT66" s="125"/>
+      <c r="DU66" s="125"/>
+      <c r="DV66" s="149"/>
+    </row>
+    <row r="67" spans="1:126" ht="13.5" customHeight="1">
       <c r="A67" s="150"/>
       <c r="B67" s="77"/>
       <c r="C67" s="78"/>
@@ -18117,8 +18602,30 @@
       <c r="CY67" s="125"/>
       <c r="CZ67" s="125"/>
       <c r="DA67" s="149"/>
-    </row>
-    <row r="68" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC67" s="150"/>
+      <c r="DD67" s="77"/>
+      <c r="DE67" s="78"/>
+      <c r="DF67" s="177" t="s">
+        <v>234</v>
+      </c>
+      <c r="DG67" s="82"/>
+      <c r="DH67" s="125"/>
+      <c r="DI67" s="125"/>
+      <c r="DJ67" s="125"/>
+      <c r="DK67" s="125"/>
+      <c r="DL67" s="125"/>
+      <c r="DM67" s="125"/>
+      <c r="DN67" s="125"/>
+      <c r="DO67" s="125"/>
+      <c r="DP67" s="125"/>
+      <c r="DQ67" s="125"/>
+      <c r="DR67" s="125"/>
+      <c r="DS67" s="125"/>
+      <c r="DT67" s="125"/>
+      <c r="DU67" s="125"/>
+      <c r="DV67" s="149"/>
+    </row>
+    <row r="68" spans="1:126" ht="13.5" customHeight="1">
       <c r="A68" s="150"/>
       <c r="B68" s="77"/>
       <c r="C68" s="78"/>
@@ -18223,8 +18730,28 @@
       <c r="CY68" s="125"/>
       <c r="CZ68" s="125"/>
       <c r="DA68" s="149"/>
-    </row>
-    <row r="69" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC68" s="150"/>
+      <c r="DD68" s="77"/>
+      <c r="DE68" s="78"/>
+      <c r="DF68" s="79"/>
+      <c r="DG68" s="82"/>
+      <c r="DH68" s="125"/>
+      <c r="DI68" s="125"/>
+      <c r="DJ68" s="125"/>
+      <c r="DK68" s="125"/>
+      <c r="DL68" s="125"/>
+      <c r="DM68" s="125"/>
+      <c r="DN68" s="125"/>
+      <c r="DO68" s="125"/>
+      <c r="DP68" s="125"/>
+      <c r="DQ68" s="125"/>
+      <c r="DR68" s="125"/>
+      <c r="DS68" s="125"/>
+      <c r="DT68" s="125"/>
+      <c r="DU68" s="125"/>
+      <c r="DV68" s="149"/>
+    </row>
+    <row r="69" spans="1:126" ht="13.5" customHeight="1">
       <c r="A69" s="150"/>
       <c r="B69" s="77"/>
       <c r="C69" s="78"/>
@@ -18327,8 +18854,30 @@
       <c r="CY69" s="125"/>
       <c r="CZ69" s="125"/>
       <c r="DA69" s="149"/>
-    </row>
-    <row r="70" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC69" s="150"/>
+      <c r="DD69" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE69" s="78"/>
+      <c r="DF69" s="79"/>
+      <c r="DG69" s="82"/>
+      <c r="DH69" s="125"/>
+      <c r="DI69" s="125"/>
+      <c r="DJ69" s="125"/>
+      <c r="DK69" s="125"/>
+      <c r="DL69" s="125"/>
+      <c r="DM69" s="125"/>
+      <c r="DN69" s="125"/>
+      <c r="DO69" s="125"/>
+      <c r="DP69" s="125"/>
+      <c r="DQ69" s="125"/>
+      <c r="DR69" s="125"/>
+      <c r="DS69" s="125"/>
+      <c r="DT69" s="125"/>
+      <c r="DU69" s="125"/>
+      <c r="DV69" s="149"/>
+    </row>
+    <row r="70" spans="1:126" ht="13.5" customHeight="1">
       <c r="A70" s="150"/>
       <c r="B70" s="77"/>
       <c r="C70" s="78"/>
@@ -18433,8 +18982,32 @@
       <c r="CY70" s="125"/>
       <c r="CZ70" s="125"/>
       <c r="DA70" s="149"/>
-    </row>
-    <row r="71" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC70" s="150"/>
+      <c r="DD70" s="77"/>
+      <c r="DE70" s="78"/>
+      <c r="DF70" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="DG70" s="82"/>
+      <c r="DH70" s="125"/>
+      <c r="DI70" s="125"/>
+      <c r="DJ70" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DK70" s="125"/>
+      <c r="DL70" s="125"/>
+      <c r="DM70" s="125"/>
+      <c r="DN70" s="125"/>
+      <c r="DO70" s="125"/>
+      <c r="DP70" s="125"/>
+      <c r="DQ70" s="125"/>
+      <c r="DR70" s="125"/>
+      <c r="DS70" s="125"/>
+      <c r="DT70" s="125"/>
+      <c r="DU70" s="125"/>
+      <c r="DV70" s="149"/>
+    </row>
+    <row r="71" spans="1:126" ht="13.5" customHeight="1">
       <c r="A71" s="150"/>
       <c r="B71" s="77"/>
       <c r="C71" s="78"/>
@@ -18539,8 +19112,32 @@
       <c r="CY71" s="125"/>
       <c r="CZ71" s="125"/>
       <c r="DA71" s="149"/>
-    </row>
-    <row r="72" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC71" s="150"/>
+      <c r="DD71" s="77"/>
+      <c r="DE71" s="78"/>
+      <c r="DF71" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="DG71" s="82"/>
+      <c r="DH71" s="125"/>
+      <c r="DI71" s="125"/>
+      <c r="DJ71" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DK71" s="125"/>
+      <c r="DL71" s="125"/>
+      <c r="DM71" s="125"/>
+      <c r="DN71" s="125"/>
+      <c r="DO71" s="125"/>
+      <c r="DP71" s="125"/>
+      <c r="DQ71" s="125"/>
+      <c r="DR71" s="125"/>
+      <c r="DS71" s="125"/>
+      <c r="DT71" s="125"/>
+      <c r="DU71" s="125"/>
+      <c r="DV71" s="149"/>
+    </row>
+    <row r="72" spans="1:126" ht="13.5" customHeight="1">
       <c r="A72" s="150"/>
       <c r="B72" s="77"/>
       <c r="C72" s="78"/>
@@ -18643,8 +19240,32 @@
       <c r="CY72" s="125"/>
       <c r="CZ72" s="125"/>
       <c r="DA72" s="149"/>
-    </row>
-    <row r="73" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC72" s="150"/>
+      <c r="DD72" s="77"/>
+      <c r="DE72" s="78"/>
+      <c r="DF72" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="DG72" s="82"/>
+      <c r="DH72" s="125"/>
+      <c r="DI72" s="125"/>
+      <c r="DJ72" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DK72" s="125"/>
+      <c r="DL72" s="125"/>
+      <c r="DM72" s="125"/>
+      <c r="DN72" s="125"/>
+      <c r="DO72" s="125"/>
+      <c r="DP72" s="125"/>
+      <c r="DQ72" s="125"/>
+      <c r="DR72" s="125"/>
+      <c r="DS72" s="125"/>
+      <c r="DT72" s="125"/>
+      <c r="DU72" s="125"/>
+      <c r="DV72" s="149"/>
+    </row>
+    <row r="73" spans="1:126" ht="13.5" customHeight="1">
       <c r="A73" s="150"/>
       <c r="B73" s="77"/>
       <c r="C73" s="78"/>
@@ -18749,8 +19370,28 @@
       <c r="CY73" s="125"/>
       <c r="CZ73" s="125"/>
       <c r="DA73" s="149"/>
-    </row>
-    <row r="74" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC73" s="150"/>
+      <c r="DD73" s="77"/>
+      <c r="DE73" s="78"/>
+      <c r="DF73" s="79"/>
+      <c r="DG73" s="82"/>
+      <c r="DH73" s="125"/>
+      <c r="DI73" s="125"/>
+      <c r="DJ73" s="125"/>
+      <c r="DK73" s="125"/>
+      <c r="DL73" s="125"/>
+      <c r="DM73" s="125"/>
+      <c r="DN73" s="125"/>
+      <c r="DO73" s="125"/>
+      <c r="DP73" s="125"/>
+      <c r="DQ73" s="125"/>
+      <c r="DR73" s="125"/>
+      <c r="DS73" s="125"/>
+      <c r="DT73" s="125"/>
+      <c r="DU73" s="125"/>
+      <c r="DV73" s="149"/>
+    </row>
+    <row r="74" spans="1:126" ht="13.5" customHeight="1">
       <c r="A74" s="150"/>
       <c r="B74" s="77"/>
       <c r="C74" s="78"/>
@@ -18855,8 +19496,28 @@
       <c r="CY74" s="125"/>
       <c r="CZ74" s="125"/>
       <c r="DA74" s="149"/>
-    </row>
-    <row r="75" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC74" s="150"/>
+      <c r="DD74" s="77"/>
+      <c r="DE74" s="78"/>
+      <c r="DF74" s="79"/>
+      <c r="DG74" s="82"/>
+      <c r="DH74" s="125"/>
+      <c r="DI74" s="125"/>
+      <c r="DJ74" s="125"/>
+      <c r="DK74" s="125"/>
+      <c r="DL74" s="125"/>
+      <c r="DM74" s="125"/>
+      <c r="DN74" s="125"/>
+      <c r="DO74" s="125"/>
+      <c r="DP74" s="125"/>
+      <c r="DQ74" s="125"/>
+      <c r="DR74" s="125"/>
+      <c r="DS74" s="125"/>
+      <c r="DT74" s="125"/>
+      <c r="DU74" s="125"/>
+      <c r="DV74" s="149"/>
+    </row>
+    <row r="75" spans="1:126" ht="13.5" customHeight="1">
       <c r="A75" s="150"/>
       <c r="B75" s="77"/>
       <c r="C75" s="78"/>
@@ -18959,8 +19620,28 @@
       <c r="CY75" s="125"/>
       <c r="CZ75" s="125"/>
       <c r="DA75" s="149"/>
-    </row>
-    <row r="76" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC75" s="150"/>
+      <c r="DD75" s="77"/>
+      <c r="DE75" s="78"/>
+      <c r="DF75" s="79"/>
+      <c r="DG75" s="82"/>
+      <c r="DH75" s="125"/>
+      <c r="DI75" s="125"/>
+      <c r="DJ75" s="125"/>
+      <c r="DK75" s="125"/>
+      <c r="DL75" s="125"/>
+      <c r="DM75" s="125"/>
+      <c r="DN75" s="125"/>
+      <c r="DO75" s="125"/>
+      <c r="DP75" s="125"/>
+      <c r="DQ75" s="125"/>
+      <c r="DR75" s="125"/>
+      <c r="DS75" s="125"/>
+      <c r="DT75" s="125"/>
+      <c r="DU75" s="125"/>
+      <c r="DV75" s="149"/>
+    </row>
+    <row r="76" spans="1:126" ht="13.5" customHeight="1">
       <c r="A76" s="150"/>
       <c r="B76" s="77"/>
       <c r="C76" s="78"/>
@@ -19065,8 +19746,28 @@
       <c r="CY76" s="125"/>
       <c r="CZ76" s="125"/>
       <c r="DA76" s="149"/>
-    </row>
-    <row r="77" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC76" s="150"/>
+      <c r="DD76" s="77"/>
+      <c r="DE76" s="78"/>
+      <c r="DF76" s="79"/>
+      <c r="DG76" s="82"/>
+      <c r="DH76" s="125"/>
+      <c r="DI76" s="125"/>
+      <c r="DJ76" s="125"/>
+      <c r="DK76" s="125"/>
+      <c r="DL76" s="125"/>
+      <c r="DM76" s="125"/>
+      <c r="DN76" s="125"/>
+      <c r="DO76" s="125"/>
+      <c r="DP76" s="125"/>
+      <c r="DQ76" s="125"/>
+      <c r="DR76" s="125"/>
+      <c r="DS76" s="125"/>
+      <c r="DT76" s="125"/>
+      <c r="DU76" s="125"/>
+      <c r="DV76" s="149"/>
+    </row>
+    <row r="77" spans="1:126" ht="13.5" customHeight="1">
       <c r="A77" s="150"/>
       <c r="B77" s="77"/>
       <c r="C77" s="78"/>
@@ -19171,8 +19872,28 @@
       <c r="CY77" s="125"/>
       <c r="CZ77" s="125"/>
       <c r="DA77" s="149"/>
-    </row>
-    <row r="78" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC77" s="150"/>
+      <c r="DD77" s="77"/>
+      <c r="DE77" s="78"/>
+      <c r="DF77" s="79"/>
+      <c r="DG77" s="82"/>
+      <c r="DH77" s="125"/>
+      <c r="DI77" s="125"/>
+      <c r="DJ77" s="125"/>
+      <c r="DK77" s="125"/>
+      <c r="DL77" s="125"/>
+      <c r="DM77" s="125"/>
+      <c r="DN77" s="125"/>
+      <c r="DO77" s="125"/>
+      <c r="DP77" s="125"/>
+      <c r="DQ77" s="125"/>
+      <c r="DR77" s="125"/>
+      <c r="DS77" s="125"/>
+      <c r="DT77" s="125"/>
+      <c r="DU77" s="125"/>
+      <c r="DV77" s="149"/>
+    </row>
+    <row r="78" spans="1:126" ht="13.5" customHeight="1">
       <c r="A78" s="150"/>
       <c r="B78" s="77"/>
       <c r="C78" s="78"/>
@@ -19275,8 +19996,28 @@
       <c r="CY78" s="125"/>
       <c r="CZ78" s="125"/>
       <c r="DA78" s="149"/>
-    </row>
-    <row r="79" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC78" s="150"/>
+      <c r="DD78" s="77"/>
+      <c r="DE78" s="78"/>
+      <c r="DF78" s="79"/>
+      <c r="DG78" s="82"/>
+      <c r="DH78" s="125"/>
+      <c r="DI78" s="125"/>
+      <c r="DJ78" s="125"/>
+      <c r="DK78" s="125"/>
+      <c r="DL78" s="125"/>
+      <c r="DM78" s="125"/>
+      <c r="DN78" s="125"/>
+      <c r="DO78" s="125"/>
+      <c r="DP78" s="125"/>
+      <c r="DQ78" s="125"/>
+      <c r="DR78" s="125"/>
+      <c r="DS78" s="125"/>
+      <c r="DT78" s="125"/>
+      <c r="DU78" s="125"/>
+      <c r="DV78" s="149"/>
+    </row>
+    <row r="79" spans="1:126" ht="13.5" customHeight="1">
       <c r="A79" s="150"/>
       <c r="B79" s="77"/>
       <c r="C79" s="78"/>
@@ -19381,8 +20122,28 @@
       <c r="CY79" s="125"/>
       <c r="CZ79" s="125"/>
       <c r="DA79" s="149"/>
-    </row>
-    <row r="80" spans="1:105" ht="13.5" customHeight="1" thickBot="1">
+      <c r="DC79" s="150"/>
+      <c r="DD79" s="77"/>
+      <c r="DE79" s="78"/>
+      <c r="DF79" s="79"/>
+      <c r="DG79" s="82"/>
+      <c r="DH79" s="125"/>
+      <c r="DI79" s="125"/>
+      <c r="DJ79" s="125"/>
+      <c r="DK79" s="125"/>
+      <c r="DL79" s="125"/>
+      <c r="DM79" s="125"/>
+      <c r="DN79" s="125"/>
+      <c r="DO79" s="125"/>
+      <c r="DP79" s="125"/>
+      <c r="DQ79" s="125"/>
+      <c r="DR79" s="125"/>
+      <c r="DS79" s="125"/>
+      <c r="DT79" s="125"/>
+      <c r="DU79" s="125"/>
+      <c r="DV79" s="149"/>
+    </row>
+    <row r="80" spans="1:126" ht="13.5" customHeight="1" thickBot="1">
       <c r="A80" s="150"/>
       <c r="B80" s="77"/>
       <c r="C80" s="78"/>
@@ -19487,8 +20248,28 @@
       <c r="CY80" s="125"/>
       <c r="CZ80" s="125"/>
       <c r="DA80" s="149"/>
-    </row>
-    <row r="81" spans="1:105" ht="13.5" customHeight="1" thickTop="1">
+      <c r="DC80" s="150"/>
+      <c r="DD80" s="83"/>
+      <c r="DE80" s="84"/>
+      <c r="DF80" s="79"/>
+      <c r="DG80" s="82"/>
+      <c r="DH80" s="125"/>
+      <c r="DI80" s="125"/>
+      <c r="DJ80" s="125"/>
+      <c r="DK80" s="125"/>
+      <c r="DL80" s="125"/>
+      <c r="DM80" s="125"/>
+      <c r="DN80" s="125"/>
+      <c r="DO80" s="125"/>
+      <c r="DP80" s="125"/>
+      <c r="DQ80" s="125"/>
+      <c r="DR80" s="125"/>
+      <c r="DS80" s="125"/>
+      <c r="DT80" s="125"/>
+      <c r="DU80" s="125"/>
+      <c r="DV80" s="149"/>
+    </row>
+    <row r="81" spans="1:126" ht="13.5" customHeight="1" thickTop="1">
       <c r="A81" s="150"/>
       <c r="B81" s="77"/>
       <c r="C81" s="78"/>
@@ -19591,8 +20372,28 @@
       <c r="CY81" s="125"/>
       <c r="CZ81" s="125"/>
       <c r="DA81" s="149"/>
-    </row>
-    <row r="82" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC81" s="150"/>
+      <c r="DD81" s="77"/>
+      <c r="DE81" s="78"/>
+      <c r="DF81" s="79"/>
+      <c r="DG81" s="82"/>
+      <c r="DH81" s="125"/>
+      <c r="DI81" s="125"/>
+      <c r="DJ81" s="125"/>
+      <c r="DK81" s="125"/>
+      <c r="DL81" s="125"/>
+      <c r="DM81" s="125"/>
+      <c r="DN81" s="125"/>
+      <c r="DO81" s="125"/>
+      <c r="DP81" s="125"/>
+      <c r="DQ81" s="125"/>
+      <c r="DR81" s="125"/>
+      <c r="DS81" s="125"/>
+      <c r="DT81" s="125"/>
+      <c r="DU81" s="125"/>
+      <c r="DV81" s="149"/>
+    </row>
+    <row r="82" spans="1:126" ht="13.5" customHeight="1">
       <c r="A82" s="150"/>
       <c r="B82" s="77"/>
       <c r="C82" s="78"/>
@@ -19697,8 +20498,28 @@
       <c r="CY82" s="125"/>
       <c r="CZ82" s="125"/>
       <c r="DA82" s="149"/>
-    </row>
-    <row r="83" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC82" s="150"/>
+      <c r="DD82" s="77"/>
+      <c r="DE82" s="78"/>
+      <c r="DF82" s="79"/>
+      <c r="DG82" s="82"/>
+      <c r="DH82" s="125"/>
+      <c r="DI82" s="125"/>
+      <c r="DJ82" s="125"/>
+      <c r="DK82" s="125"/>
+      <c r="DL82" s="125"/>
+      <c r="DM82" s="125"/>
+      <c r="DN82" s="125"/>
+      <c r="DO82" s="125"/>
+      <c r="DP82" s="125"/>
+      <c r="DQ82" s="125"/>
+      <c r="DR82" s="125"/>
+      <c r="DS82" s="125"/>
+      <c r="DT82" s="125"/>
+      <c r="DU82" s="125"/>
+      <c r="DV82" s="149"/>
+    </row>
+    <row r="83" spans="1:126" ht="13.5" customHeight="1">
       <c r="A83" s="150"/>
       <c r="B83" s="77"/>
       <c r="C83" s="78"/>
@@ -19803,8 +20624,28 @@
       <c r="CY83" s="125"/>
       <c r="CZ83" s="125"/>
       <c r="DA83" s="149"/>
-    </row>
-    <row r="84" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC83" s="150"/>
+      <c r="DD83" s="77"/>
+      <c r="DE83" s="78"/>
+      <c r="DF83" s="79"/>
+      <c r="DG83" s="82"/>
+      <c r="DH83" s="125"/>
+      <c r="DI83" s="125"/>
+      <c r="DJ83" s="125"/>
+      <c r="DK83" s="125"/>
+      <c r="DL83" s="125"/>
+      <c r="DM83" s="125"/>
+      <c r="DN83" s="125"/>
+      <c r="DO83" s="125"/>
+      <c r="DP83" s="125"/>
+      <c r="DQ83" s="125"/>
+      <c r="DR83" s="125"/>
+      <c r="DS83" s="125"/>
+      <c r="DT83" s="125"/>
+      <c r="DU83" s="125"/>
+      <c r="DV83" s="149"/>
+    </row>
+    <row r="84" spans="1:126" ht="13.5" customHeight="1">
       <c r="A84" s="150"/>
       <c r="B84" s="77"/>
       <c r="C84" s="78"/>
@@ -19907,8 +20748,28 @@
       <c r="CY84" s="125"/>
       <c r="CZ84" s="125"/>
       <c r="DA84" s="149"/>
-    </row>
-    <row r="85" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC84" s="150"/>
+      <c r="DD84" s="77"/>
+      <c r="DE84" s="78"/>
+      <c r="DF84" s="79"/>
+      <c r="DG84" s="82"/>
+      <c r="DH84" s="125"/>
+      <c r="DI84" s="125"/>
+      <c r="DJ84" s="125"/>
+      <c r="DK84" s="125"/>
+      <c r="DL84" s="125"/>
+      <c r="DM84" s="125"/>
+      <c r="DN84" s="125"/>
+      <c r="DO84" s="125"/>
+      <c r="DP84" s="125"/>
+      <c r="DQ84" s="125"/>
+      <c r="DR84" s="125"/>
+      <c r="DS84" s="125"/>
+      <c r="DT84" s="125"/>
+      <c r="DU84" s="125"/>
+      <c r="DV84" s="149"/>
+    </row>
+    <row r="85" spans="1:126" ht="13.5" customHeight="1">
       <c r="A85" s="150"/>
       <c r="B85" s="77"/>
       <c r="C85" s="78"/>
@@ -20013,8 +20874,28 @@
       <c r="CY85" s="125"/>
       <c r="CZ85" s="125"/>
       <c r="DA85" s="149"/>
-    </row>
-    <row r="86" spans="1:105" ht="13.5" customHeight="1" thickBot="1">
+      <c r="DC85" s="150"/>
+      <c r="DD85" s="77"/>
+      <c r="DE85" s="78"/>
+      <c r="DF85" s="79"/>
+      <c r="DG85" s="82"/>
+      <c r="DH85" s="125"/>
+      <c r="DI85" s="125"/>
+      <c r="DJ85" s="125"/>
+      <c r="DK85" s="125"/>
+      <c r="DL85" s="125"/>
+      <c r="DM85" s="125"/>
+      <c r="DN85" s="125"/>
+      <c r="DO85" s="125"/>
+      <c r="DP85" s="125"/>
+      <c r="DQ85" s="125"/>
+      <c r="DR85" s="125"/>
+      <c r="DS85" s="125"/>
+      <c r="DT85" s="125"/>
+      <c r="DU85" s="125"/>
+      <c r="DV85" s="149"/>
+    </row>
+    <row r="86" spans="1:126" ht="13.5" customHeight="1" thickBot="1">
       <c r="A86" s="150"/>
       <c r="B86" s="83"/>
       <c r="C86" s="84"/>
@@ -20119,8 +21000,28 @@
       <c r="CY86" s="127"/>
       <c r="CZ86" s="127"/>
       <c r="DA86" s="151"/>
-    </row>
-    <row r="87" spans="1:105" ht="13.5" customHeight="1" thickTop="1">
+      <c r="DC86" s="150"/>
+      <c r="DD86" s="83"/>
+      <c r="DE86" s="84"/>
+      <c r="DF86" s="79"/>
+      <c r="DG86" s="86"/>
+      <c r="DH86" s="127"/>
+      <c r="DI86" s="127"/>
+      <c r="DJ86" s="127"/>
+      <c r="DK86" s="127"/>
+      <c r="DL86" s="125"/>
+      <c r="DM86" s="127"/>
+      <c r="DN86" s="127"/>
+      <c r="DO86" s="127"/>
+      <c r="DP86" s="125"/>
+      <c r="DQ86" s="127"/>
+      <c r="DR86" s="127"/>
+      <c r="DS86" s="127"/>
+      <c r="DT86" s="127"/>
+      <c r="DU86" s="127"/>
+      <c r="DV86" s="151"/>
+    </row>
+    <row r="87" spans="1:126" ht="13.5" customHeight="1" thickTop="1">
       <c r="A87" s="161" t="s">
         <v>70</v>
       </c>
@@ -20241,8 +21142,32 @@
       <c r="CY87" s="128"/>
       <c r="CZ87" s="128"/>
       <c r="DA87" s="152"/>
-    </row>
-    <row r="88" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC87" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="DD87" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="DE87" s="88"/>
+      <c r="DF87" s="89"/>
+      <c r="DG87" s="90"/>
+      <c r="DH87" s="128"/>
+      <c r="DI87" s="128"/>
+      <c r="DJ87" s="128"/>
+      <c r="DK87" s="128"/>
+      <c r="DL87" s="128"/>
+      <c r="DM87" s="128"/>
+      <c r="DN87" s="128"/>
+      <c r="DO87" s="128"/>
+      <c r="DP87" s="128"/>
+      <c r="DQ87" s="128"/>
+      <c r="DR87" s="128"/>
+      <c r="DS87" s="128"/>
+      <c r="DT87" s="128"/>
+      <c r="DU87" s="128"/>
+      <c r="DV87" s="152"/>
+    </row>
+    <row r="88" spans="1:126" ht="13.5" customHeight="1">
       <c r="A88" s="160"/>
       <c r="B88" s="91"/>
       <c r="C88" s="92"/>
@@ -20383,8 +21308,28 @@
       <c r="CY88" s="125"/>
       <c r="CZ88" s="125"/>
       <c r="DA88" s="149"/>
-    </row>
-    <row r="89" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC88" s="160"/>
+      <c r="DD88" s="91"/>
+      <c r="DE88" s="92"/>
+      <c r="DF88" s="93"/>
+      <c r="DG88" s="94"/>
+      <c r="DH88" s="125"/>
+      <c r="DI88" s="125"/>
+      <c r="DJ88" s="125"/>
+      <c r="DK88" s="125"/>
+      <c r="DL88" s="125"/>
+      <c r="DM88" s="125"/>
+      <c r="DN88" s="125"/>
+      <c r="DO88" s="125"/>
+      <c r="DP88" s="125"/>
+      <c r="DQ88" s="125"/>
+      <c r="DR88" s="125"/>
+      <c r="DS88" s="125"/>
+      <c r="DT88" s="125"/>
+      <c r="DU88" s="125"/>
+      <c r="DV88" s="149"/>
+    </row>
+    <row r="89" spans="1:126" ht="13.5" customHeight="1">
       <c r="A89" s="160"/>
       <c r="B89" s="91"/>
       <c r="C89" s="129"/>
@@ -20495,8 +21440,28 @@
       <c r="CY89" s="125"/>
       <c r="CZ89" s="125"/>
       <c r="DA89" s="149"/>
-    </row>
-    <row r="90" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC89" s="160"/>
+      <c r="DD89" s="91"/>
+      <c r="DE89" s="129"/>
+      <c r="DF89" s="93"/>
+      <c r="DG89" s="95"/>
+      <c r="DH89" s="125"/>
+      <c r="DI89" s="125"/>
+      <c r="DJ89" s="125"/>
+      <c r="DK89" s="125"/>
+      <c r="DL89" s="125"/>
+      <c r="DM89" s="125"/>
+      <c r="DN89" s="125"/>
+      <c r="DO89" s="125"/>
+      <c r="DP89" s="125"/>
+      <c r="DQ89" s="125"/>
+      <c r="DR89" s="125"/>
+      <c r="DS89" s="125"/>
+      <c r="DT89" s="125"/>
+      <c r="DU89" s="125"/>
+      <c r="DV89" s="149"/>
+    </row>
+    <row r="90" spans="1:126" ht="13.5" customHeight="1">
       <c r="A90" s="160"/>
       <c r="B90" s="91" t="s">
         <v>72</v>
@@ -20607,8 +21572,36 @@
       <c r="CY90" s="125"/>
       <c r="CZ90" s="125"/>
       <c r="DA90" s="149"/>
-    </row>
-    <row r="91" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC90" s="160"/>
+      <c r="DD90" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE90" s="129"/>
+      <c r="DF90" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG90" s="95"/>
+      <c r="DH90" s="125"/>
+      <c r="DI90" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DJ90" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DK90" s="125"/>
+      <c r="DL90" s="125"/>
+      <c r="DM90" s="125"/>
+      <c r="DN90" s="125"/>
+      <c r="DO90" s="125"/>
+      <c r="DP90" s="125"/>
+      <c r="DQ90" s="125"/>
+      <c r="DR90" s="125"/>
+      <c r="DS90" s="125"/>
+      <c r="DT90" s="125"/>
+      <c r="DU90" s="125"/>
+      <c r="DV90" s="149"/>
+    </row>
+    <row r="91" spans="1:126" ht="13.5" customHeight="1">
       <c r="A91" s="160"/>
       <c r="B91" s="91"/>
       <c r="C91" s="129"/>
@@ -20709,8 +21702,32 @@
       <c r="CY91" s="125"/>
       <c r="CZ91" s="125"/>
       <c r="DA91" s="149"/>
-    </row>
-    <row r="92" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC91" s="160"/>
+      <c r="DD91" s="91"/>
+      <c r="DE91" s="129"/>
+      <c r="DF91" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="DG91" s="95"/>
+      <c r="DH91" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DI91" s="125"/>
+      <c r="DJ91" s="125"/>
+      <c r="DK91" s="125"/>
+      <c r="DL91" s="125"/>
+      <c r="DM91" s="125"/>
+      <c r="DN91" s="125"/>
+      <c r="DO91" s="125"/>
+      <c r="DP91" s="125"/>
+      <c r="DQ91" s="125"/>
+      <c r="DR91" s="125"/>
+      <c r="DS91" s="125"/>
+      <c r="DT91" s="125"/>
+      <c r="DU91" s="125"/>
+      <c r="DV91" s="149"/>
+    </row>
+    <row r="92" spans="1:126" ht="13.5" customHeight="1">
       <c r="A92" s="160"/>
       <c r="B92" s="91" t="s">
         <v>73</v>
@@ -20821,8 +21838,30 @@
       <c r="CY92" s="125"/>
       <c r="CZ92" s="125"/>
       <c r="DA92" s="149"/>
-    </row>
-    <row r="93" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC92" s="160"/>
+      <c r="DD92" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="DE92" s="129"/>
+      <c r="DF92" s="93"/>
+      <c r="DG92" s="95"/>
+      <c r="DH92" s="125"/>
+      <c r="DI92" s="125"/>
+      <c r="DJ92" s="125"/>
+      <c r="DK92" s="125"/>
+      <c r="DL92" s="125"/>
+      <c r="DM92" s="125"/>
+      <c r="DN92" s="125"/>
+      <c r="DO92" s="125"/>
+      <c r="DP92" s="125"/>
+      <c r="DQ92" s="125"/>
+      <c r="DR92" s="125"/>
+      <c r="DS92" s="125"/>
+      <c r="DT92" s="125"/>
+      <c r="DU92" s="125"/>
+      <c r="DV92" s="149"/>
+    </row>
+    <row r="93" spans="1:126" ht="13.5" customHeight="1">
       <c r="A93" s="160"/>
       <c r="B93" s="91"/>
       <c r="C93" s="129"/>
@@ -20967,8 +22006,30 @@
       <c r="CY93" s="125"/>
       <c r="CZ93" s="125"/>
       <c r="DA93" s="149"/>
-    </row>
-    <row r="94" spans="1:105" ht="13.5" customHeight="1" thickBot="1">
+      <c r="DC93" s="160"/>
+      <c r="DD93" s="91"/>
+      <c r="DE93" s="129"/>
+      <c r="DF93" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="DG93" s="95"/>
+      <c r="DH93" s="125"/>
+      <c r="DI93" s="125"/>
+      <c r="DJ93" s="125"/>
+      <c r="DK93" s="125"/>
+      <c r="DL93" s="125"/>
+      <c r="DM93" s="125"/>
+      <c r="DN93" s="125"/>
+      <c r="DO93" s="125"/>
+      <c r="DP93" s="125"/>
+      <c r="DQ93" s="125"/>
+      <c r="DR93" s="125"/>
+      <c r="DS93" s="125"/>
+      <c r="DT93" s="125"/>
+      <c r="DU93" s="125"/>
+      <c r="DV93" s="149"/>
+    </row>
+    <row r="94" spans="1:126" ht="13.5" customHeight="1" thickBot="1">
       <c r="A94" s="160"/>
       <c r="B94" s="141"/>
       <c r="C94" s="142"/>
@@ -21071,16 +22132,44 @@
       <c r="CY94" s="145"/>
       <c r="CZ94" s="145"/>
       <c r="DA94" s="153"/>
-    </row>
-    <row r="95" spans="1:105" ht="13.5" customHeight="1" thickTop="1">
+      <c r="DC94" s="160"/>
+      <c r="DD94" s="141"/>
+      <c r="DE94" s="142"/>
+      <c r="DF94" s="143" t="s">
+        <v>216</v>
+      </c>
+      <c r="DG94" s="144"/>
+      <c r="DH94" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DI94" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DJ94" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="DK94" s="125"/>
+      <c r="DL94" s="125"/>
+      <c r="DM94" s="125"/>
+      <c r="DN94" s="125"/>
+      <c r="DO94" s="125"/>
+      <c r="DP94" s="125"/>
+      <c r="DQ94" s="145"/>
+      <c r="DR94" s="145"/>
+      <c r="DS94" s="145"/>
+      <c r="DT94" s="145"/>
+      <c r="DU94" s="145"/>
+      <c r="DV94" s="153"/>
+    </row>
+    <row r="95" spans="1:126" ht="13.5" customHeight="1" thickTop="1">
       <c r="A95" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="207" t="s">
+      <c r="B95" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="C95" s="207"/>
-      <c r="D95" s="207"/>
+      <c r="C95" s="215"/>
+      <c r="D95" s="215"/>
       <c r="E95" s="146"/>
       <c r="F95" s="147" t="s">
         <v>48</v>
@@ -21104,11 +22193,11 @@
       <c r="W95" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="X95" s="207" t="s">
+      <c r="X95" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="Y95" s="207"/>
-      <c r="Z95" s="207"/>
+      <c r="Y95" s="215"/>
+      <c r="Z95" s="215"/>
       <c r="AA95" s="146"/>
       <c r="AB95" s="147" t="s">
         <v>48</v>
@@ -21132,11 +22221,11 @@
       <c r="AR95" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AS95" s="207" t="s">
+      <c r="AS95" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="AT95" s="207"/>
-      <c r="AU95" s="207"/>
+      <c r="AT95" s="215"/>
+      <c r="AU95" s="215"/>
       <c r="AV95" s="146"/>
       <c r="AW95" s="147" t="s">
         <v>48</v>
@@ -21160,11 +22249,11 @@
       <c r="BM95" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="BN95" s="207" t="s">
+      <c r="BN95" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="BO95" s="207"/>
-      <c r="BP95" s="207"/>
+      <c r="BO95" s="215"/>
+      <c r="BP95" s="215"/>
       <c r="BQ95" s="146"/>
       <c r="BR95" s="147" t="s">
         <v>48</v>
@@ -21188,11 +22277,11 @@
       <c r="CH95" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="CI95" s="207" t="s">
+      <c r="CI95" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="CJ95" s="207"/>
-      <c r="CK95" s="207"/>
+      <c r="CJ95" s="215"/>
+      <c r="CK95" s="215"/>
       <c r="CL95" s="146"/>
       <c r="CM95" s="147" t="s">
         <v>48</v>
@@ -21227,14 +22316,44 @@
       <c r="CY95" s="147"/>
       <c r="CZ95" s="147"/>
       <c r="DA95" s="154"/>
-    </row>
-    <row r="96" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC95" s="161" t="s">
+        <v>46</v>
+      </c>
+      <c r="DD95" s="215" t="s">
+        <v>47</v>
+      </c>
+      <c r="DE95" s="215"/>
+      <c r="DF95" s="215"/>
+      <c r="DG95" s="146"/>
+      <c r="DH95" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="DI95" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="DJ95" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="DK95" s="147"/>
+      <c r="DL95" s="147"/>
+      <c r="DM95" s="147"/>
+      <c r="DN95" s="147"/>
+      <c r="DO95" s="147"/>
+      <c r="DP95" s="147"/>
+      <c r="DQ95" s="147"/>
+      <c r="DR95" s="147"/>
+      <c r="DS95" s="147"/>
+      <c r="DT95" s="147"/>
+      <c r="DU95" s="147"/>
+      <c r="DV95" s="154"/>
+    </row>
+    <row r="96" spans="1:126" ht="13.5" customHeight="1">
       <c r="A96" s="160"/>
-      <c r="B96" s="208" t="s">
+      <c r="B96" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="208"/>
-      <c r="D96" s="208"/>
+      <c r="C96" s="216"/>
+      <c r="D96" s="216"/>
       <c r="E96" s="96"/>
       <c r="F96" s="130" t="s">
         <v>52</v>
@@ -21256,11 +22375,11 @@
       <c r="S96" s="130"/>
       <c r="T96" s="155"/>
       <c r="W96" s="160"/>
-      <c r="X96" s="208" t="s">
+      <c r="X96" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="Y96" s="208"/>
-      <c r="Z96" s="208"/>
+      <c r="Y96" s="216"/>
+      <c r="Z96" s="216"/>
       <c r="AA96" s="96"/>
       <c r="AB96" s="130" t="s">
         <v>52</v>
@@ -21282,11 +22401,11 @@
       <c r="AO96" s="130"/>
       <c r="AP96" s="155"/>
       <c r="AR96" s="160"/>
-      <c r="AS96" s="208" t="s">
+      <c r="AS96" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="AT96" s="208"/>
-      <c r="AU96" s="208"/>
+      <c r="AT96" s="216"/>
+      <c r="AU96" s="216"/>
       <c r="AV96" s="96"/>
       <c r="AW96" s="130" t="s">
         <v>52</v>
@@ -21308,11 +22427,11 @@
       <c r="BJ96" s="130"/>
       <c r="BK96" s="155"/>
       <c r="BM96" s="160"/>
-      <c r="BN96" s="208" t="s">
+      <c r="BN96" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="BO96" s="208"/>
-      <c r="BP96" s="208"/>
+      <c r="BO96" s="216"/>
+      <c r="BP96" s="216"/>
       <c r="BQ96" s="96"/>
       <c r="BR96" s="130" t="s">
         <v>52</v>
@@ -21334,11 +22453,11 @@
       <c r="CE96" s="130"/>
       <c r="CF96" s="155"/>
       <c r="CH96" s="160"/>
-      <c r="CI96" s="208" t="s">
+      <c r="CI96" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="CJ96" s="208"/>
-      <c r="CK96" s="208"/>
+      <c r="CJ96" s="216"/>
+      <c r="CK96" s="216"/>
       <c r="CL96" s="96"/>
       <c r="CM96" s="130" t="s">
         <v>52</v>
@@ -21373,14 +22492,42 @@
       <c r="CY96" s="130"/>
       <c r="CZ96" s="130"/>
       <c r="DA96" s="155"/>
-    </row>
-    <row r="97" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC96" s="160"/>
+      <c r="DD96" s="216" t="s">
+        <v>51</v>
+      </c>
+      <c r="DE96" s="216"/>
+      <c r="DF96" s="216"/>
+      <c r="DG96" s="96"/>
+      <c r="DH96" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="DI96" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="DJ96" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="DK96" s="130"/>
+      <c r="DL96" s="130"/>
+      <c r="DM96" s="130"/>
+      <c r="DN96" s="130"/>
+      <c r="DO96" s="130"/>
+      <c r="DP96" s="130"/>
+      <c r="DQ96" s="130"/>
+      <c r="DR96" s="130"/>
+      <c r="DS96" s="130"/>
+      <c r="DT96" s="130"/>
+      <c r="DU96" s="130"/>
+      <c r="DV96" s="155"/>
+    </row>
+    <row r="97" spans="1:126" ht="13.5" customHeight="1">
       <c r="A97" s="160"/>
-      <c r="B97" s="209" t="s">
+      <c r="B97" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="C97" s="209"/>
-      <c r="D97" s="209"/>
+      <c r="C97" s="217"/>
+      <c r="D97" s="217"/>
       <c r="E97" s="97"/>
       <c r="F97" s="98">
         <v>39139</v>
@@ -21402,11 +22549,11 @@
       <c r="S97" s="98"/>
       <c r="T97" s="156"/>
       <c r="W97" s="160"/>
-      <c r="X97" s="209" t="s">
+      <c r="X97" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="Y97" s="209"/>
-      <c r="Z97" s="209"/>
+      <c r="Y97" s="217"/>
+      <c r="Z97" s="217"/>
       <c r="AA97" s="97"/>
       <c r="AB97" s="98">
         <v>39139</v>
@@ -21428,11 +22575,11 @@
       <c r="AO97" s="98"/>
       <c r="AP97" s="156"/>
       <c r="AR97" s="160"/>
-      <c r="AS97" s="209" t="s">
+      <c r="AS97" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="AT97" s="209"/>
-      <c r="AU97" s="209"/>
+      <c r="AT97" s="217"/>
+      <c r="AU97" s="217"/>
       <c r="AV97" s="97"/>
       <c r="AW97" s="98">
         <v>39139</v>
@@ -21454,11 +22601,11 @@
       <c r="BJ97" s="98"/>
       <c r="BK97" s="156"/>
       <c r="BM97" s="160"/>
-      <c r="BN97" s="209" t="s">
+      <c r="BN97" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="BO97" s="209"/>
-      <c r="BP97" s="209"/>
+      <c r="BO97" s="217"/>
+      <c r="BP97" s="217"/>
       <c r="BQ97" s="97"/>
       <c r="BR97" s="98">
         <v>39139</v>
@@ -21480,11 +22627,11 @@
       <c r="CE97" s="98"/>
       <c r="CF97" s="156"/>
       <c r="CH97" s="160"/>
-      <c r="CI97" s="209" t="s">
+      <c r="CI97" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="CJ97" s="209"/>
-      <c r="CK97" s="209"/>
+      <c r="CJ97" s="217"/>
+      <c r="CK97" s="217"/>
       <c r="CL97" s="97"/>
       <c r="CM97" s="98">
         <v>39139</v>
@@ -21519,14 +22666,42 @@
       <c r="CY97" s="98"/>
       <c r="CZ97" s="98"/>
       <c r="DA97" s="156"/>
-    </row>
-    <row r="98" spans="1:105" ht="13.5" customHeight="1" thickBot="1">
+      <c r="DC97" s="160"/>
+      <c r="DD97" s="217" t="s">
+        <v>54</v>
+      </c>
+      <c r="DE97" s="217"/>
+      <c r="DF97" s="217"/>
+      <c r="DG97" s="97"/>
+      <c r="DH97" s="98">
+        <v>39139</v>
+      </c>
+      <c r="DI97" s="98">
+        <v>39139</v>
+      </c>
+      <c r="DJ97" s="98">
+        <v>39140</v>
+      </c>
+      <c r="DK97" s="98"/>
+      <c r="DL97" s="98"/>
+      <c r="DM97" s="98"/>
+      <c r="DN97" s="98"/>
+      <c r="DO97" s="98"/>
+      <c r="DP97" s="98"/>
+      <c r="DQ97" s="98"/>
+      <c r="DR97" s="98"/>
+      <c r="DS97" s="98"/>
+      <c r="DT97" s="98"/>
+      <c r="DU97" s="98"/>
+      <c r="DV97" s="156"/>
+    </row>
+    <row r="98" spans="1:126" ht="13.5" customHeight="1" thickBot="1">
       <c r="A98" s="166"/>
-      <c r="B98" s="210" t="s">
+      <c r="B98" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="C98" s="210"/>
-      <c r="D98" s="210"/>
+      <c r="C98" s="218"/>
+      <c r="D98" s="218"/>
       <c r="E98" s="157"/>
       <c r="F98" s="158"/>
       <c r="G98" s="158"/>
@@ -21544,11 +22719,11 @@
       <c r="S98" s="158"/>
       <c r="T98" s="159"/>
       <c r="W98" s="166"/>
-      <c r="X98" s="210" t="s">
+      <c r="X98" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="Y98" s="210"/>
-      <c r="Z98" s="210"/>
+      <c r="Y98" s="218"/>
+      <c r="Z98" s="218"/>
       <c r="AA98" s="157"/>
       <c r="AB98" s="158"/>
       <c r="AC98" s="158"/>
@@ -21566,11 +22741,11 @@
       <c r="AO98" s="158"/>
       <c r="AP98" s="159"/>
       <c r="AR98" s="166"/>
-      <c r="AS98" s="210" t="s">
+      <c r="AS98" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="AT98" s="210"/>
-      <c r="AU98" s="210"/>
+      <c r="AT98" s="218"/>
+      <c r="AU98" s="218"/>
       <c r="AV98" s="157"/>
       <c r="AW98" s="158"/>
       <c r="AX98" s="158"/>
@@ -21588,11 +22763,11 @@
       <c r="BJ98" s="158"/>
       <c r="BK98" s="159"/>
       <c r="BM98" s="166"/>
-      <c r="BN98" s="210" t="s">
+      <c r="BN98" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="BO98" s="210"/>
-      <c r="BP98" s="210"/>
+      <c r="BO98" s="218"/>
+      <c r="BP98" s="218"/>
       <c r="BQ98" s="157"/>
       <c r="BR98" s="158"/>
       <c r="BS98" s="158"/>
@@ -21610,11 +22785,11 @@
       <c r="CE98" s="158"/>
       <c r="CF98" s="159"/>
       <c r="CH98" s="166"/>
-      <c r="CI98" s="210" t="s">
+      <c r="CI98" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="CJ98" s="210"/>
-      <c r="CK98" s="210"/>
+      <c r="CJ98" s="218"/>
+      <c r="CK98" s="218"/>
       <c r="CL98" s="157"/>
       <c r="CM98" s="158"/>
       <c r="CN98" s="158"/>
@@ -21631,57 +22806,79 @@
       <c r="CY98" s="158"/>
       <c r="CZ98" s="158"/>
       <c r="DA98" s="159"/>
-    </row>
-    <row r="99" spans="1:105" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="100" spans="1:105" ht="13.5" customHeight="1">
+      <c r="DC98" s="166"/>
+      <c r="DD98" s="218" t="s">
+        <v>55</v>
+      </c>
+      <c r="DE98" s="218"/>
+      <c r="DF98" s="218"/>
+      <c r="DG98" s="157"/>
+      <c r="DH98" s="158"/>
+      <c r="DI98" s="158"/>
+      <c r="DJ98" s="158"/>
+      <c r="DK98" s="158"/>
+      <c r="DL98" s="158"/>
+      <c r="DM98" s="158"/>
+      <c r="DN98" s="158"/>
+      <c r="DO98" s="158"/>
+      <c r="DP98" s="158"/>
+      <c r="DQ98" s="158"/>
+      <c r="DR98" s="158"/>
+      <c r="DS98" s="158"/>
+      <c r="DT98" s="158"/>
+      <c r="DU98" s="158"/>
+      <c r="DV98" s="159"/>
+    </row>
+    <row r="99" spans="1:126" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="100" spans="1:126" ht="13.5" customHeight="1">
       <c r="B100" s="71"/>
       <c r="D100" s="71"/>
     </row>
-    <row r="101" spans="1:105" ht="13.5" customHeight="1">
+    <row r="101" spans="1:126" ht="13.5" customHeight="1">
       <c r="B101" s="71"/>
       <c r="D101" s="71"/>
     </row>
-    <row r="102" spans="1:105" ht="13.5" customHeight="1">
+    <row r="102" spans="1:126" ht="13.5" customHeight="1">
       <c r="B102" s="71"/>
       <c r="D102" s="71"/>
     </row>
-    <row r="103" spans="1:105" ht="13.5" customHeight="1">
+    <row r="103" spans="1:126" ht="13.5" customHeight="1">
       <c r="B103" s="71"/>
       <c r="D103" s="71"/>
     </row>
-    <row r="104" spans="1:105" ht="13.5" customHeight="1">
+    <row r="104" spans="1:126" ht="13.5" customHeight="1">
       <c r="B104" s="71"/>
       <c r="D104" s="71"/>
     </row>
-    <row r="105" spans="1:105" ht="13.5" customHeight="1">
+    <row r="105" spans="1:126" ht="13.5" customHeight="1">
       <c r="B105" s="71"/>
       <c r="D105" s="71"/>
     </row>
-    <row r="106" spans="1:105" ht="13.5" customHeight="1">
+    <row r="106" spans="1:126" ht="13.5" customHeight="1">
       <c r="B106" s="71"/>
       <c r="D106" s="71"/>
     </row>
-    <row r="107" spans="1:105" ht="13.5" customHeight="1">
+    <row r="107" spans="1:126" ht="13.5" customHeight="1">
       <c r="B107" s="71"/>
       <c r="D107" s="71"/>
     </row>
-    <row r="108" spans="1:105" ht="13.5" customHeight="1">
+    <row r="108" spans="1:126" ht="13.5" customHeight="1">
       <c r="B108" s="71"/>
       <c r="D108" s="71"/>
     </row>
-    <row r="109" spans="1:105" ht="13.5" customHeight="1">
+    <row r="109" spans="1:126" ht="13.5" customHeight="1">
       <c r="B109" s="71"/>
       <c r="D109" s="71"/>
     </row>
-    <row r="110" spans="1:105" ht="13.5" customHeight="1">
+    <row r="110" spans="1:126" ht="13.5" customHeight="1">
       <c r="B110" s="71"/>
       <c r="D110" s="71"/>
     </row>
-    <row r="111" spans="1:105" ht="13.5" customHeight="1">
+    <row r="111" spans="1:126" ht="13.5" customHeight="1">
       <c r="B111" s="71"/>
       <c r="D111" s="71"/>
     </row>
-    <row r="112" spans="1:105" ht="13.5" customHeight="1">
+    <row r="112" spans="1:126" ht="13.5" customHeight="1">
       <c r="B112" s="71"/>
       <c r="D112" s="71"/>
     </row>
@@ -21714,18 +22911,336 @@
     <row r="139" s="71" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="140" s="71" customFormat="1" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="360">
-    <mergeCell ref="EC4:EH4"/>
-    <mergeCell ref="EI4:EQ4"/>
-    <mergeCell ref="DX5:DY5"/>
-    <mergeCell ref="DZ5:EQ5"/>
-    <mergeCell ref="DY39:EA39"/>
-    <mergeCell ref="DY40:EA40"/>
-    <mergeCell ref="DY41:EA41"/>
-    <mergeCell ref="DY42:EA42"/>
-    <mergeCell ref="DX7:DY7"/>
-    <mergeCell ref="DZ7:EB7"/>
-    <mergeCell ref="EC7:EH7"/>
+  <mergeCells count="364">
+    <mergeCell ref="DD95:DF95"/>
+    <mergeCell ref="DD96:DF96"/>
+    <mergeCell ref="DD97:DF97"/>
+    <mergeCell ref="DD98:DF98"/>
+    <mergeCell ref="EU7:EW7"/>
+    <mergeCell ref="EX7:FC7"/>
+    <mergeCell ref="FG7:FL7"/>
+    <mergeCell ref="ET39:EV39"/>
+    <mergeCell ref="ET40:EV40"/>
+    <mergeCell ref="ET41:EV41"/>
+    <mergeCell ref="ET42:EV42"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="ES5:ET5"/>
+    <mergeCell ref="EU5:FL5"/>
+    <mergeCell ref="ES6:ET6"/>
+    <mergeCell ref="EU6:EW6"/>
+    <mergeCell ref="EX6:FC6"/>
+    <mergeCell ref="FD6:FF6"/>
+    <mergeCell ref="FG6:FL6"/>
+    <mergeCell ref="ES7:ET7"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="AH4:AP4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="ES2:ET2"/>
+    <mergeCell ref="EU2:EW2"/>
+    <mergeCell ref="EX2:FC2"/>
+    <mergeCell ref="FD2:FL2"/>
+    <mergeCell ref="ES3:ET3"/>
+    <mergeCell ref="EU3:EW3"/>
+    <mergeCell ref="EX3:FC3"/>
+    <mergeCell ref="FD3:FH3"/>
+    <mergeCell ref="ES4:ET4"/>
+    <mergeCell ref="EU4:EV4"/>
+    <mergeCell ref="EX4:FC4"/>
+    <mergeCell ref="FD4:FL4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="Y5:AP5"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AH2:AP2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AW4:BB4"/>
+    <mergeCell ref="BC4:BK4"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AT5:BK5"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AW2:BB2"/>
+    <mergeCell ref="BC2:BK2"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:BB3"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU19:AV19"/>
+    <mergeCell ref="AS39:AU39"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="AT6:AV6"/>
+    <mergeCell ref="AW6:BB6"/>
+    <mergeCell ref="BC6:BE6"/>
+    <mergeCell ref="BF6:BK6"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AV7"/>
+    <mergeCell ref="AW7:BB7"/>
+    <mergeCell ref="BF7:BK7"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BR4:BW4"/>
+    <mergeCell ref="BX4:CF4"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:CF5"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BR2:BW2"/>
+    <mergeCell ref="BX2:CF2"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BW3"/>
+    <mergeCell ref="BX3:CB3"/>
+    <mergeCell ref="BM7:BN7"/>
+    <mergeCell ref="BO7:BQ7"/>
+    <mergeCell ref="BR7:BW7"/>
+    <mergeCell ref="CA7:CF7"/>
+    <mergeCell ref="BP19:BQ19"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="BR6:BW6"/>
+    <mergeCell ref="BX6:BZ6"/>
+    <mergeCell ref="CA6:CF6"/>
+    <mergeCell ref="BN39:BP39"/>
+    <mergeCell ref="BN40:BP40"/>
+    <mergeCell ref="BN41:BP41"/>
+    <mergeCell ref="BN42:BP42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:T45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AG45"/>
+    <mergeCell ref="AH45:AP45"/>
+    <mergeCell ref="AR45:AS45"/>
+    <mergeCell ref="AT45:AV45"/>
+    <mergeCell ref="AW45:BB45"/>
+    <mergeCell ref="BC45:BK45"/>
+    <mergeCell ref="BO45:BQ45"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="L47:T47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="O50:T50"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:T48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:T49"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="AB47:AG47"/>
+    <mergeCell ref="AH47:AP47"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="X96:Z96"/>
+    <mergeCell ref="X97:Z97"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AT46:AV46"/>
+    <mergeCell ref="AW46:BB46"/>
+    <mergeCell ref="BC46:BG46"/>
+    <mergeCell ref="AR47:AS47"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="AW47:BB47"/>
+    <mergeCell ref="BC47:BK47"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AB50:AG50"/>
+    <mergeCell ref="AK50:AP50"/>
+    <mergeCell ref="Y48:AP48"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AB49:AG49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="AK49:AP49"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AG46"/>
+    <mergeCell ref="AH46:AL46"/>
+    <mergeCell ref="BR45:BW45"/>
+    <mergeCell ref="BX45:CF45"/>
+    <mergeCell ref="BM46:BN46"/>
+    <mergeCell ref="BO46:BQ46"/>
+    <mergeCell ref="BR46:BW46"/>
+    <mergeCell ref="BX46:CB46"/>
+    <mergeCell ref="AS95:AU95"/>
+    <mergeCell ref="AS96:AU96"/>
+    <mergeCell ref="AS97:AU97"/>
+    <mergeCell ref="BM45:BN45"/>
+    <mergeCell ref="BM47:BN47"/>
+    <mergeCell ref="BM49:BN49"/>
+    <mergeCell ref="AR50:AS50"/>
+    <mergeCell ref="AT50:AV50"/>
+    <mergeCell ref="AW50:BB50"/>
+    <mergeCell ref="BF50:BK50"/>
+    <mergeCell ref="AU62:AV62"/>
+    <mergeCell ref="AR48:AS48"/>
+    <mergeCell ref="AT48:BK48"/>
+    <mergeCell ref="AR49:AS49"/>
+    <mergeCell ref="AT49:AV49"/>
+    <mergeCell ref="AW49:BB49"/>
+    <mergeCell ref="BC49:BE49"/>
+    <mergeCell ref="BF49:BK49"/>
+    <mergeCell ref="BO49:BQ49"/>
+    <mergeCell ref="BR49:BW49"/>
+    <mergeCell ref="BX49:BZ49"/>
+    <mergeCell ref="CA49:CF49"/>
+    <mergeCell ref="BM50:BN50"/>
+    <mergeCell ref="BO50:BQ50"/>
+    <mergeCell ref="BR50:BW50"/>
+    <mergeCell ref="CA50:CF50"/>
+    <mergeCell ref="BO47:BP47"/>
+    <mergeCell ref="BR47:BW47"/>
+    <mergeCell ref="BX47:CF47"/>
+    <mergeCell ref="BM48:BN48"/>
+    <mergeCell ref="BO48:CF48"/>
+    <mergeCell ref="BP62:BQ62"/>
+    <mergeCell ref="BN95:BP95"/>
+    <mergeCell ref="BN96:BP96"/>
+    <mergeCell ref="BN97:BP97"/>
+    <mergeCell ref="BN98:BP98"/>
+    <mergeCell ref="AS98:AU98"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="X95:Z95"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="X98:Z98"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:DA4"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CJ5:DA5"/>
+    <mergeCell ref="CH2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="CM2:CR2"/>
+    <mergeCell ref="CS2:DA2"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CM3:CR3"/>
+    <mergeCell ref="CS3:CW3"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CJ7:CL7"/>
+    <mergeCell ref="CM7:CR7"/>
+    <mergeCell ref="CV7:DA7"/>
+    <mergeCell ref="CK19:CL19"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CJ6:CL6"/>
+    <mergeCell ref="CM6:CR6"/>
+    <mergeCell ref="CS6:CU6"/>
+    <mergeCell ref="CV6:DA6"/>
+    <mergeCell ref="CJ48:DA48"/>
+    <mergeCell ref="CM45:CR45"/>
+    <mergeCell ref="CS45:DA45"/>
+    <mergeCell ref="CH46:CI46"/>
+    <mergeCell ref="CJ46:CL46"/>
+    <mergeCell ref="CM46:CR46"/>
+    <mergeCell ref="CS46:CW46"/>
+    <mergeCell ref="CI39:CK39"/>
+    <mergeCell ref="CI40:CK40"/>
+    <mergeCell ref="CI41:CK41"/>
+    <mergeCell ref="CI42:CK42"/>
+    <mergeCell ref="CH45:CI45"/>
+    <mergeCell ref="CJ45:CL45"/>
+    <mergeCell ref="CI95:CK95"/>
+    <mergeCell ref="CI96:CK96"/>
+    <mergeCell ref="CI97:CK97"/>
+    <mergeCell ref="CI98:CK98"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DC6:DD6"/>
+    <mergeCell ref="CH50:CI50"/>
+    <mergeCell ref="CJ50:CL50"/>
+    <mergeCell ref="CM50:CR50"/>
+    <mergeCell ref="CV50:DA50"/>
+    <mergeCell ref="CH49:CI49"/>
+    <mergeCell ref="CJ49:CL49"/>
+    <mergeCell ref="CM49:CR49"/>
+    <mergeCell ref="CS49:CU49"/>
+    <mergeCell ref="CV49:DA49"/>
+    <mergeCell ref="CH47:CI47"/>
+    <mergeCell ref="CJ47:CK47"/>
+    <mergeCell ref="CM47:CR47"/>
+    <mergeCell ref="CS47:DA47"/>
+    <mergeCell ref="DD40:DF40"/>
+    <mergeCell ref="DD41:DF41"/>
+    <mergeCell ref="DD42:DF42"/>
+    <mergeCell ref="CH48:CI48"/>
+    <mergeCell ref="DQ7:DV7"/>
+    <mergeCell ref="DE4:DF4"/>
+    <mergeCell ref="DH4:DM4"/>
+    <mergeCell ref="DN4:DV4"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DE5:DV5"/>
+    <mergeCell ref="DE2:DG2"/>
+    <mergeCell ref="DH2:DM2"/>
+    <mergeCell ref="DN2:DV2"/>
+    <mergeCell ref="DC3:DD3"/>
+    <mergeCell ref="DE3:DG3"/>
+    <mergeCell ref="DH3:DM3"/>
+    <mergeCell ref="DN3:DR3"/>
     <mergeCell ref="DX2:DY2"/>
     <mergeCell ref="DZ2:EB2"/>
     <mergeCell ref="EC2:EH2"/>
@@ -21750,341 +23265,27 @@
     <mergeCell ref="EL6:EQ6"/>
     <mergeCell ref="DX4:DY4"/>
     <mergeCell ref="DZ4:EA4"/>
-    <mergeCell ref="DQ7:DV7"/>
-    <mergeCell ref="DE4:DF4"/>
-    <mergeCell ref="DH4:DM4"/>
-    <mergeCell ref="DN4:DV4"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DE5:DV5"/>
-    <mergeCell ref="DE2:DG2"/>
-    <mergeCell ref="DH2:DM2"/>
-    <mergeCell ref="DN2:DV2"/>
-    <mergeCell ref="DC3:DD3"/>
-    <mergeCell ref="DE3:DG3"/>
-    <mergeCell ref="DH3:DM3"/>
-    <mergeCell ref="DN3:DR3"/>
-    <mergeCell ref="CI95:CK95"/>
-    <mergeCell ref="CI96:CK96"/>
-    <mergeCell ref="CI97:CK97"/>
-    <mergeCell ref="CI98:CK98"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DC4:DD4"/>
-    <mergeCell ref="DC6:DD6"/>
-    <mergeCell ref="CH50:CI50"/>
-    <mergeCell ref="CJ50:CL50"/>
-    <mergeCell ref="CM50:CR50"/>
-    <mergeCell ref="CV50:DA50"/>
-    <mergeCell ref="CH49:CI49"/>
-    <mergeCell ref="CJ49:CL49"/>
-    <mergeCell ref="CM49:CR49"/>
-    <mergeCell ref="CS49:CU49"/>
-    <mergeCell ref="CV49:DA49"/>
-    <mergeCell ref="CH47:CI47"/>
-    <mergeCell ref="CJ47:CK47"/>
-    <mergeCell ref="CM47:CR47"/>
-    <mergeCell ref="CS47:DA47"/>
-    <mergeCell ref="DD40:DF40"/>
-    <mergeCell ref="DD41:DF41"/>
-    <mergeCell ref="DD42:DF42"/>
-    <mergeCell ref="CH48:CI48"/>
-    <mergeCell ref="CJ48:DA48"/>
-    <mergeCell ref="CM45:CR45"/>
-    <mergeCell ref="CS45:DA45"/>
-    <mergeCell ref="CH46:CI46"/>
-    <mergeCell ref="CJ46:CL46"/>
-    <mergeCell ref="CM46:CR46"/>
-    <mergeCell ref="CS46:CW46"/>
-    <mergeCell ref="CI39:CK39"/>
-    <mergeCell ref="CI40:CK40"/>
-    <mergeCell ref="CI41:CK41"/>
-    <mergeCell ref="CI42:CK42"/>
-    <mergeCell ref="CH45:CI45"/>
-    <mergeCell ref="CJ45:CL45"/>
-    <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CJ7:CL7"/>
-    <mergeCell ref="CM7:CR7"/>
-    <mergeCell ref="CV7:DA7"/>
-    <mergeCell ref="CK19:CL19"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CJ6:CL6"/>
-    <mergeCell ref="CM6:CR6"/>
-    <mergeCell ref="CS6:CU6"/>
-    <mergeCell ref="CV6:DA6"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:DA4"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CJ5:DA5"/>
-    <mergeCell ref="CH2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="CM2:CR2"/>
-    <mergeCell ref="CS2:DA2"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CM3:CR3"/>
-    <mergeCell ref="CS3:CW3"/>
-    <mergeCell ref="BP62:BQ62"/>
-    <mergeCell ref="BN95:BP95"/>
-    <mergeCell ref="BN96:BP96"/>
-    <mergeCell ref="BN97:BP97"/>
-    <mergeCell ref="BN98:BP98"/>
-    <mergeCell ref="AS98:AU98"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="X95:Z95"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="BO49:BQ49"/>
-    <mergeCell ref="BR49:BW49"/>
-    <mergeCell ref="BX49:BZ49"/>
-    <mergeCell ref="CA49:CF49"/>
-    <mergeCell ref="BM50:BN50"/>
-    <mergeCell ref="BO50:BQ50"/>
-    <mergeCell ref="BR50:BW50"/>
-    <mergeCell ref="CA50:CF50"/>
-    <mergeCell ref="BO47:BP47"/>
-    <mergeCell ref="BR47:BW47"/>
-    <mergeCell ref="BX47:CF47"/>
-    <mergeCell ref="BM48:BN48"/>
-    <mergeCell ref="BO48:CF48"/>
-    <mergeCell ref="BR45:BW45"/>
-    <mergeCell ref="BX45:CF45"/>
-    <mergeCell ref="BM46:BN46"/>
-    <mergeCell ref="BO46:BQ46"/>
-    <mergeCell ref="BR46:BW46"/>
-    <mergeCell ref="BX46:CB46"/>
-    <mergeCell ref="AS95:AU95"/>
-    <mergeCell ref="AS96:AU96"/>
-    <mergeCell ref="AS97:AU97"/>
-    <mergeCell ref="BM45:BN45"/>
-    <mergeCell ref="BM47:BN47"/>
-    <mergeCell ref="BM49:BN49"/>
-    <mergeCell ref="AR50:AS50"/>
-    <mergeCell ref="AT50:AV50"/>
-    <mergeCell ref="AW50:BB50"/>
-    <mergeCell ref="BF50:BK50"/>
-    <mergeCell ref="AU62:AV62"/>
-    <mergeCell ref="AR48:AS48"/>
-    <mergeCell ref="AT48:BK48"/>
-    <mergeCell ref="AR49:AS49"/>
-    <mergeCell ref="AT49:AV49"/>
-    <mergeCell ref="AW49:BB49"/>
-    <mergeCell ref="BC49:BE49"/>
-    <mergeCell ref="BF49:BK49"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AT46:AV46"/>
-    <mergeCell ref="AW46:BB46"/>
-    <mergeCell ref="BC46:BG46"/>
-    <mergeCell ref="AR47:AS47"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="AW47:BB47"/>
-    <mergeCell ref="BC47:BK47"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AB50:AG50"/>
-    <mergeCell ref="AK50:AP50"/>
-    <mergeCell ref="Y48:AP48"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AB49:AG49"/>
-    <mergeCell ref="AH49:AJ49"/>
-    <mergeCell ref="AK49:AP49"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="AB46:AG46"/>
-    <mergeCell ref="AH46:AL46"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="AB47:AG47"/>
-    <mergeCell ref="AH47:AP47"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="X96:Z96"/>
-    <mergeCell ref="X97:Z97"/>
-    <mergeCell ref="X98:Z98"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="O50:T50"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:T48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:T49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="L47:T47"/>
-    <mergeCell ref="BN39:BP39"/>
-    <mergeCell ref="BN40:BP40"/>
-    <mergeCell ref="BN41:BP41"/>
-    <mergeCell ref="BN42:BP42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:T45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="AB45:AG45"/>
-    <mergeCell ref="AH45:AP45"/>
-    <mergeCell ref="AR45:AS45"/>
-    <mergeCell ref="AT45:AV45"/>
-    <mergeCell ref="AW45:BB45"/>
-    <mergeCell ref="BC45:BK45"/>
-    <mergeCell ref="BO45:BQ45"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="BM7:BN7"/>
-    <mergeCell ref="BO7:BQ7"/>
-    <mergeCell ref="BR7:BW7"/>
-    <mergeCell ref="CA7:CF7"/>
-    <mergeCell ref="BP19:BQ19"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="BR6:BW6"/>
-    <mergeCell ref="BX6:BZ6"/>
-    <mergeCell ref="CA6:CF6"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BR4:BW4"/>
-    <mergeCell ref="BX4:CF4"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:CF5"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BR2:BW2"/>
-    <mergeCell ref="BX2:CF2"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BW3"/>
-    <mergeCell ref="BX3:CB3"/>
-    <mergeCell ref="AU19:AV19"/>
-    <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AT6:AV6"/>
-    <mergeCell ref="AW6:BB6"/>
-    <mergeCell ref="BC6:BE6"/>
-    <mergeCell ref="BF6:BK6"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="AW7:BB7"/>
-    <mergeCell ref="BF7:BK7"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AW4:BB4"/>
-    <mergeCell ref="BC4:BK4"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AT5:BK5"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AW2:BB2"/>
-    <mergeCell ref="BC2:BK2"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:BB3"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="Y5:AP5"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AH2:AP2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="ES2:ET2"/>
-    <mergeCell ref="EU2:EW2"/>
-    <mergeCell ref="EX2:FC2"/>
-    <mergeCell ref="FD2:FL2"/>
-    <mergeCell ref="ES3:ET3"/>
-    <mergeCell ref="EU3:EW3"/>
-    <mergeCell ref="EX3:FC3"/>
-    <mergeCell ref="FD3:FH3"/>
-    <mergeCell ref="ES4:ET4"/>
-    <mergeCell ref="EU4:EV4"/>
-    <mergeCell ref="EX4:FC4"/>
-    <mergeCell ref="FD4:FL4"/>
-    <mergeCell ref="EU7:EW7"/>
-    <mergeCell ref="EX7:FC7"/>
-    <mergeCell ref="FG7:FL7"/>
-    <mergeCell ref="ET39:EV39"/>
-    <mergeCell ref="ET40:EV40"/>
-    <mergeCell ref="ET41:EV41"/>
-    <mergeCell ref="ET42:EV42"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="ES5:ET5"/>
-    <mergeCell ref="EU5:FL5"/>
-    <mergeCell ref="ES6:ET6"/>
-    <mergeCell ref="EU6:EW6"/>
-    <mergeCell ref="EX6:FC6"/>
-    <mergeCell ref="FD6:FF6"/>
-    <mergeCell ref="FG6:FL6"/>
-    <mergeCell ref="ES7:ET7"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="AH4:AP4"/>
-    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="EC4:EH4"/>
+    <mergeCell ref="EI4:EQ4"/>
+    <mergeCell ref="DX5:DY5"/>
+    <mergeCell ref="DZ5:EQ5"/>
+    <mergeCell ref="DY39:EA39"/>
+    <mergeCell ref="DY40:EA40"/>
+    <mergeCell ref="DY41:EA41"/>
+    <mergeCell ref="DY42:EA42"/>
+    <mergeCell ref="DX7:DY7"/>
+    <mergeCell ref="DZ7:EB7"/>
+    <mergeCell ref="EC7:EH7"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39 AB39:AP39 AW39:BK39 F95:T95 EX39:FL39 AW95:BK95 BR95:CF95 CM39:DA39 CM95:DA95 BR39:CF39 EC39:EQ39 DH39:DV39 AB95:AP95" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39 AB39:AP39 AW39:BK39 F95:T95 EX39:FL39 AW95:BK95 BR95:CF95 CM39:DA39 CM95:DA95 BR39:CF39 EC39:EQ39 DH39:DV39 AB95:AP95 DH95:DV95" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40 AB40:AP40 AW40:BK40 F96:T96 EX40:FL40 AW96:BK96 BR96:CF96 CM40:DA40 CM96:DA96 DH40:DV40 EC40:EQ40 BR40:CF40 AB96:AP96" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40 AB40:AP40 AW40:BK40 F96:T96 EX40:FL40 AW96:BK96 BR96:CF96 CM40:DA40 CM96:DA96 DH40:DV40 EC40:EQ40 BR40:CF40 AB96:AP96 DH96:DV96" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38 AB10:AP38 AW10:BK38 EX10:FL38 F53:T94 AB53:AP94 AW53:BK94 BR10:CF38 BR53:CF94 CM10:DA38 DH10:DV38 EC10:EQ38 CM53:DA94" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38 AB10:AP38 AW10:BK38 EX10:FL38 F53:T94 AB53:AP94 AW53:BK94 BR10:CF38 BR53:CF94 CM10:DA38 DH10:DV38 EC10:EQ38 CM53:DA94 DH53:DV94" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
